--- a/docs/Tasker Scrum.xlsx
+++ b/docs/Tasker Scrum.xlsx
@@ -65,12 +65,12 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C2">
+    <comment authorId="0" ref="D2">
       <text>
         <t xml:space="preserve">Annie Chiou
 Create data access objects and db mappings for backend
 Acceptance Criteria:
-1. DAO files for all tables in DB
+1. DAO files for Task tables in DB
 2. DB mappings using MyBatis</t>
       </text>
     </comment>
@@ -92,7 +92,7 @@
 2. Must have clickable checkbox</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D5">
+    <comment authorId="0" ref="C5">
       <text>
         <t xml:space="preserve">(Annie Chiou)
 Backend support for editing tasks
@@ -209,26 +209,29 @@
 2. Working links</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B18">
+      <text>
+        <t xml:space="preserve">Annie Chiou
+Create data access objects and db mappings for backend
+Acceptance Criteria:
+1. DAO files for List tables in DB
+2. DB mappings using MyBatis</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
-    <t>ID</t>
+    <t>To Do (Sprint Backlog)</t>
   </si>
   <si>
     <t>Last Update</t>
   </si>
   <si>
-    <t>To Do (Sprint Backlog)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story (small features)</t>
+    <t>ID</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -240,7 +243,37 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 1: DAO and DB Mappings </t>
+    <t xml:space="preserve">Task 1: Tasks DAO and DB Mappings </t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story (small features)</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Annie Chiou</t>
+  </si>
+  <si>
+    <t>User Registration and Login / Logout</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>achio002@ucr.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Task 2: Add Task API </t>
@@ -252,13 +285,10 @@
     <t xml:space="preserve">Task 4: Edit Tasks API </t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Task 5: Edit Tasks Design</t>
   </si>
   <si>
-    <t>Annie Chiou</t>
+    <t>Description</t>
   </si>
   <si>
     <t xml:space="preserve">Task 6: Delete Task Design </t>
@@ -268,15 +298,6 @@
   </si>
   <si>
     <t xml:space="preserve">Task 8: List Design </t>
-  </si>
-  <si>
-    <t>Story Points</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t xml:space="preserve">Task 9: Add List API </t>
@@ -291,6 +312,9 @@
     <t>Task 12: User Logout API</t>
   </si>
   <si>
+    <t>As a person interested by Tasks, I want to register so I can login/logout, and as a registered user, I want to be able to login to fully use the website and to logout once I’m done.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task 13: Logout Function </t>
   </si>
   <si>
@@ -300,22 +324,10 @@
     <t>Task 15: Delete List Design</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>achio002@ucr.edu</t>
-  </si>
-  <si>
     <t>Task 16: Registration and Login Page</t>
   </si>
   <si>
-    <t>User Registration and Login / Logout</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>As a person interested by Tasks, I want to register so I can login/logout, and as a registered user, I want to be able to login to fully use the website and to logout once I’m done.</t>
+    <t>Task 17: Lists DAO and DB Mappings</t>
   </si>
   <si>
     <t>Tasker Web App</t>
@@ -325,9 +337,6 @@
   </si>
   <si>
     <t>As a registered user, I want to be able to create or add tasks so I can keep in mind what I have left to do and to divide it into subtasks so I can detail the task I’m creating/adding.</t>
-  </si>
-  <si>
-    <t>Tabs</t>
   </si>
   <si>
     <t>Review Tasks</t>
@@ -343,13 +352,16 @@
 </t>
   </si>
   <si>
+    <t>Tabs</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>"Product Backlog"</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>"Product Backlog"</t>
   </si>
   <si>
     <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
@@ -446,18 +458,18 @@
     <font>
       <b/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font/>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -543,108 +555,111 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -741,11 +756,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1836696380"/>
-        <c:axId val="94100649"/>
+        <c:axId val="1123139284"/>
+        <c:axId val="575886957"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1836696380"/>
+        <c:axId val="1123139284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,10 +775,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94100649"/>
+        <c:crossAx val="575886957"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94100649"/>
+        <c:axId val="575886957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -796,7 +811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836696380"/>
+        <c:crossAx val="1123139284"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -870,7 +885,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5">
@@ -878,5073 +893,5073 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>34</v>
+      <c r="B4" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+    <row r="8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23" t="s">
+    <row r="9">
+      <c r="A9" s="19"/>
+      <c r="B9" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
+    <row r="10">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="24"/>
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="24"/>
-      <c r="B14" s="30" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="25"/>
+      <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="9" t="s">
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="25"/>
+      <c r="B14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23" t="s">
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="24"/>
-      <c r="B17" s="19" t="s">
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="24"/>
-      <c r="B18" s="19" t="s">
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="30" t="s">
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
+      <c r="C18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="19"/>
+      <c r="B19" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="19"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="s">
+      <c r="B21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
+      <c r="B23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="30"/>
     </row>
     <row r="25">
-      <c r="A25" s="33"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29">
-      <c r="A29" s="33"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30">
-      <c r="A30" s="33"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="34"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="30"/>
     </row>
     <row r="55">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="30"/>
     </row>
     <row r="56">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="30"/>
     </row>
     <row r="57">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="30"/>
     </row>
     <row r="59">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="30"/>
     </row>
     <row r="61">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="30"/>
     </row>
     <row r="62">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="30"/>
     </row>
     <row r="64">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="29"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="30"/>
     </row>
     <row r="65">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="29"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="66">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="29"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="30"/>
     </row>
     <row r="67">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="29"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="30"/>
     </row>
     <row r="68">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="29"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="29"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="30"/>
     </row>
     <row r="70">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="29"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="29"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="30"/>
     </row>
     <row r="72">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="29"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="30"/>
     </row>
     <row r="73">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="29"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="29"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="30"/>
     </row>
     <row r="75">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="29"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="30"/>
     </row>
     <row r="76">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="29"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="30"/>
     </row>
     <row r="77">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="29"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="30"/>
     </row>
     <row r="78">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="29"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="30"/>
     </row>
     <row r="79">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="29"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="30"/>
     </row>
     <row r="80">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="29"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="29"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="30"/>
     </row>
     <row r="82">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="29"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="29"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="30"/>
     </row>
     <row r="84">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="29"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="29"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="29"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="30"/>
     </row>
     <row r="87">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="29"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="30"/>
     </row>
     <row r="88">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="30"/>
     </row>
     <row r="89">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="29"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="30"/>
     </row>
     <row r="90">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="29"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="30"/>
     </row>
     <row r="91">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="29"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="29"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="30"/>
     </row>
     <row r="93">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="29"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="29"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="30"/>
     </row>
     <row r="95">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="29"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="30"/>
     </row>
     <row r="96">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="29"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="29"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="30"/>
     </row>
     <row r="98">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="29"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="30"/>
     </row>
     <row r="99">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="29"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="30"/>
     </row>
     <row r="100">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="29"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="30"/>
     </row>
     <row r="101">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="29"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="30"/>
     </row>
     <row r="102">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="29"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="29"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="30"/>
     </row>
     <row r="104">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="29"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="29"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="30"/>
     </row>
     <row r="106">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="29"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="30"/>
     </row>
     <row r="107">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="29"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="29"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="30"/>
     </row>
     <row r="109">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="29"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="30"/>
     </row>
     <row r="110">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="29"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="30"/>
     </row>
     <row r="111">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="29"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="30"/>
     </row>
     <row r="112">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="29"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="30"/>
     </row>
     <row r="113">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="29"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="30"/>
     </row>
     <row r="114">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="29"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="30"/>
     </row>
     <row r="115">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="29"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="29"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="30"/>
     </row>
     <row r="117">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="29"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="30"/>
     </row>
     <row r="118">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="29"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="29"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="30"/>
     </row>
     <row r="120">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="29"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="30"/>
     </row>
     <row r="121">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="29"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="30"/>
     </row>
     <row r="122">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="29"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="30"/>
     </row>
     <row r="123">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="29"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="30"/>
     </row>
     <row r="124">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="29"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="30"/>
     </row>
     <row r="126">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="29"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="30"/>
     </row>
     <row r="128">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="29"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="30"/>
     </row>
     <row r="129">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="29"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="29"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="30"/>
     </row>
     <row r="131">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="29"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="30"/>
     </row>
     <row r="132">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="29"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="30"/>
     </row>
     <row r="133">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="29"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="30"/>
     </row>
     <row r="134">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="29"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="30"/>
     </row>
     <row r="135">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="29"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="30"/>
     </row>
     <row r="136">
-      <c r="A136" s="33"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="29"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="30"/>
     </row>
     <row r="137">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="29"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="30"/>
     </row>
     <row r="138">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="29"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="30"/>
     </row>
     <row r="139">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="29"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="30"/>
     </row>
     <row r="140">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="29"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="30"/>
     </row>
     <row r="141">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="29"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="30"/>
     </row>
     <row r="142">
-      <c r="A142" s="33"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="29"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="30"/>
     </row>
     <row r="143">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="29"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="30"/>
     </row>
     <row r="144">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="29"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="30"/>
     </row>
     <row r="145">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="29"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="30"/>
     </row>
     <row r="146">
-      <c r="A146" s="33"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="29"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="30"/>
     </row>
     <row r="147">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="29"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="30"/>
     </row>
     <row r="148">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="29"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="30"/>
     </row>
     <row r="149">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="29"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="30"/>
     </row>
     <row r="150">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="29"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="30"/>
     </row>
     <row r="151">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="29"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="30"/>
     </row>
     <row r="152">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="29"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="30"/>
     </row>
     <row r="153">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="29"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="30"/>
     </row>
     <row r="154">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="29"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="30"/>
     </row>
     <row r="155">
-      <c r="A155" s="33"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="29"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="30"/>
     </row>
     <row r="156">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="29"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="30"/>
     </row>
     <row r="157">
-      <c r="A157" s="33"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="29"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="30"/>
     </row>
     <row r="158">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="29"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="30"/>
     </row>
     <row r="159">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="29"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="30"/>
     </row>
     <row r="160">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="29"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="30"/>
     </row>
     <row r="161">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="29"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="30"/>
     </row>
     <row r="162">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="29"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="30"/>
     </row>
     <row r="163">
-      <c r="A163" s="33"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="29"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="30"/>
     </row>
     <row r="164">
-      <c r="A164" s="33"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="30"/>
     </row>
     <row r="165">
-      <c r="A165" s="33"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="29"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="30"/>
     </row>
     <row r="166">
-      <c r="A166" s="33"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="29"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="30"/>
     </row>
     <row r="167">
-      <c r="A167" s="33"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="29"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="30"/>
     </row>
     <row r="168">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="29"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="30"/>
     </row>
     <row r="169">
-      <c r="A169" s="33"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="29"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="30"/>
     </row>
     <row r="170">
-      <c r="A170" s="33"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="29"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="30"/>
     </row>
     <row r="171">
-      <c r="A171" s="33"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="29"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="30"/>
     </row>
     <row r="172">
-      <c r="A172" s="33"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="29"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173">
-      <c r="A173" s="33"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="29"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="30"/>
     </row>
     <row r="174">
-      <c r="A174" s="33"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="29"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="34"/>
+      <c r="C174" s="30"/>
     </row>
     <row r="175">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="29"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="30"/>
     </row>
     <row r="176">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="29"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="30"/>
     </row>
     <row r="177">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="29"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="30"/>
     </row>
     <row r="178">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="29"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="30"/>
     </row>
     <row r="179">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="29"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="30"/>
     </row>
     <row r="180">
-      <c r="A180" s="33"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="29"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="30"/>
     </row>
     <row r="181">
-      <c r="A181" s="33"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="29"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="30"/>
     </row>
     <row r="182">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="29"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="30"/>
     </row>
     <row r="183">
-      <c r="A183" s="33"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="29"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="30"/>
     </row>
     <row r="184">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="29"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="30"/>
     </row>
     <row r="185">
-      <c r="A185" s="33"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="29"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="30"/>
     </row>
     <row r="186">
-      <c r="A186" s="33"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="29"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="30"/>
     </row>
     <row r="187">
-      <c r="A187" s="33"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="29"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="34"/>
+      <c r="C187" s="30"/>
     </row>
     <row r="188">
-      <c r="A188" s="33"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="29"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="30"/>
     </row>
     <row r="189">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="29"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="34"/>
+      <c r="C189" s="30"/>
     </row>
     <row r="190">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="29"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="30"/>
     </row>
     <row r="191">
-      <c r="A191" s="33"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="29"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="30"/>
     </row>
     <row r="192">
-      <c r="A192" s="33"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="29"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="30"/>
     </row>
     <row r="193">
-      <c r="A193" s="33"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="29"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="30"/>
     </row>
     <row r="194">
-      <c r="A194" s="33"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="29"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="30"/>
     </row>
     <row r="195">
-      <c r="A195" s="33"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="29"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="30"/>
     </row>
     <row r="196">
-      <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="29"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="30"/>
     </row>
     <row r="197">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="29"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="30"/>
     </row>
     <row r="198">
-      <c r="A198" s="33"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="29"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="30"/>
     </row>
     <row r="199">
-      <c r="A199" s="33"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="29"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="34"/>
+      <c r="C199" s="30"/>
     </row>
     <row r="200">
-      <c r="A200" s="33"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="29"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="30"/>
     </row>
     <row r="201">
-      <c r="A201" s="33"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="29"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="30"/>
     </row>
     <row r="202">
-      <c r="A202" s="33"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="29"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="30"/>
     </row>
     <row r="203">
-      <c r="A203" s="33"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="29"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="30"/>
     </row>
     <row r="204">
-      <c r="A204" s="33"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="29"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="30"/>
     </row>
     <row r="205">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="29"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="30"/>
     </row>
     <row r="206">
-      <c r="A206" s="33"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="29"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="30"/>
     </row>
     <row r="207">
-      <c r="A207" s="33"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="29"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="30"/>
     </row>
     <row r="208">
-      <c r="A208" s="33"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="29"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="30"/>
     </row>
     <row r="209">
-      <c r="A209" s="33"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="29"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="30"/>
     </row>
     <row r="210">
-      <c r="A210" s="33"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="29"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="30"/>
     </row>
     <row r="211">
-      <c r="A211" s="33"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="29"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="30"/>
     </row>
     <row r="212">
-      <c r="A212" s="33"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="29"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="34"/>
+      <c r="C212" s="30"/>
     </row>
     <row r="213">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="29"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="30"/>
     </row>
     <row r="214">
-      <c r="A214" s="33"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="29"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="30"/>
     </row>
     <row r="215">
-      <c r="A215" s="33"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="29"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216">
-      <c r="A216" s="33"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="29"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="30"/>
     </row>
     <row r="217">
-      <c r="A217" s="33"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="29"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="30"/>
     </row>
     <row r="218">
-      <c r="A218" s="33"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="29"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="30"/>
     </row>
     <row r="219">
-      <c r="A219" s="33"/>
-      <c r="B219" s="33"/>
-      <c r="C219" s="29"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220">
-      <c r="A220" s="33"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="29"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221">
-      <c r="A221" s="33"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="29"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222">
-      <c r="A222" s="33"/>
-      <c r="B222" s="33"/>
-      <c r="C222" s="29"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="30"/>
     </row>
     <row r="223">
-      <c r="A223" s="33"/>
-      <c r="B223" s="33"/>
-      <c r="C223" s="29"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="30"/>
     </row>
     <row r="224">
-      <c r="A224" s="33"/>
-      <c r="B224" s="33"/>
-      <c r="C224" s="29"/>
+      <c r="A224" s="34"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="30"/>
     </row>
     <row r="225">
-      <c r="A225" s="33"/>
-      <c r="B225" s="33"/>
-      <c r="C225" s="29"/>
+      <c r="A225" s="34"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226">
-      <c r="A226" s="33"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="29"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="30"/>
     </row>
     <row r="227">
-      <c r="A227" s="33"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="29"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="30"/>
     </row>
     <row r="228">
-      <c r="A228" s="33"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="29"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229">
-      <c r="A229" s="33"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="29"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="30"/>
     </row>
     <row r="230">
-      <c r="A230" s="33"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="29"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="30"/>
     </row>
     <row r="231">
-      <c r="A231" s="33"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="29"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="30"/>
     </row>
     <row r="232">
-      <c r="A232" s="33"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="29"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="30"/>
     </row>
     <row r="233">
-      <c r="A233" s="33"/>
-      <c r="B233" s="33"/>
-      <c r="C233" s="29"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234">
-      <c r="A234" s="33"/>
-      <c r="B234" s="33"/>
-      <c r="C234" s="29"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235">
-      <c r="A235" s="33"/>
-      <c r="B235" s="33"/>
-      <c r="C235" s="29"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="30"/>
     </row>
     <row r="236">
-      <c r="A236" s="33"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="29"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="30"/>
     </row>
     <row r="237">
-      <c r="A237" s="33"/>
-      <c r="B237" s="33"/>
-      <c r="C237" s="29"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238">
-      <c r="A238" s="33"/>
-      <c r="B238" s="33"/>
-      <c r="C238" s="29"/>
+      <c r="A238" s="34"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239">
-      <c r="A239" s="33"/>
-      <c r="B239" s="33"/>
-      <c r="C239" s="29"/>
+      <c r="A239" s="34"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="30"/>
     </row>
     <row r="240">
-      <c r="A240" s="33"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="29"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="30"/>
     </row>
     <row r="241">
-      <c r="A241" s="33"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="29"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="30"/>
     </row>
     <row r="242">
-      <c r="A242" s="33"/>
-      <c r="B242" s="33"/>
-      <c r="C242" s="29"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="30"/>
     </row>
     <row r="243">
-      <c r="A243" s="33"/>
-      <c r="B243" s="33"/>
-      <c r="C243" s="29"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="30"/>
     </row>
     <row r="244">
-      <c r="A244" s="33"/>
-      <c r="B244" s="33"/>
-      <c r="C244" s="29"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="30"/>
     </row>
     <row r="245">
-      <c r="A245" s="33"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="29"/>
+      <c r="A245" s="34"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="30"/>
     </row>
     <row r="246">
-      <c r="A246" s="33"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="29"/>
+      <c r="A246" s="34"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247">
-      <c r="A247" s="33"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="29"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="30"/>
     </row>
     <row r="248">
-      <c r="A248" s="33"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="29"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249">
-      <c r="A249" s="33"/>
-      <c r="B249" s="33"/>
-      <c r="C249" s="29"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="30"/>
     </row>
     <row r="250">
-      <c r="A250" s="33"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="29"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="30"/>
     </row>
     <row r="251">
-      <c r="A251" s="33"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="29"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="30"/>
     </row>
     <row r="252">
-      <c r="A252" s="33"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="29"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="30"/>
     </row>
     <row r="253">
-      <c r="A253" s="33"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="29"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254">
-      <c r="A254" s="33"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="29"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="30"/>
     </row>
     <row r="255">
-      <c r="A255" s="33"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="29"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="30"/>
     </row>
     <row r="256">
-      <c r="A256" s="33"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="29"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="30"/>
     </row>
     <row r="257">
-      <c r="A257" s="33"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="29"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="30"/>
     </row>
     <row r="258">
-      <c r="A258" s="33"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="29"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259">
-      <c r="A259" s="33"/>
-      <c r="B259" s="33"/>
-      <c r="C259" s="29"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="34"/>
+      <c r="C259" s="30"/>
     </row>
     <row r="260">
-      <c r="A260" s="33"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="29"/>
+      <c r="A260" s="34"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="30"/>
     </row>
     <row r="261">
-      <c r="A261" s="33"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="29"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="34"/>
+      <c r="C261" s="30"/>
     </row>
     <row r="262">
-      <c r="A262" s="33"/>
-      <c r="B262" s="33"/>
-      <c r="C262" s="29"/>
+      <c r="A262" s="34"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="30"/>
     </row>
     <row r="263">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="29"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264">
-      <c r="A264" s="33"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="29"/>
+      <c r="A264" s="34"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="30"/>
     </row>
     <row r="265">
-      <c r="A265" s="33"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="29"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="30"/>
     </row>
     <row r="266">
-      <c r="A266" s="33"/>
-      <c r="B266" s="33"/>
-      <c r="C266" s="29"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="30"/>
     </row>
     <row r="267">
-      <c r="A267" s="33"/>
-      <c r="B267" s="33"/>
-      <c r="C267" s="29"/>
+      <c r="A267" s="34"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="30"/>
     </row>
     <row r="268">
-      <c r="A268" s="33"/>
-      <c r="B268" s="33"/>
-      <c r="C268" s="29"/>
+      <c r="A268" s="34"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="30"/>
     </row>
     <row r="269">
-      <c r="A269" s="33"/>
-      <c r="B269" s="33"/>
-      <c r="C269" s="29"/>
+      <c r="A269" s="34"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="30"/>
     </row>
     <row r="270">
-      <c r="A270" s="33"/>
-      <c r="B270" s="33"/>
-      <c r="C270" s="29"/>
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="29"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="30"/>
     </row>
     <row r="272">
-      <c r="A272" s="33"/>
-      <c r="B272" s="33"/>
-      <c r="C272" s="29"/>
+      <c r="A272" s="34"/>
+      <c r="B272" s="34"/>
+      <c r="C272" s="30"/>
     </row>
     <row r="273">
-      <c r="A273" s="33"/>
-      <c r="B273" s="33"/>
-      <c r="C273" s="29"/>
+      <c r="A273" s="34"/>
+      <c r="B273" s="34"/>
+      <c r="C273" s="30"/>
     </row>
     <row r="274">
-      <c r="A274" s="33"/>
-      <c r="B274" s="33"/>
-      <c r="C274" s="29"/>
+      <c r="A274" s="34"/>
+      <c r="B274" s="34"/>
+      <c r="C274" s="30"/>
     </row>
     <row r="275">
-      <c r="A275" s="33"/>
-      <c r="B275" s="33"/>
-      <c r="C275" s="29"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="34"/>
+      <c r="C275" s="30"/>
     </row>
     <row r="276">
-      <c r="A276" s="33"/>
-      <c r="B276" s="33"/>
-      <c r="C276" s="29"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="34"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277">
-      <c r="A277" s="33"/>
-      <c r="B277" s="33"/>
-      <c r="C277" s="29"/>
+      <c r="A277" s="34"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="30"/>
     </row>
     <row r="278">
-      <c r="A278" s="33"/>
-      <c r="B278" s="33"/>
-      <c r="C278" s="29"/>
+      <c r="A278" s="34"/>
+      <c r="B278" s="34"/>
+      <c r="C278" s="30"/>
     </row>
     <row r="279">
-      <c r="A279" s="33"/>
-      <c r="B279" s="33"/>
-      <c r="C279" s="29"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="34"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280">
-      <c r="A280" s="33"/>
-      <c r="B280" s="33"/>
-      <c r="C280" s="29"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="30"/>
     </row>
     <row r="281">
-      <c r="A281" s="33"/>
-      <c r="B281" s="33"/>
-      <c r="C281" s="29"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="30"/>
     </row>
     <row r="282">
-      <c r="A282" s="33"/>
-      <c r="B282" s="33"/>
-      <c r="C282" s="29"/>
+      <c r="A282" s="34"/>
+      <c r="B282" s="34"/>
+      <c r="C282" s="30"/>
     </row>
     <row r="283">
-      <c r="A283" s="33"/>
-      <c r="B283" s="33"/>
-      <c r="C283" s="29"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="34"/>
+      <c r="C283" s="30"/>
     </row>
     <row r="284">
-      <c r="A284" s="33"/>
-      <c r="B284" s="33"/>
-      <c r="C284" s="29"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="30"/>
     </row>
     <row r="285">
-      <c r="A285" s="33"/>
-      <c r="B285" s="33"/>
-      <c r="C285" s="29"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286">
-      <c r="A286" s="33"/>
-      <c r="B286" s="33"/>
-      <c r="C286" s="29"/>
+      <c r="A286" s="34"/>
+      <c r="B286" s="34"/>
+      <c r="C286" s="30"/>
     </row>
     <row r="287">
-      <c r="A287" s="33"/>
-      <c r="B287" s="33"/>
-      <c r="C287" s="29"/>
+      <c r="A287" s="34"/>
+      <c r="B287" s="34"/>
+      <c r="C287" s="30"/>
     </row>
     <row r="288">
-      <c r="A288" s="33"/>
-      <c r="B288" s="33"/>
-      <c r="C288" s="29"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="34"/>
+      <c r="C288" s="30"/>
     </row>
     <row r="289">
-      <c r="A289" s="33"/>
-      <c r="B289" s="33"/>
-      <c r="C289" s="29"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="34"/>
+      <c r="C289" s="30"/>
     </row>
     <row r="290">
-      <c r="A290" s="33"/>
-      <c r="B290" s="33"/>
-      <c r="C290" s="29"/>
+      <c r="A290" s="34"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291">
-      <c r="A291" s="33"/>
-      <c r="B291" s="33"/>
-      <c r="C291" s="29"/>
+      <c r="A291" s="34"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="30"/>
     </row>
     <row r="292">
-      <c r="A292" s="33"/>
-      <c r="B292" s="33"/>
-      <c r="C292" s="29"/>
+      <c r="A292" s="34"/>
+      <c r="B292" s="34"/>
+      <c r="C292" s="30"/>
     </row>
     <row r="293">
-      <c r="A293" s="33"/>
-      <c r="B293" s="33"/>
-      <c r="C293" s="29"/>
+      <c r="A293" s="34"/>
+      <c r="B293" s="34"/>
+      <c r="C293" s="30"/>
     </row>
     <row r="294">
-      <c r="A294" s="33"/>
-      <c r="B294" s="33"/>
-      <c r="C294" s="29"/>
+      <c r="A294" s="34"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="30"/>
     </row>
     <row r="295">
-      <c r="A295" s="33"/>
-      <c r="B295" s="33"/>
-      <c r="C295" s="29"/>
+      <c r="A295" s="34"/>
+      <c r="B295" s="34"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296">
-      <c r="A296" s="33"/>
-      <c r="B296" s="33"/>
-      <c r="C296" s="29"/>
+      <c r="A296" s="34"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="30"/>
     </row>
     <row r="297">
-      <c r="A297" s="33"/>
-      <c r="B297" s="33"/>
-      <c r="C297" s="29"/>
+      <c r="A297" s="34"/>
+      <c r="B297" s="34"/>
+      <c r="C297" s="30"/>
     </row>
     <row r="298">
-      <c r="A298" s="33"/>
-      <c r="B298" s="33"/>
-      <c r="C298" s="29"/>
+      <c r="A298" s="34"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="30"/>
     </row>
     <row r="299">
-      <c r="A299" s="33"/>
-      <c r="B299" s="33"/>
-      <c r="C299" s="29"/>
+      <c r="A299" s="34"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="30"/>
     </row>
     <row r="300">
-      <c r="A300" s="33"/>
-      <c r="B300" s="33"/>
-      <c r="C300" s="29"/>
+      <c r="A300" s="34"/>
+      <c r="B300" s="34"/>
+      <c r="C300" s="30"/>
     </row>
     <row r="301">
-      <c r="A301" s="33"/>
-      <c r="B301" s="33"/>
-      <c r="C301" s="29"/>
+      <c r="A301" s="34"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="30"/>
     </row>
     <row r="302">
-      <c r="A302" s="33"/>
-      <c r="B302" s="33"/>
-      <c r="C302" s="29"/>
+      <c r="A302" s="34"/>
+      <c r="B302" s="34"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303">
-      <c r="A303" s="33"/>
-      <c r="B303" s="33"/>
-      <c r="C303" s="29"/>
+      <c r="A303" s="34"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="30"/>
     </row>
     <row r="304">
-      <c r="A304" s="33"/>
-      <c r="B304" s="33"/>
-      <c r="C304" s="29"/>
+      <c r="A304" s="34"/>
+      <c r="B304" s="34"/>
+      <c r="C304" s="30"/>
     </row>
     <row r="305">
-      <c r="A305" s="33"/>
-      <c r="B305" s="33"/>
-      <c r="C305" s="29"/>
+      <c r="A305" s="34"/>
+      <c r="B305" s="34"/>
+      <c r="C305" s="30"/>
     </row>
     <row r="306">
-      <c r="A306" s="33"/>
-      <c r="B306" s="33"/>
-      <c r="C306" s="29"/>
+      <c r="A306" s="34"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="30"/>
     </row>
     <row r="307">
-      <c r="A307" s="33"/>
-      <c r="B307" s="33"/>
-      <c r="C307" s="29"/>
+      <c r="A307" s="34"/>
+      <c r="B307" s="34"/>
+      <c r="C307" s="30"/>
     </row>
     <row r="308">
-      <c r="A308" s="33"/>
-      <c r="B308" s="33"/>
-      <c r="C308" s="29"/>
+      <c r="A308" s="34"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309">
-      <c r="A309" s="33"/>
-      <c r="B309" s="33"/>
-      <c r="C309" s="29"/>
+      <c r="A309" s="34"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310">
-      <c r="A310" s="33"/>
-      <c r="B310" s="33"/>
-      <c r="C310" s="29"/>
+      <c r="A310" s="34"/>
+      <c r="B310" s="34"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311">
-      <c r="A311" s="33"/>
-      <c r="B311" s="33"/>
-      <c r="C311" s="29"/>
+      <c r="A311" s="34"/>
+      <c r="B311" s="34"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312">
-      <c r="A312" s="33"/>
-      <c r="B312" s="33"/>
-      <c r="C312" s="29"/>
+      <c r="A312" s="34"/>
+      <c r="B312" s="34"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313">
-      <c r="A313" s="33"/>
-      <c r="B313" s="33"/>
-      <c r="C313" s="29"/>
+      <c r="A313" s="34"/>
+      <c r="B313" s="34"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314">
-      <c r="A314" s="33"/>
-      <c r="B314" s="33"/>
-      <c r="C314" s="29"/>
+      <c r="A314" s="34"/>
+      <c r="B314" s="34"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315">
-      <c r="A315" s="33"/>
-      <c r="B315" s="33"/>
-      <c r="C315" s="29"/>
+      <c r="A315" s="34"/>
+      <c r="B315" s="34"/>
+      <c r="C315" s="30"/>
     </row>
     <row r="316">
-      <c r="A316" s="33"/>
-      <c r="B316" s="33"/>
-      <c r="C316" s="29"/>
+      <c r="A316" s="34"/>
+      <c r="B316" s="34"/>
+      <c r="C316" s="30"/>
     </row>
     <row r="317">
-      <c r="A317" s="33"/>
-      <c r="B317" s="33"/>
-      <c r="C317" s="29"/>
+      <c r="A317" s="34"/>
+      <c r="B317" s="34"/>
+      <c r="C317" s="30"/>
     </row>
     <row r="318">
-      <c r="A318" s="33"/>
-      <c r="B318" s="33"/>
-      <c r="C318" s="29"/>
+      <c r="A318" s="34"/>
+      <c r="B318" s="34"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319">
-      <c r="A319" s="33"/>
-      <c r="B319" s="33"/>
-      <c r="C319" s="29"/>
+      <c r="A319" s="34"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="30"/>
     </row>
     <row r="320">
-      <c r="A320" s="33"/>
-      <c r="B320" s="33"/>
-      <c r="C320" s="29"/>
+      <c r="A320" s="34"/>
+      <c r="B320" s="34"/>
+      <c r="C320" s="30"/>
     </row>
     <row r="321">
-      <c r="A321" s="33"/>
-      <c r="B321" s="33"/>
-      <c r="C321" s="29"/>
+      <c r="A321" s="34"/>
+      <c r="B321" s="34"/>
+      <c r="C321" s="30"/>
     </row>
     <row r="322">
-      <c r="A322" s="33"/>
-      <c r="B322" s="33"/>
-      <c r="C322" s="29"/>
+      <c r="A322" s="34"/>
+      <c r="B322" s="34"/>
+      <c r="C322" s="30"/>
     </row>
     <row r="323">
-      <c r="A323" s="33"/>
-      <c r="B323" s="33"/>
-      <c r="C323" s="29"/>
+      <c r="A323" s="34"/>
+      <c r="B323" s="34"/>
+      <c r="C323" s="30"/>
     </row>
     <row r="324">
-      <c r="A324" s="33"/>
-      <c r="B324" s="33"/>
-      <c r="C324" s="29"/>
+      <c r="A324" s="34"/>
+      <c r="B324" s="34"/>
+      <c r="C324" s="30"/>
     </row>
     <row r="325">
-      <c r="A325" s="33"/>
-      <c r="B325" s="33"/>
-      <c r="C325" s="29"/>
+      <c r="A325" s="34"/>
+      <c r="B325" s="34"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326">
-      <c r="A326" s="33"/>
-      <c r="B326" s="33"/>
-      <c r="C326" s="29"/>
+      <c r="A326" s="34"/>
+      <c r="B326" s="34"/>
+      <c r="C326" s="30"/>
     </row>
     <row r="327">
-      <c r="A327" s="33"/>
-      <c r="B327" s="33"/>
-      <c r="C327" s="29"/>
+      <c r="A327" s="34"/>
+      <c r="B327" s="34"/>
+      <c r="C327" s="30"/>
     </row>
     <row r="328">
-      <c r="A328" s="33"/>
-      <c r="B328" s="33"/>
-      <c r="C328" s="29"/>
+      <c r="A328" s="34"/>
+      <c r="B328" s="34"/>
+      <c r="C328" s="30"/>
     </row>
     <row r="329">
-      <c r="A329" s="33"/>
-      <c r="B329" s="33"/>
-      <c r="C329" s="29"/>
+      <c r="A329" s="34"/>
+      <c r="B329" s="34"/>
+      <c r="C329" s="30"/>
     </row>
     <row r="330">
-      <c r="A330" s="33"/>
-      <c r="B330" s="33"/>
-      <c r="C330" s="29"/>
+      <c r="A330" s="34"/>
+      <c r="B330" s="34"/>
+      <c r="C330" s="30"/>
     </row>
     <row r="331">
-      <c r="A331" s="33"/>
-      <c r="B331" s="33"/>
-      <c r="C331" s="29"/>
+      <c r="A331" s="34"/>
+      <c r="B331" s="34"/>
+      <c r="C331" s="30"/>
     </row>
     <row r="332">
-      <c r="A332" s="33"/>
-      <c r="B332" s="33"/>
-      <c r="C332" s="29"/>
+      <c r="A332" s="34"/>
+      <c r="B332" s="34"/>
+      <c r="C332" s="30"/>
     </row>
     <row r="333">
-      <c r="A333" s="33"/>
-      <c r="B333" s="33"/>
-      <c r="C333" s="29"/>
+      <c r="A333" s="34"/>
+      <c r="B333" s="34"/>
+      <c r="C333" s="30"/>
     </row>
     <row r="334">
-      <c r="A334" s="33"/>
-      <c r="B334" s="33"/>
-      <c r="C334" s="29"/>
+      <c r="A334" s="34"/>
+      <c r="B334" s="34"/>
+      <c r="C334" s="30"/>
     </row>
     <row r="335">
-      <c r="A335" s="33"/>
-      <c r="B335" s="33"/>
-      <c r="C335" s="29"/>
+      <c r="A335" s="34"/>
+      <c r="B335" s="34"/>
+      <c r="C335" s="30"/>
     </row>
     <row r="336">
-      <c r="A336" s="33"/>
-      <c r="B336" s="33"/>
-      <c r="C336" s="29"/>
+      <c r="A336" s="34"/>
+      <c r="B336" s="34"/>
+      <c r="C336" s="30"/>
     </row>
     <row r="337">
-      <c r="A337" s="33"/>
-      <c r="B337" s="33"/>
-      <c r="C337" s="29"/>
+      <c r="A337" s="34"/>
+      <c r="B337" s="34"/>
+      <c r="C337" s="30"/>
     </row>
     <row r="338">
-      <c r="A338" s="33"/>
-      <c r="B338" s="33"/>
-      <c r="C338" s="29"/>
+      <c r="A338" s="34"/>
+      <c r="B338" s="34"/>
+      <c r="C338" s="30"/>
     </row>
     <row r="339">
-      <c r="A339" s="33"/>
-      <c r="B339" s="33"/>
-      <c r="C339" s="29"/>
+      <c r="A339" s="34"/>
+      <c r="B339" s="34"/>
+      <c r="C339" s="30"/>
     </row>
     <row r="340">
-      <c r="A340" s="33"/>
-      <c r="B340" s="33"/>
-      <c r="C340" s="29"/>
+      <c r="A340" s="34"/>
+      <c r="B340" s="34"/>
+      <c r="C340" s="30"/>
     </row>
     <row r="341">
-      <c r="A341" s="33"/>
-      <c r="B341" s="33"/>
-      <c r="C341" s="29"/>
+      <c r="A341" s="34"/>
+      <c r="B341" s="34"/>
+      <c r="C341" s="30"/>
     </row>
     <row r="342">
-      <c r="A342" s="33"/>
-      <c r="B342" s="33"/>
-      <c r="C342" s="29"/>
+      <c r="A342" s="34"/>
+      <c r="B342" s="34"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343">
-      <c r="A343" s="33"/>
-      <c r="B343" s="33"/>
-      <c r="C343" s="29"/>
+      <c r="A343" s="34"/>
+      <c r="B343" s="34"/>
+      <c r="C343" s="30"/>
     </row>
     <row r="344">
-      <c r="A344" s="33"/>
-      <c r="B344" s="33"/>
-      <c r="C344" s="29"/>
+      <c r="A344" s="34"/>
+      <c r="B344" s="34"/>
+      <c r="C344" s="30"/>
     </row>
     <row r="345">
-      <c r="A345" s="33"/>
-      <c r="B345" s="33"/>
-      <c r="C345" s="29"/>
+      <c r="A345" s="34"/>
+      <c r="B345" s="34"/>
+      <c r="C345" s="30"/>
     </row>
     <row r="346">
-      <c r="A346" s="33"/>
-      <c r="B346" s="33"/>
-      <c r="C346" s="29"/>
+      <c r="A346" s="34"/>
+      <c r="B346" s="34"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347">
-      <c r="A347" s="33"/>
-      <c r="B347" s="33"/>
-      <c r="C347" s="29"/>
+      <c r="A347" s="34"/>
+      <c r="B347" s="34"/>
+      <c r="C347" s="30"/>
     </row>
     <row r="348">
-      <c r="A348" s="33"/>
-      <c r="B348" s="33"/>
-      <c r="C348" s="29"/>
+      <c r="A348" s="34"/>
+      <c r="B348" s="34"/>
+      <c r="C348" s="30"/>
     </row>
     <row r="349">
-      <c r="A349" s="33"/>
-      <c r="B349" s="33"/>
-      <c r="C349" s="29"/>
+      <c r="A349" s="34"/>
+      <c r="B349" s="34"/>
+      <c r="C349" s="30"/>
     </row>
     <row r="350">
-      <c r="A350" s="33"/>
-      <c r="B350" s="33"/>
-      <c r="C350" s="29"/>
+      <c r="A350" s="34"/>
+      <c r="B350" s="34"/>
+      <c r="C350" s="30"/>
     </row>
     <row r="351">
-      <c r="A351" s="33"/>
-      <c r="B351" s="33"/>
-      <c r="C351" s="29"/>
+      <c r="A351" s="34"/>
+      <c r="B351" s="34"/>
+      <c r="C351" s="30"/>
     </row>
     <row r="352">
-      <c r="A352" s="33"/>
-      <c r="B352" s="33"/>
-      <c r="C352" s="29"/>
+      <c r="A352" s="34"/>
+      <c r="B352" s="34"/>
+      <c r="C352" s="30"/>
     </row>
     <row r="353">
-      <c r="A353" s="33"/>
-      <c r="B353" s="33"/>
-      <c r="C353" s="29"/>
+      <c r="A353" s="34"/>
+      <c r="B353" s="34"/>
+      <c r="C353" s="30"/>
     </row>
     <row r="354">
-      <c r="A354" s="33"/>
-      <c r="B354" s="33"/>
-      <c r="C354" s="29"/>
+      <c r="A354" s="34"/>
+      <c r="B354" s="34"/>
+      <c r="C354" s="30"/>
     </row>
     <row r="355">
-      <c r="A355" s="33"/>
-      <c r="B355" s="33"/>
-      <c r="C355" s="29"/>
+      <c r="A355" s="34"/>
+      <c r="B355" s="34"/>
+      <c r="C355" s="30"/>
     </row>
     <row r="356">
-      <c r="A356" s="33"/>
-      <c r="B356" s="33"/>
-      <c r="C356" s="29"/>
+      <c r="A356" s="34"/>
+      <c r="B356" s="34"/>
+      <c r="C356" s="30"/>
     </row>
     <row r="357">
-      <c r="A357" s="33"/>
-      <c r="B357" s="33"/>
-      <c r="C357" s="29"/>
+      <c r="A357" s="34"/>
+      <c r="B357" s="34"/>
+      <c r="C357" s="30"/>
     </row>
     <row r="358">
-      <c r="A358" s="33"/>
-      <c r="B358" s="33"/>
-      <c r="C358" s="29"/>
+      <c r="A358" s="34"/>
+      <c r="B358" s="34"/>
+      <c r="C358" s="30"/>
     </row>
     <row r="359">
-      <c r="A359" s="33"/>
-      <c r="B359" s="33"/>
-      <c r="C359" s="29"/>
+      <c r="A359" s="34"/>
+      <c r="B359" s="34"/>
+      <c r="C359" s="30"/>
     </row>
     <row r="360">
-      <c r="A360" s="33"/>
-      <c r="B360" s="33"/>
-      <c r="C360" s="29"/>
+      <c r="A360" s="34"/>
+      <c r="B360" s="34"/>
+      <c r="C360" s="30"/>
     </row>
     <row r="361">
-      <c r="A361" s="33"/>
-      <c r="B361" s="33"/>
-      <c r="C361" s="29"/>
+      <c r="A361" s="34"/>
+      <c r="B361" s="34"/>
+      <c r="C361" s="30"/>
     </row>
     <row r="362">
-      <c r="A362" s="33"/>
-      <c r="B362" s="33"/>
-      <c r="C362" s="29"/>
+      <c r="A362" s="34"/>
+      <c r="B362" s="34"/>
+      <c r="C362" s="30"/>
     </row>
     <row r="363">
-      <c r="A363" s="33"/>
-      <c r="B363" s="33"/>
-      <c r="C363" s="29"/>
+      <c r="A363" s="34"/>
+      <c r="B363" s="34"/>
+      <c r="C363" s="30"/>
     </row>
     <row r="364">
-      <c r="A364" s="33"/>
-      <c r="B364" s="33"/>
-      <c r="C364" s="29"/>
+      <c r="A364" s="34"/>
+      <c r="B364" s="34"/>
+      <c r="C364" s="30"/>
     </row>
     <row r="365">
-      <c r="A365" s="33"/>
-      <c r="B365" s="33"/>
-      <c r="C365" s="29"/>
+      <c r="A365" s="34"/>
+      <c r="B365" s="34"/>
+      <c r="C365" s="30"/>
     </row>
     <row r="366">
-      <c r="A366" s="33"/>
-      <c r="B366" s="33"/>
-      <c r="C366" s="29"/>
+      <c r="A366" s="34"/>
+      <c r="B366" s="34"/>
+      <c r="C366" s="30"/>
     </row>
     <row r="367">
-      <c r="A367" s="33"/>
-      <c r="B367" s="33"/>
-      <c r="C367" s="29"/>
+      <c r="A367" s="34"/>
+      <c r="B367" s="34"/>
+      <c r="C367" s="30"/>
     </row>
     <row r="368">
-      <c r="A368" s="33"/>
-      <c r="B368" s="33"/>
-      <c r="C368" s="29"/>
+      <c r="A368" s="34"/>
+      <c r="B368" s="34"/>
+      <c r="C368" s="30"/>
     </row>
     <row r="369">
-      <c r="A369" s="33"/>
-      <c r="B369" s="33"/>
-      <c r="C369" s="29"/>
+      <c r="A369" s="34"/>
+      <c r="B369" s="34"/>
+      <c r="C369" s="30"/>
     </row>
     <row r="370">
-      <c r="A370" s="33"/>
-      <c r="B370" s="33"/>
-      <c r="C370" s="29"/>
+      <c r="A370" s="34"/>
+      <c r="B370" s="34"/>
+      <c r="C370" s="30"/>
     </row>
     <row r="371">
-      <c r="A371" s="33"/>
-      <c r="B371" s="33"/>
-      <c r="C371" s="29"/>
+      <c r="A371" s="34"/>
+      <c r="B371" s="34"/>
+      <c r="C371" s="30"/>
     </row>
     <row r="372">
-      <c r="A372" s="33"/>
-      <c r="B372" s="33"/>
-      <c r="C372" s="29"/>
+      <c r="A372" s="34"/>
+      <c r="B372" s="34"/>
+      <c r="C372" s="30"/>
     </row>
     <row r="373">
-      <c r="A373" s="33"/>
-      <c r="B373" s="33"/>
-      <c r="C373" s="29"/>
+      <c r="A373" s="34"/>
+      <c r="B373" s="34"/>
+      <c r="C373" s="30"/>
     </row>
     <row r="374">
-      <c r="A374" s="33"/>
-      <c r="B374" s="33"/>
-      <c r="C374" s="29"/>
+      <c r="A374" s="34"/>
+      <c r="B374" s="34"/>
+      <c r="C374" s="30"/>
     </row>
     <row r="375">
-      <c r="A375" s="33"/>
-      <c r="B375" s="33"/>
-      <c r="C375" s="29"/>
+      <c r="A375" s="34"/>
+      <c r="B375" s="34"/>
+      <c r="C375" s="30"/>
     </row>
     <row r="376">
-      <c r="A376" s="33"/>
-      <c r="B376" s="33"/>
-      <c r="C376" s="29"/>
+      <c r="A376" s="34"/>
+      <c r="B376" s="34"/>
+      <c r="C376" s="30"/>
     </row>
     <row r="377">
-      <c r="A377" s="33"/>
-      <c r="B377" s="33"/>
-      <c r="C377" s="29"/>
+      <c r="A377" s="34"/>
+      <c r="B377" s="34"/>
+      <c r="C377" s="30"/>
     </row>
     <row r="378">
-      <c r="A378" s="33"/>
-      <c r="B378" s="33"/>
-      <c r="C378" s="29"/>
+      <c r="A378" s="34"/>
+      <c r="B378" s="34"/>
+      <c r="C378" s="30"/>
     </row>
     <row r="379">
-      <c r="A379" s="33"/>
-      <c r="B379" s="33"/>
-      <c r="C379" s="29"/>
+      <c r="A379" s="34"/>
+      <c r="B379" s="34"/>
+      <c r="C379" s="30"/>
     </row>
     <row r="380">
-      <c r="A380" s="33"/>
-      <c r="B380" s="33"/>
-      <c r="C380" s="29"/>
+      <c r="A380" s="34"/>
+      <c r="B380" s="34"/>
+      <c r="C380" s="30"/>
     </row>
     <row r="381">
-      <c r="A381" s="33"/>
-      <c r="B381" s="33"/>
-      <c r="C381" s="29"/>
+      <c r="A381" s="34"/>
+      <c r="B381" s="34"/>
+      <c r="C381" s="30"/>
     </row>
     <row r="382">
-      <c r="A382" s="33"/>
-      <c r="B382" s="33"/>
-      <c r="C382" s="29"/>
+      <c r="A382" s="34"/>
+      <c r="B382" s="34"/>
+      <c r="C382" s="30"/>
     </row>
     <row r="383">
-      <c r="A383" s="33"/>
-      <c r="B383" s="33"/>
-      <c r="C383" s="29"/>
+      <c r="A383" s="34"/>
+      <c r="B383" s="34"/>
+      <c r="C383" s="30"/>
     </row>
     <row r="384">
-      <c r="A384" s="33"/>
-      <c r="B384" s="33"/>
-      <c r="C384" s="29"/>
+      <c r="A384" s="34"/>
+      <c r="B384" s="34"/>
+      <c r="C384" s="30"/>
     </row>
     <row r="385">
-      <c r="A385" s="33"/>
-      <c r="B385" s="33"/>
-      <c r="C385" s="29"/>
+      <c r="A385" s="34"/>
+      <c r="B385" s="34"/>
+      <c r="C385" s="30"/>
     </row>
     <row r="386">
-      <c r="A386" s="33"/>
-      <c r="B386" s="33"/>
-      <c r="C386" s="29"/>
+      <c r="A386" s="34"/>
+      <c r="B386" s="34"/>
+      <c r="C386" s="30"/>
     </row>
     <row r="387">
-      <c r="A387" s="33"/>
-      <c r="B387" s="33"/>
-      <c r="C387" s="29"/>
+      <c r="A387" s="34"/>
+      <c r="B387" s="34"/>
+      <c r="C387" s="30"/>
     </row>
     <row r="388">
-      <c r="A388" s="33"/>
-      <c r="B388" s="33"/>
-      <c r="C388" s="29"/>
+      <c r="A388" s="34"/>
+      <c r="B388" s="34"/>
+      <c r="C388" s="30"/>
     </row>
     <row r="389">
-      <c r="A389" s="33"/>
-      <c r="B389" s="33"/>
-      <c r="C389" s="29"/>
+      <c r="A389" s="34"/>
+      <c r="B389" s="34"/>
+      <c r="C389" s="30"/>
     </row>
     <row r="390">
-      <c r="A390" s="33"/>
-      <c r="B390" s="33"/>
-      <c r="C390" s="29"/>
+      <c r="A390" s="34"/>
+      <c r="B390" s="34"/>
+      <c r="C390" s="30"/>
     </row>
     <row r="391">
-      <c r="A391" s="33"/>
-      <c r="B391" s="33"/>
-      <c r="C391" s="29"/>
+      <c r="A391" s="34"/>
+      <c r="B391" s="34"/>
+      <c r="C391" s="30"/>
     </row>
     <row r="392">
-      <c r="A392" s="33"/>
-      <c r="B392" s="33"/>
-      <c r="C392" s="29"/>
+      <c r="A392" s="34"/>
+      <c r="B392" s="34"/>
+      <c r="C392" s="30"/>
     </row>
     <row r="393">
-      <c r="A393" s="33"/>
-      <c r="B393" s="33"/>
-      <c r="C393" s="29"/>
+      <c r="A393" s="34"/>
+      <c r="B393" s="34"/>
+      <c r="C393" s="30"/>
     </row>
     <row r="394">
-      <c r="A394" s="33"/>
-      <c r="B394" s="33"/>
-      <c r="C394" s="29"/>
+      <c r="A394" s="34"/>
+      <c r="B394" s="34"/>
+      <c r="C394" s="30"/>
     </row>
     <row r="395">
-      <c r="A395" s="33"/>
-      <c r="B395" s="33"/>
-      <c r="C395" s="29"/>
+      <c r="A395" s="34"/>
+      <c r="B395" s="34"/>
+      <c r="C395" s="30"/>
     </row>
     <row r="396">
-      <c r="A396" s="33"/>
-      <c r="B396" s="33"/>
-      <c r="C396" s="29"/>
+      <c r="A396" s="34"/>
+      <c r="B396" s="34"/>
+      <c r="C396" s="30"/>
     </row>
     <row r="397">
-      <c r="A397" s="33"/>
-      <c r="B397" s="33"/>
-      <c r="C397" s="29"/>
+      <c r="A397" s="34"/>
+      <c r="B397" s="34"/>
+      <c r="C397" s="30"/>
     </row>
     <row r="398">
-      <c r="A398" s="33"/>
-      <c r="B398" s="33"/>
-      <c r="C398" s="29"/>
+      <c r="A398" s="34"/>
+      <c r="B398" s="34"/>
+      <c r="C398" s="30"/>
     </row>
     <row r="399">
-      <c r="A399" s="33"/>
-      <c r="B399" s="33"/>
-      <c r="C399" s="29"/>
+      <c r="A399" s="34"/>
+      <c r="B399" s="34"/>
+      <c r="C399" s="30"/>
     </row>
     <row r="400">
-      <c r="A400" s="33"/>
-      <c r="B400" s="33"/>
-      <c r="C400" s="29"/>
+      <c r="A400" s="34"/>
+      <c r="B400" s="34"/>
+      <c r="C400" s="30"/>
     </row>
     <row r="401">
-      <c r="A401" s="33"/>
-      <c r="B401" s="33"/>
-      <c r="C401" s="29"/>
+      <c r="A401" s="34"/>
+      <c r="B401" s="34"/>
+      <c r="C401" s="30"/>
     </row>
     <row r="402">
-      <c r="A402" s="33"/>
-      <c r="B402" s="33"/>
-      <c r="C402" s="29"/>
+      <c r="A402" s="34"/>
+      <c r="B402" s="34"/>
+      <c r="C402" s="30"/>
     </row>
     <row r="403">
-      <c r="A403" s="33"/>
-      <c r="B403" s="33"/>
-      <c r="C403" s="29"/>
+      <c r="A403" s="34"/>
+      <c r="B403" s="34"/>
+      <c r="C403" s="30"/>
     </row>
     <row r="404">
-      <c r="A404" s="33"/>
-      <c r="B404" s="33"/>
-      <c r="C404" s="29"/>
+      <c r="A404" s="34"/>
+      <c r="B404" s="34"/>
+      <c r="C404" s="30"/>
     </row>
     <row r="405">
-      <c r="A405" s="33"/>
-      <c r="B405" s="33"/>
-      <c r="C405" s="29"/>
+      <c r="A405" s="34"/>
+      <c r="B405" s="34"/>
+      <c r="C405" s="30"/>
     </row>
     <row r="406">
-      <c r="A406" s="33"/>
-      <c r="B406" s="33"/>
-      <c r="C406" s="29"/>
+      <c r="A406" s="34"/>
+      <c r="B406" s="34"/>
+      <c r="C406" s="30"/>
     </row>
     <row r="407">
-      <c r="A407" s="33"/>
-      <c r="B407" s="33"/>
-      <c r="C407" s="29"/>
+      <c r="A407" s="34"/>
+      <c r="B407" s="34"/>
+      <c r="C407" s="30"/>
     </row>
     <row r="408">
-      <c r="A408" s="33"/>
-      <c r="B408" s="33"/>
-      <c r="C408" s="29"/>
+      <c r="A408" s="34"/>
+      <c r="B408" s="34"/>
+      <c r="C408" s="30"/>
     </row>
     <row r="409">
-      <c r="A409" s="33"/>
-      <c r="B409" s="33"/>
-      <c r="C409" s="29"/>
+      <c r="A409" s="34"/>
+      <c r="B409" s="34"/>
+      <c r="C409" s="30"/>
     </row>
     <row r="410">
-      <c r="A410" s="33"/>
-      <c r="B410" s="33"/>
-      <c r="C410" s="29"/>
+      <c r="A410" s="34"/>
+      <c r="B410" s="34"/>
+      <c r="C410" s="30"/>
     </row>
     <row r="411">
-      <c r="A411" s="33"/>
-      <c r="B411" s="33"/>
-      <c r="C411" s="29"/>
+      <c r="A411" s="34"/>
+      <c r="B411" s="34"/>
+      <c r="C411" s="30"/>
     </row>
     <row r="412">
-      <c r="A412" s="33"/>
-      <c r="B412" s="33"/>
-      <c r="C412" s="29"/>
+      <c r="A412" s="34"/>
+      <c r="B412" s="34"/>
+      <c r="C412" s="30"/>
     </row>
     <row r="413">
-      <c r="A413" s="33"/>
-      <c r="B413" s="33"/>
-      <c r="C413" s="29"/>
+      <c r="A413" s="34"/>
+      <c r="B413" s="34"/>
+      <c r="C413" s="30"/>
     </row>
     <row r="414">
-      <c r="A414" s="33"/>
-      <c r="B414" s="33"/>
-      <c r="C414" s="29"/>
+      <c r="A414" s="34"/>
+      <c r="B414" s="34"/>
+      <c r="C414" s="30"/>
     </row>
     <row r="415">
-      <c r="A415" s="33"/>
-      <c r="B415" s="33"/>
-      <c r="C415" s="29"/>
+      <c r="A415" s="34"/>
+      <c r="B415" s="34"/>
+      <c r="C415" s="30"/>
     </row>
     <row r="416">
-      <c r="A416" s="33"/>
-      <c r="B416" s="33"/>
-      <c r="C416" s="29"/>
+      <c r="A416" s="34"/>
+      <c r="B416" s="34"/>
+      <c r="C416" s="30"/>
     </row>
     <row r="417">
-      <c r="A417" s="33"/>
-      <c r="B417" s="33"/>
-      <c r="C417" s="29"/>
+      <c r="A417" s="34"/>
+      <c r="B417" s="34"/>
+      <c r="C417" s="30"/>
     </row>
     <row r="418">
-      <c r="A418" s="33"/>
-      <c r="B418" s="33"/>
-      <c r="C418" s="29"/>
+      <c r="A418" s="34"/>
+      <c r="B418" s="34"/>
+      <c r="C418" s="30"/>
     </row>
     <row r="419">
-      <c r="A419" s="33"/>
-      <c r="B419" s="33"/>
-      <c r="C419" s="29"/>
+      <c r="A419" s="34"/>
+      <c r="B419" s="34"/>
+      <c r="C419" s="30"/>
     </row>
     <row r="420">
-      <c r="A420" s="33"/>
-      <c r="B420" s="33"/>
-      <c r="C420" s="29"/>
+      <c r="A420" s="34"/>
+      <c r="B420" s="34"/>
+      <c r="C420" s="30"/>
     </row>
     <row r="421">
-      <c r="A421" s="33"/>
-      <c r="B421" s="33"/>
-      <c r="C421" s="29"/>
+      <c r="A421" s="34"/>
+      <c r="B421" s="34"/>
+      <c r="C421" s="30"/>
     </row>
     <row r="422">
-      <c r="A422" s="33"/>
-      <c r="B422" s="33"/>
-      <c r="C422" s="29"/>
+      <c r="A422" s="34"/>
+      <c r="B422" s="34"/>
+      <c r="C422" s="30"/>
     </row>
     <row r="423">
-      <c r="A423" s="33"/>
-      <c r="B423" s="33"/>
-      <c r="C423" s="29"/>
+      <c r="A423" s="34"/>
+      <c r="B423" s="34"/>
+      <c r="C423" s="30"/>
     </row>
     <row r="424">
-      <c r="A424" s="33"/>
-      <c r="B424" s="33"/>
-      <c r="C424" s="29"/>
+      <c r="A424" s="34"/>
+      <c r="B424" s="34"/>
+      <c r="C424" s="30"/>
     </row>
     <row r="425">
-      <c r="A425" s="33"/>
-      <c r="B425" s="33"/>
-      <c r="C425" s="29"/>
+      <c r="A425" s="34"/>
+      <c r="B425" s="34"/>
+      <c r="C425" s="30"/>
     </row>
     <row r="426">
-      <c r="A426" s="33"/>
-      <c r="B426" s="33"/>
-      <c r="C426" s="29"/>
+      <c r="A426" s="34"/>
+      <c r="B426" s="34"/>
+      <c r="C426" s="30"/>
     </row>
     <row r="427">
-      <c r="A427" s="33"/>
-      <c r="B427" s="33"/>
-      <c r="C427" s="29"/>
+      <c r="A427" s="34"/>
+      <c r="B427" s="34"/>
+      <c r="C427" s="30"/>
     </row>
     <row r="428">
-      <c r="A428" s="33"/>
-      <c r="B428" s="33"/>
-      <c r="C428" s="29"/>
+      <c r="A428" s="34"/>
+      <c r="B428" s="34"/>
+      <c r="C428" s="30"/>
     </row>
     <row r="429">
-      <c r="A429" s="33"/>
-      <c r="B429" s="33"/>
-      <c r="C429" s="29"/>
+      <c r="A429" s="34"/>
+      <c r="B429" s="34"/>
+      <c r="C429" s="30"/>
     </row>
     <row r="430">
-      <c r="A430" s="33"/>
-      <c r="B430" s="33"/>
-      <c r="C430" s="29"/>
+      <c r="A430" s="34"/>
+      <c r="B430" s="34"/>
+      <c r="C430" s="30"/>
     </row>
     <row r="431">
-      <c r="A431" s="33"/>
-      <c r="B431" s="33"/>
-      <c r="C431" s="29"/>
+      <c r="A431" s="34"/>
+      <c r="B431" s="34"/>
+      <c r="C431" s="30"/>
     </row>
     <row r="432">
-      <c r="A432" s="33"/>
-      <c r="B432" s="33"/>
-      <c r="C432" s="29"/>
+      <c r="A432" s="34"/>
+      <c r="B432" s="34"/>
+      <c r="C432" s="30"/>
     </row>
     <row r="433">
-      <c r="A433" s="33"/>
-      <c r="B433" s="33"/>
-      <c r="C433" s="29"/>
+      <c r="A433" s="34"/>
+      <c r="B433" s="34"/>
+      <c r="C433" s="30"/>
     </row>
     <row r="434">
-      <c r="A434" s="33"/>
-      <c r="B434" s="33"/>
-      <c r="C434" s="29"/>
+      <c r="A434" s="34"/>
+      <c r="B434" s="34"/>
+      <c r="C434" s="30"/>
     </row>
     <row r="435">
-      <c r="A435" s="33"/>
-      <c r="B435" s="33"/>
-      <c r="C435" s="29"/>
+      <c r="A435" s="34"/>
+      <c r="B435" s="34"/>
+      <c r="C435" s="30"/>
     </row>
     <row r="436">
-      <c r="A436" s="33"/>
-      <c r="B436" s="33"/>
-      <c r="C436" s="29"/>
+      <c r="A436" s="34"/>
+      <c r="B436" s="34"/>
+      <c r="C436" s="30"/>
     </row>
     <row r="437">
-      <c r="A437" s="33"/>
-      <c r="B437" s="33"/>
-      <c r="C437" s="29"/>
+      <c r="A437" s="34"/>
+      <c r="B437" s="34"/>
+      <c r="C437" s="30"/>
     </row>
     <row r="438">
-      <c r="A438" s="33"/>
-      <c r="B438" s="33"/>
-      <c r="C438" s="29"/>
+      <c r="A438" s="34"/>
+      <c r="B438" s="34"/>
+      <c r="C438" s="30"/>
     </row>
     <row r="439">
-      <c r="A439" s="33"/>
-      <c r="B439" s="33"/>
-      <c r="C439" s="29"/>
+      <c r="A439" s="34"/>
+      <c r="B439" s="34"/>
+      <c r="C439" s="30"/>
     </row>
     <row r="440">
-      <c r="A440" s="33"/>
-      <c r="B440" s="33"/>
-      <c r="C440" s="29"/>
+      <c r="A440" s="34"/>
+      <c r="B440" s="34"/>
+      <c r="C440" s="30"/>
     </row>
     <row r="441">
-      <c r="A441" s="33"/>
-      <c r="B441" s="33"/>
-      <c r="C441" s="29"/>
+      <c r="A441" s="34"/>
+      <c r="B441" s="34"/>
+      <c r="C441" s="30"/>
     </row>
     <row r="442">
-      <c r="A442" s="33"/>
-      <c r="B442" s="33"/>
-      <c r="C442" s="29"/>
+      <c r="A442" s="34"/>
+      <c r="B442" s="34"/>
+      <c r="C442" s="30"/>
     </row>
     <row r="443">
-      <c r="A443" s="33"/>
-      <c r="B443" s="33"/>
-      <c r="C443" s="29"/>
+      <c r="A443" s="34"/>
+      <c r="B443" s="34"/>
+      <c r="C443" s="30"/>
     </row>
     <row r="444">
-      <c r="A444" s="33"/>
-      <c r="B444" s="33"/>
-      <c r="C444" s="29"/>
+      <c r="A444" s="34"/>
+      <c r="B444" s="34"/>
+      <c r="C444" s="30"/>
     </row>
     <row r="445">
-      <c r="A445" s="33"/>
-      <c r="B445" s="33"/>
-      <c r="C445" s="29"/>
+      <c r="A445" s="34"/>
+      <c r="B445" s="34"/>
+      <c r="C445" s="30"/>
     </row>
     <row r="446">
-      <c r="A446" s="33"/>
-      <c r="B446" s="33"/>
-      <c r="C446" s="29"/>
+      <c r="A446" s="34"/>
+      <c r="B446" s="34"/>
+      <c r="C446" s="30"/>
     </row>
     <row r="447">
-      <c r="A447" s="33"/>
-      <c r="B447" s="33"/>
-      <c r="C447" s="29"/>
+      <c r="A447" s="34"/>
+      <c r="B447" s="34"/>
+      <c r="C447" s="30"/>
     </row>
     <row r="448">
-      <c r="A448" s="33"/>
-      <c r="B448" s="33"/>
-      <c r="C448" s="29"/>
+      <c r="A448" s="34"/>
+      <c r="B448" s="34"/>
+      <c r="C448" s="30"/>
     </row>
     <row r="449">
-      <c r="A449" s="33"/>
-      <c r="B449" s="33"/>
-      <c r="C449" s="29"/>
+      <c r="A449" s="34"/>
+      <c r="B449" s="34"/>
+      <c r="C449" s="30"/>
     </row>
     <row r="450">
-      <c r="A450" s="33"/>
-      <c r="B450" s="33"/>
-      <c r="C450" s="29"/>
+      <c r="A450" s="34"/>
+      <c r="B450" s="34"/>
+      <c r="C450" s="30"/>
     </row>
     <row r="451">
-      <c r="A451" s="33"/>
-      <c r="B451" s="33"/>
-      <c r="C451" s="29"/>
+      <c r="A451" s="34"/>
+      <c r="B451" s="34"/>
+      <c r="C451" s="30"/>
     </row>
     <row r="452">
-      <c r="A452" s="33"/>
-      <c r="B452" s="33"/>
-      <c r="C452" s="29"/>
+      <c r="A452" s="34"/>
+      <c r="B452" s="34"/>
+      <c r="C452" s="30"/>
     </row>
     <row r="453">
-      <c r="A453" s="33"/>
-      <c r="B453" s="33"/>
-      <c r="C453" s="29"/>
+      <c r="A453" s="34"/>
+      <c r="B453" s="34"/>
+      <c r="C453" s="30"/>
     </row>
     <row r="454">
-      <c r="A454" s="33"/>
-      <c r="B454" s="33"/>
-      <c r="C454" s="29"/>
+      <c r="A454" s="34"/>
+      <c r="B454" s="34"/>
+      <c r="C454" s="30"/>
     </row>
     <row r="455">
-      <c r="A455" s="33"/>
-      <c r="B455" s="33"/>
-      <c r="C455" s="29"/>
+      <c r="A455" s="34"/>
+      <c r="B455" s="34"/>
+      <c r="C455" s="30"/>
     </row>
     <row r="456">
-      <c r="A456" s="33"/>
-      <c r="B456" s="33"/>
-      <c r="C456" s="29"/>
+      <c r="A456" s="34"/>
+      <c r="B456" s="34"/>
+      <c r="C456" s="30"/>
     </row>
     <row r="457">
-      <c r="A457" s="33"/>
-      <c r="B457" s="33"/>
-      <c r="C457" s="29"/>
+      <c r="A457" s="34"/>
+      <c r="B457" s="34"/>
+      <c r="C457" s="30"/>
     </row>
     <row r="458">
-      <c r="A458" s="33"/>
-      <c r="B458" s="33"/>
-      <c r="C458" s="29"/>
+      <c r="A458" s="34"/>
+      <c r="B458" s="34"/>
+      <c r="C458" s="30"/>
     </row>
     <row r="459">
-      <c r="A459" s="33"/>
-      <c r="B459" s="33"/>
-      <c r="C459" s="29"/>
+      <c r="A459" s="34"/>
+      <c r="B459" s="34"/>
+      <c r="C459" s="30"/>
     </row>
     <row r="460">
-      <c r="A460" s="33"/>
-      <c r="B460" s="33"/>
-      <c r="C460" s="29"/>
+      <c r="A460" s="34"/>
+      <c r="B460" s="34"/>
+      <c r="C460" s="30"/>
     </row>
     <row r="461">
-      <c r="A461" s="33"/>
-      <c r="B461" s="33"/>
-      <c r="C461" s="29"/>
+      <c r="A461" s="34"/>
+      <c r="B461" s="34"/>
+      <c r="C461" s="30"/>
     </row>
     <row r="462">
-      <c r="A462" s="33"/>
-      <c r="B462" s="33"/>
-      <c r="C462" s="29"/>
+      <c r="A462" s="34"/>
+      <c r="B462" s="34"/>
+      <c r="C462" s="30"/>
     </row>
     <row r="463">
-      <c r="A463" s="33"/>
-      <c r="B463" s="33"/>
-      <c r="C463" s="29"/>
+      <c r="A463" s="34"/>
+      <c r="B463" s="34"/>
+      <c r="C463" s="30"/>
     </row>
     <row r="464">
-      <c r="A464" s="33"/>
-      <c r="B464" s="33"/>
-      <c r="C464" s="29"/>
+      <c r="A464" s="34"/>
+      <c r="B464" s="34"/>
+      <c r="C464" s="30"/>
     </row>
     <row r="465">
-      <c r="A465" s="33"/>
-      <c r="B465" s="33"/>
-      <c r="C465" s="29"/>
+      <c r="A465" s="34"/>
+      <c r="B465" s="34"/>
+      <c r="C465" s="30"/>
     </row>
     <row r="466">
-      <c r="A466" s="33"/>
-      <c r="B466" s="33"/>
-      <c r="C466" s="29"/>
+      <c r="A466" s="34"/>
+      <c r="B466" s="34"/>
+      <c r="C466" s="30"/>
     </row>
     <row r="467">
-      <c r="A467" s="33"/>
-      <c r="B467" s="33"/>
-      <c r="C467" s="29"/>
+      <c r="A467" s="34"/>
+      <c r="B467" s="34"/>
+      <c r="C467" s="30"/>
     </row>
     <row r="468">
-      <c r="A468" s="33"/>
-      <c r="B468" s="33"/>
-      <c r="C468" s="29"/>
+      <c r="A468" s="34"/>
+      <c r="B468" s="34"/>
+      <c r="C468" s="30"/>
     </row>
     <row r="469">
-      <c r="A469" s="33"/>
-      <c r="B469" s="33"/>
-      <c r="C469" s="29"/>
+      <c r="A469" s="34"/>
+      <c r="B469" s="34"/>
+      <c r="C469" s="30"/>
     </row>
     <row r="470">
-      <c r="A470" s="33"/>
-      <c r="B470" s="33"/>
-      <c r="C470" s="29"/>
+      <c r="A470" s="34"/>
+      <c r="B470" s="34"/>
+      <c r="C470" s="30"/>
     </row>
     <row r="471">
-      <c r="A471" s="33"/>
-      <c r="B471" s="33"/>
-      <c r="C471" s="29"/>
+      <c r="A471" s="34"/>
+      <c r="B471" s="34"/>
+      <c r="C471" s="30"/>
     </row>
     <row r="472">
-      <c r="A472" s="33"/>
-      <c r="B472" s="33"/>
-      <c r="C472" s="29"/>
+      <c r="A472" s="34"/>
+      <c r="B472" s="34"/>
+      <c r="C472" s="30"/>
     </row>
     <row r="473">
-      <c r="A473" s="33"/>
-      <c r="B473" s="33"/>
-      <c r="C473" s="29"/>
+      <c r="A473" s="34"/>
+      <c r="B473" s="34"/>
+      <c r="C473" s="30"/>
     </row>
     <row r="474">
-      <c r="A474" s="33"/>
-      <c r="B474" s="33"/>
-      <c r="C474" s="29"/>
+      <c r="A474" s="34"/>
+      <c r="B474" s="34"/>
+      <c r="C474" s="30"/>
     </row>
     <row r="475">
-      <c r="A475" s="33"/>
-      <c r="B475" s="33"/>
-      <c r="C475" s="29"/>
+      <c r="A475" s="34"/>
+      <c r="B475" s="34"/>
+      <c r="C475" s="30"/>
     </row>
     <row r="476">
-      <c r="A476" s="33"/>
-      <c r="B476" s="33"/>
-      <c r="C476" s="29"/>
+      <c r="A476" s="34"/>
+      <c r="B476" s="34"/>
+      <c r="C476" s="30"/>
     </row>
     <row r="477">
-      <c r="A477" s="33"/>
-      <c r="B477" s="33"/>
-      <c r="C477" s="29"/>
+      <c r="A477" s="34"/>
+      <c r="B477" s="34"/>
+      <c r="C477" s="30"/>
     </row>
     <row r="478">
-      <c r="A478" s="33"/>
-      <c r="B478" s="33"/>
-      <c r="C478" s="29"/>
+      <c r="A478" s="34"/>
+      <c r="B478" s="34"/>
+      <c r="C478" s="30"/>
     </row>
     <row r="479">
-      <c r="A479" s="33"/>
-      <c r="B479" s="33"/>
-      <c r="C479" s="29"/>
+      <c r="A479" s="34"/>
+      <c r="B479" s="34"/>
+      <c r="C479" s="30"/>
     </row>
     <row r="480">
-      <c r="A480" s="33"/>
-      <c r="B480" s="33"/>
-      <c r="C480" s="29"/>
+      <c r="A480" s="34"/>
+      <c r="B480" s="34"/>
+      <c r="C480" s="30"/>
     </row>
     <row r="481">
-      <c r="A481" s="33"/>
-      <c r="B481" s="33"/>
-      <c r="C481" s="29"/>
+      <c r="A481" s="34"/>
+      <c r="B481" s="34"/>
+      <c r="C481" s="30"/>
     </row>
     <row r="482">
-      <c r="A482" s="33"/>
-      <c r="B482" s="33"/>
-      <c r="C482" s="29"/>
+      <c r="A482" s="34"/>
+      <c r="B482" s="34"/>
+      <c r="C482" s="30"/>
     </row>
     <row r="483">
-      <c r="A483" s="33"/>
-      <c r="B483" s="33"/>
-      <c r="C483" s="29"/>
+      <c r="A483" s="34"/>
+      <c r="B483" s="34"/>
+      <c r="C483" s="30"/>
     </row>
     <row r="484">
-      <c r="A484" s="33"/>
-      <c r="B484" s="33"/>
-      <c r="C484" s="29"/>
+      <c r="A484" s="34"/>
+      <c r="B484" s="34"/>
+      <c r="C484" s="30"/>
     </row>
     <row r="485">
-      <c r="A485" s="33"/>
-      <c r="B485" s="33"/>
-      <c r="C485" s="29"/>
+      <c r="A485" s="34"/>
+      <c r="B485" s="34"/>
+      <c r="C485" s="30"/>
     </row>
     <row r="486">
-      <c r="A486" s="33"/>
-      <c r="B486" s="33"/>
-      <c r="C486" s="29"/>
+      <c r="A486" s="34"/>
+      <c r="B486" s="34"/>
+      <c r="C486" s="30"/>
     </row>
     <row r="487">
-      <c r="A487" s="33"/>
-      <c r="B487" s="33"/>
-      <c r="C487" s="29"/>
+      <c r="A487" s="34"/>
+      <c r="B487" s="34"/>
+      <c r="C487" s="30"/>
     </row>
     <row r="488">
-      <c r="A488" s="33"/>
-      <c r="B488" s="33"/>
-      <c r="C488" s="29"/>
+      <c r="A488" s="34"/>
+      <c r="B488" s="34"/>
+      <c r="C488" s="30"/>
     </row>
     <row r="489">
-      <c r="A489" s="33"/>
-      <c r="B489" s="33"/>
-      <c r="C489" s="29"/>
+      <c r="A489" s="34"/>
+      <c r="B489" s="34"/>
+      <c r="C489" s="30"/>
     </row>
     <row r="490">
-      <c r="A490" s="33"/>
-      <c r="B490" s="33"/>
-      <c r="C490" s="29"/>
+      <c r="A490" s="34"/>
+      <c r="B490" s="34"/>
+      <c r="C490" s="30"/>
     </row>
     <row r="491">
-      <c r="A491" s="33"/>
-      <c r="B491" s="33"/>
-      <c r="C491" s="29"/>
+      <c r="A491" s="34"/>
+      <c r="B491" s="34"/>
+      <c r="C491" s="30"/>
     </row>
     <row r="492">
-      <c r="A492" s="33"/>
-      <c r="B492" s="33"/>
-      <c r="C492" s="29"/>
+      <c r="A492" s="34"/>
+      <c r="B492" s="34"/>
+      <c r="C492" s="30"/>
     </row>
     <row r="493">
-      <c r="A493" s="33"/>
-      <c r="B493" s="33"/>
-      <c r="C493" s="29"/>
+      <c r="A493" s="34"/>
+      <c r="B493" s="34"/>
+      <c r="C493" s="30"/>
     </row>
     <row r="494">
-      <c r="A494" s="33"/>
-      <c r="B494" s="33"/>
-      <c r="C494" s="29"/>
+      <c r="A494" s="34"/>
+      <c r="B494" s="34"/>
+      <c r="C494" s="30"/>
     </row>
     <row r="495">
-      <c r="A495" s="33"/>
-      <c r="B495" s="33"/>
-      <c r="C495" s="29"/>
+      <c r="A495" s="34"/>
+      <c r="B495" s="34"/>
+      <c r="C495" s="30"/>
     </row>
     <row r="496">
-      <c r="A496" s="33"/>
-      <c r="B496" s="33"/>
-      <c r="C496" s="29"/>
+      <c r="A496" s="34"/>
+      <c r="B496" s="34"/>
+      <c r="C496" s="30"/>
     </row>
     <row r="497">
-      <c r="A497" s="33"/>
-      <c r="B497" s="33"/>
-      <c r="C497" s="29"/>
+      <c r="A497" s="34"/>
+      <c r="B497" s="34"/>
+      <c r="C497" s="30"/>
     </row>
     <row r="498">
-      <c r="A498" s="33"/>
-      <c r="B498" s="33"/>
-      <c r="C498" s="29"/>
+      <c r="A498" s="34"/>
+      <c r="B498" s="34"/>
+      <c r="C498" s="30"/>
     </row>
     <row r="499">
-      <c r="A499" s="33"/>
-      <c r="B499" s="33"/>
-      <c r="C499" s="29"/>
+      <c r="A499" s="34"/>
+      <c r="B499" s="34"/>
+      <c r="C499" s="30"/>
     </row>
     <row r="500">
-      <c r="A500" s="33"/>
-      <c r="B500" s="33"/>
-      <c r="C500" s="29"/>
+      <c r="A500" s="34"/>
+      <c r="B500" s="34"/>
+      <c r="C500" s="30"/>
     </row>
     <row r="501">
-      <c r="A501" s="33"/>
-      <c r="B501" s="33"/>
-      <c r="C501" s="29"/>
+      <c r="A501" s="34"/>
+      <c r="B501" s="34"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502">
-      <c r="A502" s="33"/>
-      <c r="B502" s="33"/>
-      <c r="C502" s="29"/>
+      <c r="A502" s="34"/>
+      <c r="B502" s="34"/>
+      <c r="C502" s="30"/>
     </row>
     <row r="503">
-      <c r="A503" s="33"/>
-      <c r="B503" s="33"/>
-      <c r="C503" s="29"/>
+      <c r="A503" s="34"/>
+      <c r="B503" s="34"/>
+      <c r="C503" s="30"/>
     </row>
     <row r="504">
-      <c r="A504" s="33"/>
-      <c r="B504" s="33"/>
-      <c r="C504" s="29"/>
+      <c r="A504" s="34"/>
+      <c r="B504" s="34"/>
+      <c r="C504" s="30"/>
     </row>
     <row r="505">
-      <c r="A505" s="33"/>
-      <c r="B505" s="33"/>
-      <c r="C505" s="29"/>
+      <c r="A505" s="34"/>
+      <c r="B505" s="34"/>
+      <c r="C505" s="30"/>
     </row>
     <row r="506">
-      <c r="A506" s="33"/>
-      <c r="B506" s="33"/>
-      <c r="C506" s="29"/>
+      <c r="A506" s="34"/>
+      <c r="B506" s="34"/>
+      <c r="C506" s="30"/>
     </row>
     <row r="507">
-      <c r="A507" s="33"/>
-      <c r="B507" s="33"/>
-      <c r="C507" s="29"/>
+      <c r="A507" s="34"/>
+      <c r="B507" s="34"/>
+      <c r="C507" s="30"/>
     </row>
     <row r="508">
-      <c r="A508" s="33"/>
-      <c r="B508" s="33"/>
-      <c r="C508" s="29"/>
+      <c r="A508" s="34"/>
+      <c r="B508" s="34"/>
+      <c r="C508" s="30"/>
     </row>
     <row r="509">
-      <c r="A509" s="33"/>
-      <c r="B509" s="33"/>
-      <c r="C509" s="29"/>
+      <c r="A509" s="34"/>
+      <c r="B509" s="34"/>
+      <c r="C509" s="30"/>
     </row>
     <row r="510">
-      <c r="A510" s="33"/>
-      <c r="B510" s="33"/>
-      <c r="C510" s="29"/>
+      <c r="A510" s="34"/>
+      <c r="B510" s="34"/>
+      <c r="C510" s="30"/>
     </row>
     <row r="511">
-      <c r="A511" s="33"/>
-      <c r="B511" s="33"/>
-      <c r="C511" s="29"/>
+      <c r="A511" s="34"/>
+      <c r="B511" s="34"/>
+      <c r="C511" s="30"/>
     </row>
     <row r="512">
-      <c r="A512" s="33"/>
-      <c r="B512" s="33"/>
-      <c r="C512" s="29"/>
+      <c r="A512" s="34"/>
+      <c r="B512" s="34"/>
+      <c r="C512" s="30"/>
     </row>
     <row r="513">
-      <c r="A513" s="33"/>
-      <c r="B513" s="33"/>
-      <c r="C513" s="29"/>
+      <c r="A513" s="34"/>
+      <c r="B513" s="34"/>
+      <c r="C513" s="30"/>
     </row>
     <row r="514">
-      <c r="A514" s="33"/>
-      <c r="B514" s="33"/>
-      <c r="C514" s="29"/>
+      <c r="A514" s="34"/>
+      <c r="B514" s="34"/>
+      <c r="C514" s="30"/>
     </row>
     <row r="515">
-      <c r="A515" s="33"/>
-      <c r="B515" s="33"/>
-      <c r="C515" s="29"/>
+      <c r="A515" s="34"/>
+      <c r="B515" s="34"/>
+      <c r="C515" s="30"/>
     </row>
     <row r="516">
-      <c r="A516" s="33"/>
-      <c r="B516" s="33"/>
-      <c r="C516" s="29"/>
+      <c r="A516" s="34"/>
+      <c r="B516" s="34"/>
+      <c r="C516" s="30"/>
     </row>
     <row r="517">
-      <c r="A517" s="33"/>
-      <c r="B517" s="33"/>
-      <c r="C517" s="29"/>
+      <c r="A517" s="34"/>
+      <c r="B517" s="34"/>
+      <c r="C517" s="30"/>
     </row>
     <row r="518">
-      <c r="A518" s="33"/>
-      <c r="B518" s="33"/>
-      <c r="C518" s="29"/>
+      <c r="A518" s="34"/>
+      <c r="B518" s="34"/>
+      <c r="C518" s="30"/>
     </row>
     <row r="519">
-      <c r="A519" s="33"/>
-      <c r="B519" s="33"/>
-      <c r="C519" s="29"/>
+      <c r="A519" s="34"/>
+      <c r="B519" s="34"/>
+      <c r="C519" s="30"/>
     </row>
     <row r="520">
-      <c r="A520" s="33"/>
-      <c r="B520" s="33"/>
-      <c r="C520" s="29"/>
+      <c r="A520" s="34"/>
+      <c r="B520" s="34"/>
+      <c r="C520" s="30"/>
     </row>
     <row r="521">
-      <c r="A521" s="33"/>
-      <c r="B521" s="33"/>
-      <c r="C521" s="29"/>
+      <c r="A521" s="34"/>
+      <c r="B521" s="34"/>
+      <c r="C521" s="30"/>
     </row>
     <row r="522">
-      <c r="A522" s="33"/>
-      <c r="B522" s="33"/>
-      <c r="C522" s="29"/>
+      <c r="A522" s="34"/>
+      <c r="B522" s="34"/>
+      <c r="C522" s="30"/>
     </row>
     <row r="523">
-      <c r="A523" s="33"/>
-      <c r="B523" s="33"/>
-      <c r="C523" s="29"/>
+      <c r="A523" s="34"/>
+      <c r="B523" s="34"/>
+      <c r="C523" s="30"/>
     </row>
     <row r="524">
-      <c r="A524" s="33"/>
-      <c r="B524" s="33"/>
-      <c r="C524" s="29"/>
+      <c r="A524" s="34"/>
+      <c r="B524" s="34"/>
+      <c r="C524" s="30"/>
     </row>
     <row r="525">
-      <c r="A525" s="33"/>
-      <c r="B525" s="33"/>
-      <c r="C525" s="29"/>
+      <c r="A525" s="34"/>
+      <c r="B525" s="34"/>
+      <c r="C525" s="30"/>
     </row>
     <row r="526">
-      <c r="A526" s="33"/>
-      <c r="B526" s="33"/>
-      <c r="C526" s="29"/>
+      <c r="A526" s="34"/>
+      <c r="B526" s="34"/>
+      <c r="C526" s="30"/>
     </row>
     <row r="527">
-      <c r="A527" s="33"/>
-      <c r="B527" s="33"/>
-      <c r="C527" s="29"/>
+      <c r="A527" s="34"/>
+      <c r="B527" s="34"/>
+      <c r="C527" s="30"/>
     </row>
     <row r="528">
-      <c r="A528" s="33"/>
-      <c r="B528" s="33"/>
-      <c r="C528" s="29"/>
+      <c r="A528" s="34"/>
+      <c r="B528" s="34"/>
+      <c r="C528" s="30"/>
     </row>
     <row r="529">
-      <c r="A529" s="33"/>
-      <c r="B529" s="33"/>
-      <c r="C529" s="29"/>
+      <c r="A529" s="34"/>
+      <c r="B529" s="34"/>
+      <c r="C529" s="30"/>
     </row>
     <row r="530">
-      <c r="A530" s="33"/>
-      <c r="B530" s="33"/>
-      <c r="C530" s="29"/>
+      <c r="A530" s="34"/>
+      <c r="B530" s="34"/>
+      <c r="C530" s="30"/>
     </row>
     <row r="531">
-      <c r="A531" s="33"/>
-      <c r="B531" s="33"/>
-      <c r="C531" s="29"/>
+      <c r="A531" s="34"/>
+      <c r="B531" s="34"/>
+      <c r="C531" s="30"/>
     </row>
     <row r="532">
-      <c r="A532" s="33"/>
-      <c r="B532" s="33"/>
-      <c r="C532" s="29"/>
+      <c r="A532" s="34"/>
+      <c r="B532" s="34"/>
+      <c r="C532" s="30"/>
     </row>
     <row r="533">
-      <c r="A533" s="33"/>
-      <c r="B533" s="33"/>
-      <c r="C533" s="29"/>
+      <c r="A533" s="34"/>
+      <c r="B533" s="34"/>
+      <c r="C533" s="30"/>
     </row>
     <row r="534">
-      <c r="A534" s="33"/>
-      <c r="B534" s="33"/>
-      <c r="C534" s="29"/>
+      <c r="A534" s="34"/>
+      <c r="B534" s="34"/>
+      <c r="C534" s="30"/>
     </row>
     <row r="535">
-      <c r="A535" s="33"/>
-      <c r="B535" s="33"/>
-      <c r="C535" s="29"/>
+      <c r="A535" s="34"/>
+      <c r="B535" s="34"/>
+      <c r="C535" s="30"/>
     </row>
     <row r="536">
-      <c r="A536" s="33"/>
-      <c r="B536" s="33"/>
-      <c r="C536" s="29"/>
+      <c r="A536" s="34"/>
+      <c r="B536" s="34"/>
+      <c r="C536" s="30"/>
     </row>
     <row r="537">
-      <c r="A537" s="33"/>
-      <c r="B537" s="33"/>
-      <c r="C537" s="29"/>
+      <c r="A537" s="34"/>
+      <c r="B537" s="34"/>
+      <c r="C537" s="30"/>
     </row>
     <row r="538">
-      <c r="A538" s="33"/>
-      <c r="B538" s="33"/>
-      <c r="C538" s="29"/>
+      <c r="A538" s="34"/>
+      <c r="B538" s="34"/>
+      <c r="C538" s="30"/>
     </row>
     <row r="539">
-      <c r="A539" s="33"/>
-      <c r="B539" s="33"/>
-      <c r="C539" s="29"/>
+      <c r="A539" s="34"/>
+      <c r="B539" s="34"/>
+      <c r="C539" s="30"/>
     </row>
     <row r="540">
-      <c r="A540" s="33"/>
-      <c r="B540" s="33"/>
-      <c r="C540" s="29"/>
+      <c r="A540" s="34"/>
+      <c r="B540" s="34"/>
+      <c r="C540" s="30"/>
     </row>
     <row r="541">
-      <c r="A541" s="33"/>
-      <c r="B541" s="33"/>
-      <c r="C541" s="29"/>
+      <c r="A541" s="34"/>
+      <c r="B541" s="34"/>
+      <c r="C541" s="30"/>
     </row>
     <row r="542">
-      <c r="A542" s="33"/>
-      <c r="B542" s="33"/>
-      <c r="C542" s="29"/>
+      <c r="A542" s="34"/>
+      <c r="B542" s="34"/>
+      <c r="C542" s="30"/>
     </row>
     <row r="543">
-      <c r="A543" s="33"/>
-      <c r="B543" s="33"/>
-      <c r="C543" s="29"/>
+      <c r="A543" s="34"/>
+      <c r="B543" s="34"/>
+      <c r="C543" s="30"/>
     </row>
     <row r="544">
-      <c r="A544" s="33"/>
-      <c r="B544" s="33"/>
-      <c r="C544" s="29"/>
+      <c r="A544" s="34"/>
+      <c r="B544" s="34"/>
+      <c r="C544" s="30"/>
     </row>
     <row r="545">
-      <c r="A545" s="33"/>
-      <c r="B545" s="33"/>
-      <c r="C545" s="29"/>
+      <c r="A545" s="34"/>
+      <c r="B545" s="34"/>
+      <c r="C545" s="30"/>
     </row>
     <row r="546">
-      <c r="A546" s="33"/>
-      <c r="B546" s="33"/>
-      <c r="C546" s="29"/>
+      <c r="A546" s="34"/>
+      <c r="B546" s="34"/>
+      <c r="C546" s="30"/>
     </row>
     <row r="547">
-      <c r="A547" s="33"/>
-      <c r="B547" s="33"/>
-      <c r="C547" s="29"/>
+      <c r="A547" s="34"/>
+      <c r="B547" s="34"/>
+      <c r="C547" s="30"/>
     </row>
     <row r="548">
-      <c r="A548" s="33"/>
-      <c r="B548" s="33"/>
-      <c r="C548" s="29"/>
+      <c r="A548" s="34"/>
+      <c r="B548" s="34"/>
+      <c r="C548" s="30"/>
     </row>
     <row r="549">
-      <c r="A549" s="33"/>
-      <c r="B549" s="33"/>
-      <c r="C549" s="29"/>
+      <c r="A549" s="34"/>
+      <c r="B549" s="34"/>
+      <c r="C549" s="30"/>
     </row>
     <row r="550">
-      <c r="A550" s="33"/>
-      <c r="B550" s="33"/>
-      <c r="C550" s="29"/>
+      <c r="A550" s="34"/>
+      <c r="B550" s="34"/>
+      <c r="C550" s="30"/>
     </row>
     <row r="551">
-      <c r="A551" s="33"/>
-      <c r="B551" s="33"/>
-      <c r="C551" s="29"/>
+      <c r="A551" s="34"/>
+      <c r="B551" s="34"/>
+      <c r="C551" s="30"/>
     </row>
     <row r="552">
-      <c r="A552" s="33"/>
-      <c r="B552" s="33"/>
-      <c r="C552" s="29"/>
+      <c r="A552" s="34"/>
+      <c r="B552" s="34"/>
+      <c r="C552" s="30"/>
     </row>
     <row r="553">
-      <c r="A553" s="33"/>
-      <c r="B553" s="33"/>
-      <c r="C553" s="29"/>
+      <c r="A553" s="34"/>
+      <c r="B553" s="34"/>
+      <c r="C553" s="30"/>
     </row>
     <row r="554">
-      <c r="A554" s="33"/>
-      <c r="B554" s="33"/>
-      <c r="C554" s="29"/>
+      <c r="A554" s="34"/>
+      <c r="B554" s="34"/>
+      <c r="C554" s="30"/>
     </row>
     <row r="555">
-      <c r="A555" s="33"/>
-      <c r="B555" s="33"/>
-      <c r="C555" s="29"/>
+      <c r="A555" s="34"/>
+      <c r="B555" s="34"/>
+      <c r="C555" s="30"/>
     </row>
     <row r="556">
-      <c r="A556" s="33"/>
-      <c r="B556" s="33"/>
-      <c r="C556" s="29"/>
+      <c r="A556" s="34"/>
+      <c r="B556" s="34"/>
+      <c r="C556" s="30"/>
     </row>
     <row r="557">
-      <c r="A557" s="33"/>
-      <c r="B557" s="33"/>
-      <c r="C557" s="29"/>
+      <c r="A557" s="34"/>
+      <c r="B557" s="34"/>
+      <c r="C557" s="30"/>
     </row>
     <row r="558">
-      <c r="A558" s="33"/>
-      <c r="B558" s="33"/>
-      <c r="C558" s="29"/>
+      <c r="A558" s="34"/>
+      <c r="B558" s="34"/>
+      <c r="C558" s="30"/>
     </row>
     <row r="559">
-      <c r="A559" s="33"/>
-      <c r="B559" s="33"/>
-      <c r="C559" s="29"/>
+      <c r="A559" s="34"/>
+      <c r="B559" s="34"/>
+      <c r="C559" s="30"/>
     </row>
     <row r="560">
-      <c r="A560" s="33"/>
-      <c r="B560" s="33"/>
-      <c r="C560" s="29"/>
+      <c r="A560" s="34"/>
+      <c r="B560" s="34"/>
+      <c r="C560" s="30"/>
     </row>
     <row r="561">
-      <c r="A561" s="33"/>
-      <c r="B561" s="33"/>
-      <c r="C561" s="29"/>
+      <c r="A561" s="34"/>
+      <c r="B561" s="34"/>
+      <c r="C561" s="30"/>
     </row>
     <row r="562">
-      <c r="A562" s="33"/>
-      <c r="B562" s="33"/>
-      <c r="C562" s="29"/>
+      <c r="A562" s="34"/>
+      <c r="B562" s="34"/>
+      <c r="C562" s="30"/>
     </row>
     <row r="563">
-      <c r="A563" s="33"/>
-      <c r="B563" s="33"/>
-      <c r="C563" s="29"/>
+      <c r="A563" s="34"/>
+      <c r="B563" s="34"/>
+      <c r="C563" s="30"/>
     </row>
     <row r="564">
-      <c r="A564" s="33"/>
-      <c r="B564" s="33"/>
-      <c r="C564" s="29"/>
+      <c r="A564" s="34"/>
+      <c r="B564" s="34"/>
+      <c r="C564" s="30"/>
     </row>
     <row r="565">
-      <c r="A565" s="33"/>
-      <c r="B565" s="33"/>
-      <c r="C565" s="29"/>
+      <c r="A565" s="34"/>
+      <c r="B565" s="34"/>
+      <c r="C565" s="30"/>
     </row>
     <row r="566">
-      <c r="A566" s="33"/>
-      <c r="B566" s="33"/>
-      <c r="C566" s="29"/>
+      <c r="A566" s="34"/>
+      <c r="B566" s="34"/>
+      <c r="C566" s="30"/>
     </row>
     <row r="567">
-      <c r="A567" s="33"/>
-      <c r="B567" s="33"/>
-      <c r="C567" s="29"/>
+      <c r="A567" s="34"/>
+      <c r="B567" s="34"/>
+      <c r="C567" s="30"/>
     </row>
     <row r="568">
-      <c r="A568" s="33"/>
-      <c r="B568" s="33"/>
-      <c r="C568" s="29"/>
+      <c r="A568" s="34"/>
+      <c r="B568" s="34"/>
+      <c r="C568" s="30"/>
     </row>
     <row r="569">
-      <c r="A569" s="33"/>
-      <c r="B569" s="33"/>
-      <c r="C569" s="29"/>
+      <c r="A569" s="34"/>
+      <c r="B569" s="34"/>
+      <c r="C569" s="30"/>
     </row>
     <row r="570">
-      <c r="A570" s="33"/>
-      <c r="B570" s="33"/>
-      <c r="C570" s="29"/>
+      <c r="A570" s="34"/>
+      <c r="B570" s="34"/>
+      <c r="C570" s="30"/>
     </row>
     <row r="571">
-      <c r="A571" s="33"/>
-      <c r="B571" s="33"/>
-      <c r="C571" s="29"/>
+      <c r="A571" s="34"/>
+      <c r="B571" s="34"/>
+      <c r="C571" s="30"/>
     </row>
     <row r="572">
-      <c r="A572" s="33"/>
-      <c r="B572" s="33"/>
-      <c r="C572" s="29"/>
+      <c r="A572" s="34"/>
+      <c r="B572" s="34"/>
+      <c r="C572" s="30"/>
     </row>
     <row r="573">
-      <c r="A573" s="33"/>
-      <c r="B573" s="33"/>
-      <c r="C573" s="29"/>
+      <c r="A573" s="34"/>
+      <c r="B573" s="34"/>
+      <c r="C573" s="30"/>
     </row>
     <row r="574">
-      <c r="A574" s="33"/>
-      <c r="B574" s="33"/>
-      <c r="C574" s="29"/>
+      <c r="A574" s="34"/>
+      <c r="B574" s="34"/>
+      <c r="C574" s="30"/>
     </row>
     <row r="575">
-      <c r="A575" s="33"/>
-      <c r="B575" s="33"/>
-      <c r="C575" s="29"/>
+      <c r="A575" s="34"/>
+      <c r="B575" s="34"/>
+      <c r="C575" s="30"/>
     </row>
     <row r="576">
-      <c r="A576" s="33"/>
-      <c r="B576" s="33"/>
-      <c r="C576" s="29"/>
+      <c r="A576" s="34"/>
+      <c r="B576" s="34"/>
+      <c r="C576" s="30"/>
     </row>
     <row r="577">
-      <c r="A577" s="33"/>
-      <c r="B577" s="33"/>
-      <c r="C577" s="29"/>
+      <c r="A577" s="34"/>
+      <c r="B577" s="34"/>
+      <c r="C577" s="30"/>
     </row>
     <row r="578">
-      <c r="A578" s="33"/>
-      <c r="B578" s="33"/>
-      <c r="C578" s="29"/>
+      <c r="A578" s="34"/>
+      <c r="B578" s="34"/>
+      <c r="C578" s="30"/>
     </row>
     <row r="579">
-      <c r="A579" s="33"/>
-      <c r="B579" s="33"/>
-      <c r="C579" s="29"/>
+      <c r="A579" s="34"/>
+      <c r="B579" s="34"/>
+      <c r="C579" s="30"/>
     </row>
     <row r="580">
-      <c r="A580" s="33"/>
-      <c r="B580" s="33"/>
-      <c r="C580" s="29"/>
+      <c r="A580" s="34"/>
+      <c r="B580" s="34"/>
+      <c r="C580" s="30"/>
     </row>
     <row r="581">
-      <c r="A581" s="33"/>
-      <c r="B581" s="33"/>
-      <c r="C581" s="29"/>
+      <c r="A581" s="34"/>
+      <c r="B581" s="34"/>
+      <c r="C581" s="30"/>
     </row>
     <row r="582">
-      <c r="A582" s="33"/>
-      <c r="B582" s="33"/>
-      <c r="C582" s="29"/>
+      <c r="A582" s="34"/>
+      <c r="B582" s="34"/>
+      <c r="C582" s="30"/>
     </row>
     <row r="583">
-      <c r="A583" s="33"/>
-      <c r="B583" s="33"/>
-      <c r="C583" s="29"/>
+      <c r="A583" s="34"/>
+      <c r="B583" s="34"/>
+      <c r="C583" s="30"/>
     </row>
     <row r="584">
-      <c r="A584" s="33"/>
-      <c r="B584" s="33"/>
-      <c r="C584" s="29"/>
+      <c r="A584" s="34"/>
+      <c r="B584" s="34"/>
+      <c r="C584" s="30"/>
     </row>
     <row r="585">
-      <c r="A585" s="33"/>
-      <c r="B585" s="33"/>
-      <c r="C585" s="29"/>
+      <c r="A585" s="34"/>
+      <c r="B585" s="34"/>
+      <c r="C585" s="30"/>
     </row>
     <row r="586">
-      <c r="A586" s="33"/>
-      <c r="B586" s="33"/>
-      <c r="C586" s="29"/>
+      <c r="A586" s="34"/>
+      <c r="B586" s="34"/>
+      <c r="C586" s="30"/>
     </row>
     <row r="587">
-      <c r="A587" s="33"/>
-      <c r="B587" s="33"/>
-      <c r="C587" s="29"/>
+      <c r="A587" s="34"/>
+      <c r="B587" s="34"/>
+      <c r="C587" s="30"/>
     </row>
     <row r="588">
-      <c r="A588" s="33"/>
-      <c r="B588" s="33"/>
-      <c r="C588" s="29"/>
+      <c r="A588" s="34"/>
+      <c r="B588" s="34"/>
+      <c r="C588" s="30"/>
     </row>
     <row r="589">
-      <c r="A589" s="33"/>
-      <c r="B589" s="33"/>
-      <c r="C589" s="29"/>
+      <c r="A589" s="34"/>
+      <c r="B589" s="34"/>
+      <c r="C589" s="30"/>
     </row>
     <row r="590">
-      <c r="A590" s="33"/>
-      <c r="B590" s="33"/>
-      <c r="C590" s="29"/>
+      <c r="A590" s="34"/>
+      <c r="B590" s="34"/>
+      <c r="C590" s="30"/>
     </row>
     <row r="591">
-      <c r="A591" s="33"/>
-      <c r="B591" s="33"/>
-      <c r="C591" s="29"/>
+      <c r="A591" s="34"/>
+      <c r="B591" s="34"/>
+      <c r="C591" s="30"/>
     </row>
     <row r="592">
-      <c r="A592" s="33"/>
-      <c r="B592" s="33"/>
-      <c r="C592" s="29"/>
+      <c r="A592" s="34"/>
+      <c r="B592" s="34"/>
+      <c r="C592" s="30"/>
     </row>
     <row r="593">
-      <c r="A593" s="33"/>
-      <c r="B593" s="33"/>
-      <c r="C593" s="29"/>
+      <c r="A593" s="34"/>
+      <c r="B593" s="34"/>
+      <c r="C593" s="30"/>
     </row>
     <row r="594">
-      <c r="A594" s="33"/>
-      <c r="B594" s="33"/>
-      <c r="C594" s="29"/>
+      <c r="A594" s="34"/>
+      <c r="B594" s="34"/>
+      <c r="C594" s="30"/>
     </row>
     <row r="595">
-      <c r="A595" s="33"/>
-      <c r="B595" s="33"/>
-      <c r="C595" s="29"/>
+      <c r="A595" s="34"/>
+      <c r="B595" s="34"/>
+      <c r="C595" s="30"/>
     </row>
     <row r="596">
-      <c r="A596" s="33"/>
-      <c r="B596" s="33"/>
-      <c r="C596" s="29"/>
+      <c r="A596" s="34"/>
+      <c r="B596" s="34"/>
+      <c r="C596" s="30"/>
     </row>
     <row r="597">
-      <c r="A597" s="33"/>
-      <c r="B597" s="33"/>
-      <c r="C597" s="29"/>
+      <c r="A597" s="34"/>
+      <c r="B597" s="34"/>
+      <c r="C597" s="30"/>
     </row>
     <row r="598">
-      <c r="A598" s="33"/>
-      <c r="B598" s="33"/>
-      <c r="C598" s="29"/>
+      <c r="A598" s="34"/>
+      <c r="B598" s="34"/>
+      <c r="C598" s="30"/>
     </row>
     <row r="599">
-      <c r="A599" s="33"/>
-      <c r="B599" s="33"/>
-      <c r="C599" s="29"/>
+      <c r="A599" s="34"/>
+      <c r="B599" s="34"/>
+      <c r="C599" s="30"/>
     </row>
     <row r="600">
-      <c r="A600" s="33"/>
-      <c r="B600" s="33"/>
-      <c r="C600" s="29"/>
+      <c r="A600" s="34"/>
+      <c r="B600" s="34"/>
+      <c r="C600" s="30"/>
     </row>
     <row r="601">
-      <c r="A601" s="33"/>
-      <c r="B601" s="33"/>
-      <c r="C601" s="29"/>
+      <c r="A601" s="34"/>
+      <c r="B601" s="34"/>
+      <c r="C601" s="30"/>
     </row>
     <row r="602">
-      <c r="A602" s="33"/>
-      <c r="B602" s="33"/>
-      <c r="C602" s="29"/>
+      <c r="A602" s="34"/>
+      <c r="B602" s="34"/>
+      <c r="C602" s="30"/>
     </row>
     <row r="603">
-      <c r="A603" s="33"/>
-      <c r="B603" s="33"/>
-      <c r="C603" s="29"/>
+      <c r="A603" s="34"/>
+      <c r="B603" s="34"/>
+      <c r="C603" s="30"/>
     </row>
     <row r="604">
-      <c r="A604" s="33"/>
-      <c r="B604" s="33"/>
-      <c r="C604" s="29"/>
+      <c r="A604" s="34"/>
+      <c r="B604" s="34"/>
+      <c r="C604" s="30"/>
     </row>
     <row r="605">
-      <c r="A605" s="33"/>
-      <c r="B605" s="33"/>
-      <c r="C605" s="29"/>
+      <c r="A605" s="34"/>
+      <c r="B605" s="34"/>
+      <c r="C605" s="30"/>
     </row>
     <row r="606">
-      <c r="A606" s="33"/>
-      <c r="B606" s="33"/>
-      <c r="C606" s="29"/>
+      <c r="A606" s="34"/>
+      <c r="B606" s="34"/>
+      <c r="C606" s="30"/>
     </row>
     <row r="607">
-      <c r="A607" s="33"/>
-      <c r="B607" s="33"/>
-      <c r="C607" s="29"/>
+      <c r="A607" s="34"/>
+      <c r="B607" s="34"/>
+      <c r="C607" s="30"/>
     </row>
     <row r="608">
-      <c r="A608" s="33"/>
-      <c r="B608" s="33"/>
-      <c r="C608" s="29"/>
+      <c r="A608" s="34"/>
+      <c r="B608" s="34"/>
+      <c r="C608" s="30"/>
     </row>
     <row r="609">
-      <c r="A609" s="33"/>
-      <c r="B609" s="33"/>
-      <c r="C609" s="29"/>
+      <c r="A609" s="34"/>
+      <c r="B609" s="34"/>
+      <c r="C609" s="30"/>
     </row>
     <row r="610">
-      <c r="A610" s="33"/>
-      <c r="B610" s="33"/>
-      <c r="C610" s="29"/>
+      <c r="A610" s="34"/>
+      <c r="B610" s="34"/>
+      <c r="C610" s="30"/>
     </row>
     <row r="611">
-      <c r="A611" s="33"/>
-      <c r="B611" s="33"/>
-      <c r="C611" s="29"/>
+      <c r="A611" s="34"/>
+      <c r="B611" s="34"/>
+      <c r="C611" s="30"/>
     </row>
     <row r="612">
-      <c r="A612" s="33"/>
-      <c r="B612" s="33"/>
-      <c r="C612" s="29"/>
+      <c r="A612" s="34"/>
+      <c r="B612" s="34"/>
+      <c r="C612" s="30"/>
     </row>
     <row r="613">
-      <c r="A613" s="33"/>
-      <c r="B613" s="33"/>
-      <c r="C613" s="29"/>
+      <c r="A613" s="34"/>
+      <c r="B613" s="34"/>
+      <c r="C613" s="30"/>
     </row>
     <row r="614">
-      <c r="A614" s="33"/>
-      <c r="B614" s="33"/>
-      <c r="C614" s="29"/>
+      <c r="A614" s="34"/>
+      <c r="B614" s="34"/>
+      <c r="C614" s="30"/>
     </row>
     <row r="615">
-      <c r="A615" s="33"/>
-      <c r="B615" s="33"/>
-      <c r="C615" s="29"/>
+      <c r="A615" s="34"/>
+      <c r="B615" s="34"/>
+      <c r="C615" s="30"/>
     </row>
     <row r="616">
-      <c r="A616" s="33"/>
-      <c r="B616" s="33"/>
-      <c r="C616" s="29"/>
+      <c r="A616" s="34"/>
+      <c r="B616" s="34"/>
+      <c r="C616" s="30"/>
     </row>
     <row r="617">
-      <c r="A617" s="33"/>
-      <c r="B617" s="33"/>
-      <c r="C617" s="29"/>
+      <c r="A617" s="34"/>
+      <c r="B617" s="34"/>
+      <c r="C617" s="30"/>
     </row>
     <row r="618">
-      <c r="A618" s="33"/>
-      <c r="B618" s="33"/>
-      <c r="C618" s="29"/>
+      <c r="A618" s="34"/>
+      <c r="B618" s="34"/>
+      <c r="C618" s="30"/>
     </row>
     <row r="619">
-      <c r="A619" s="33"/>
-      <c r="B619" s="33"/>
-      <c r="C619" s="29"/>
+      <c r="A619" s="34"/>
+      <c r="B619" s="34"/>
+      <c r="C619" s="30"/>
     </row>
     <row r="620">
-      <c r="A620" s="33"/>
-      <c r="B620" s="33"/>
-      <c r="C620" s="29"/>
+      <c r="A620" s="34"/>
+      <c r="B620" s="34"/>
+      <c r="C620" s="30"/>
     </row>
     <row r="621">
-      <c r="A621" s="33"/>
-      <c r="B621" s="33"/>
-      <c r="C621" s="29"/>
+      <c r="A621" s="34"/>
+      <c r="B621" s="34"/>
+      <c r="C621" s="30"/>
     </row>
     <row r="622">
-      <c r="A622" s="33"/>
-      <c r="B622" s="33"/>
-      <c r="C622" s="29"/>
+      <c r="A622" s="34"/>
+      <c r="B622" s="34"/>
+      <c r="C622" s="30"/>
     </row>
     <row r="623">
-      <c r="A623" s="33"/>
-      <c r="B623" s="33"/>
-      <c r="C623" s="29"/>
+      <c r="A623" s="34"/>
+      <c r="B623" s="34"/>
+      <c r="C623" s="30"/>
     </row>
     <row r="624">
-      <c r="A624" s="33"/>
-      <c r="B624" s="33"/>
-      <c r="C624" s="29"/>
+      <c r="A624" s="34"/>
+      <c r="B624" s="34"/>
+      <c r="C624" s="30"/>
     </row>
     <row r="625">
-      <c r="A625" s="33"/>
-      <c r="B625" s="33"/>
-      <c r="C625" s="29"/>
+      <c r="A625" s="34"/>
+      <c r="B625" s="34"/>
+      <c r="C625" s="30"/>
     </row>
     <row r="626">
-      <c r="A626" s="33"/>
-      <c r="B626" s="33"/>
-      <c r="C626" s="29"/>
+      <c r="A626" s="34"/>
+      <c r="B626" s="34"/>
+      <c r="C626" s="30"/>
     </row>
     <row r="627">
-      <c r="A627" s="33"/>
-      <c r="B627" s="33"/>
-      <c r="C627" s="29"/>
+      <c r="A627" s="34"/>
+      <c r="B627" s="34"/>
+      <c r="C627" s="30"/>
     </row>
     <row r="628">
-      <c r="A628" s="33"/>
-      <c r="B628" s="33"/>
-      <c r="C628" s="29"/>
+      <c r="A628" s="34"/>
+      <c r="B628" s="34"/>
+      <c r="C628" s="30"/>
     </row>
     <row r="629">
-      <c r="A629" s="33"/>
-      <c r="B629" s="33"/>
-      <c r="C629" s="29"/>
+      <c r="A629" s="34"/>
+      <c r="B629" s="34"/>
+      <c r="C629" s="30"/>
     </row>
     <row r="630">
-      <c r="A630" s="33"/>
-      <c r="B630" s="33"/>
-      <c r="C630" s="29"/>
+      <c r="A630" s="34"/>
+      <c r="B630" s="34"/>
+      <c r="C630" s="30"/>
     </row>
     <row r="631">
-      <c r="A631" s="33"/>
-      <c r="B631" s="33"/>
-      <c r="C631" s="29"/>
+      <c r="A631" s="34"/>
+      <c r="B631" s="34"/>
+      <c r="C631" s="30"/>
     </row>
     <row r="632">
-      <c r="A632" s="33"/>
-      <c r="B632" s="33"/>
-      <c r="C632" s="29"/>
+      <c r="A632" s="34"/>
+      <c r="B632" s="34"/>
+      <c r="C632" s="30"/>
     </row>
     <row r="633">
-      <c r="A633" s="33"/>
-      <c r="B633" s="33"/>
-      <c r="C633" s="29"/>
+      <c r="A633" s="34"/>
+      <c r="B633" s="34"/>
+      <c r="C633" s="30"/>
     </row>
     <row r="634">
-      <c r="A634" s="33"/>
-      <c r="B634" s="33"/>
-      <c r="C634" s="29"/>
+      <c r="A634" s="34"/>
+      <c r="B634" s="34"/>
+      <c r="C634" s="30"/>
     </row>
     <row r="635">
-      <c r="A635" s="33"/>
-      <c r="B635" s="33"/>
-      <c r="C635" s="29"/>
+      <c r="A635" s="34"/>
+      <c r="B635" s="34"/>
+      <c r="C635" s="30"/>
     </row>
     <row r="636">
-      <c r="A636" s="33"/>
-      <c r="B636" s="33"/>
-      <c r="C636" s="29"/>
+      <c r="A636" s="34"/>
+      <c r="B636" s="34"/>
+      <c r="C636" s="30"/>
     </row>
     <row r="637">
-      <c r="A637" s="33"/>
-      <c r="B637" s="33"/>
-      <c r="C637" s="29"/>
+      <c r="A637" s="34"/>
+      <c r="B637" s="34"/>
+      <c r="C637" s="30"/>
     </row>
     <row r="638">
-      <c r="A638" s="33"/>
-      <c r="B638" s="33"/>
-      <c r="C638" s="29"/>
+      <c r="A638" s="34"/>
+      <c r="B638" s="34"/>
+      <c r="C638" s="30"/>
     </row>
     <row r="639">
-      <c r="A639" s="33"/>
-      <c r="B639" s="33"/>
-      <c r="C639" s="29"/>
+      <c r="A639" s="34"/>
+      <c r="B639" s="34"/>
+      <c r="C639" s="30"/>
     </row>
     <row r="640">
-      <c r="A640" s="33"/>
-      <c r="B640" s="33"/>
-      <c r="C640" s="29"/>
+      <c r="A640" s="34"/>
+      <c r="B640" s="34"/>
+      <c r="C640" s="30"/>
     </row>
     <row r="641">
-      <c r="A641" s="33"/>
-      <c r="B641" s="33"/>
-      <c r="C641" s="29"/>
+      <c r="A641" s="34"/>
+      <c r="B641" s="34"/>
+      <c r="C641" s="30"/>
     </row>
     <row r="642">
-      <c r="A642" s="33"/>
-      <c r="B642" s="33"/>
-      <c r="C642" s="29"/>
+      <c r="A642" s="34"/>
+      <c r="B642" s="34"/>
+      <c r="C642" s="30"/>
     </row>
     <row r="643">
-      <c r="A643" s="33"/>
-      <c r="B643" s="33"/>
-      <c r="C643" s="29"/>
+      <c r="A643" s="34"/>
+      <c r="B643" s="34"/>
+      <c r="C643" s="30"/>
     </row>
     <row r="644">
-      <c r="A644" s="33"/>
-      <c r="B644" s="33"/>
-      <c r="C644" s="29"/>
+      <c r="A644" s="34"/>
+      <c r="B644" s="34"/>
+      <c r="C644" s="30"/>
     </row>
     <row r="645">
-      <c r="A645" s="33"/>
-      <c r="B645" s="33"/>
-      <c r="C645" s="29"/>
+      <c r="A645" s="34"/>
+      <c r="B645" s="34"/>
+      <c r="C645" s="30"/>
     </row>
     <row r="646">
-      <c r="A646" s="33"/>
-      <c r="B646" s="33"/>
-      <c r="C646" s="29"/>
+      <c r="A646" s="34"/>
+      <c r="B646" s="34"/>
+      <c r="C646" s="30"/>
     </row>
     <row r="647">
-      <c r="A647" s="33"/>
-      <c r="B647" s="33"/>
-      <c r="C647" s="29"/>
+      <c r="A647" s="34"/>
+      <c r="B647" s="34"/>
+      <c r="C647" s="30"/>
     </row>
     <row r="648">
-      <c r="A648" s="33"/>
-      <c r="B648" s="33"/>
-      <c r="C648" s="29"/>
+      <c r="A648" s="34"/>
+      <c r="B648" s="34"/>
+      <c r="C648" s="30"/>
     </row>
     <row r="649">
-      <c r="A649" s="33"/>
-      <c r="B649" s="33"/>
-      <c r="C649" s="29"/>
+      <c r="A649" s="34"/>
+      <c r="B649" s="34"/>
+      <c r="C649" s="30"/>
     </row>
     <row r="650">
-      <c r="A650" s="33"/>
-      <c r="B650" s="33"/>
-      <c r="C650" s="29"/>
+      <c r="A650" s="34"/>
+      <c r="B650" s="34"/>
+      <c r="C650" s="30"/>
     </row>
     <row r="651">
-      <c r="A651" s="33"/>
-      <c r="B651" s="33"/>
-      <c r="C651" s="29"/>
+      <c r="A651" s="34"/>
+      <c r="B651" s="34"/>
+      <c r="C651" s="30"/>
     </row>
     <row r="652">
-      <c r="A652" s="33"/>
-      <c r="B652" s="33"/>
-      <c r="C652" s="29"/>
+      <c r="A652" s="34"/>
+      <c r="B652" s="34"/>
+      <c r="C652" s="30"/>
     </row>
     <row r="653">
-      <c r="A653" s="33"/>
-      <c r="B653" s="33"/>
-      <c r="C653" s="29"/>
+      <c r="A653" s="34"/>
+      <c r="B653" s="34"/>
+      <c r="C653" s="30"/>
     </row>
     <row r="654">
-      <c r="A654" s="33"/>
-      <c r="B654" s="33"/>
-      <c r="C654" s="29"/>
+      <c r="A654" s="34"/>
+      <c r="B654" s="34"/>
+      <c r="C654" s="30"/>
     </row>
     <row r="655">
-      <c r="A655" s="33"/>
-      <c r="B655" s="33"/>
-      <c r="C655" s="29"/>
+      <c r="A655" s="34"/>
+      <c r="B655" s="34"/>
+      <c r="C655" s="30"/>
     </row>
     <row r="656">
-      <c r="A656" s="33"/>
-      <c r="B656" s="33"/>
-      <c r="C656" s="29"/>
+      <c r="A656" s="34"/>
+      <c r="B656" s="34"/>
+      <c r="C656" s="30"/>
     </row>
     <row r="657">
-      <c r="A657" s="33"/>
-      <c r="B657" s="33"/>
-      <c r="C657" s="29"/>
+      <c r="A657" s="34"/>
+      <c r="B657" s="34"/>
+      <c r="C657" s="30"/>
     </row>
     <row r="658">
-      <c r="A658" s="33"/>
-      <c r="B658" s="33"/>
-      <c r="C658" s="29"/>
+      <c r="A658" s="34"/>
+      <c r="B658" s="34"/>
+      <c r="C658" s="30"/>
     </row>
     <row r="659">
-      <c r="A659" s="33"/>
-      <c r="B659" s="33"/>
-      <c r="C659" s="29"/>
+      <c r="A659" s="34"/>
+      <c r="B659" s="34"/>
+      <c r="C659" s="30"/>
     </row>
     <row r="660">
-      <c r="A660" s="33"/>
-      <c r="B660" s="33"/>
-      <c r="C660" s="29"/>
+      <c r="A660" s="34"/>
+      <c r="B660" s="34"/>
+      <c r="C660" s="30"/>
     </row>
     <row r="661">
-      <c r="A661" s="33"/>
-      <c r="B661" s="33"/>
-      <c r="C661" s="29"/>
+      <c r="A661" s="34"/>
+      <c r="B661" s="34"/>
+      <c r="C661" s="30"/>
     </row>
     <row r="662">
-      <c r="A662" s="33"/>
-      <c r="B662" s="33"/>
-      <c r="C662" s="29"/>
+      <c r="A662" s="34"/>
+      <c r="B662" s="34"/>
+      <c r="C662" s="30"/>
     </row>
     <row r="663">
-      <c r="A663" s="33"/>
-      <c r="B663" s="33"/>
-      <c r="C663" s="29"/>
+      <c r="A663" s="34"/>
+      <c r="B663" s="34"/>
+      <c r="C663" s="30"/>
     </row>
     <row r="664">
-      <c r="A664" s="33"/>
-      <c r="B664" s="33"/>
-      <c r="C664" s="29"/>
+      <c r="A664" s="34"/>
+      <c r="B664" s="34"/>
+      <c r="C664" s="30"/>
     </row>
     <row r="665">
-      <c r="A665" s="33"/>
-      <c r="B665" s="33"/>
-      <c r="C665" s="29"/>
+      <c r="A665" s="34"/>
+      <c r="B665" s="34"/>
+      <c r="C665" s="30"/>
     </row>
     <row r="666">
-      <c r="A666" s="33"/>
-      <c r="B666" s="33"/>
-      <c r="C666" s="29"/>
+      <c r="A666" s="34"/>
+      <c r="B666" s="34"/>
+      <c r="C666" s="30"/>
     </row>
     <row r="667">
-      <c r="A667" s="33"/>
-      <c r="B667" s="33"/>
-      <c r="C667" s="29"/>
+      <c r="A667" s="34"/>
+      <c r="B667" s="34"/>
+      <c r="C667" s="30"/>
     </row>
     <row r="668">
-      <c r="A668" s="33"/>
-      <c r="B668" s="33"/>
-      <c r="C668" s="29"/>
+      <c r="A668" s="34"/>
+      <c r="B668" s="34"/>
+      <c r="C668" s="30"/>
     </row>
     <row r="669">
-      <c r="A669" s="33"/>
-      <c r="B669" s="33"/>
-      <c r="C669" s="29"/>
+      <c r="A669" s="34"/>
+      <c r="B669" s="34"/>
+      <c r="C669" s="30"/>
     </row>
     <row r="670">
-      <c r="A670" s="33"/>
-      <c r="B670" s="33"/>
-      <c r="C670" s="29"/>
+      <c r="A670" s="34"/>
+      <c r="B670" s="34"/>
+      <c r="C670" s="30"/>
     </row>
     <row r="671">
-      <c r="A671" s="33"/>
-      <c r="B671" s="33"/>
-      <c r="C671" s="29"/>
+      <c r="A671" s="34"/>
+      <c r="B671" s="34"/>
+      <c r="C671" s="30"/>
     </row>
     <row r="672">
-      <c r="A672" s="33"/>
-      <c r="B672" s="33"/>
-      <c r="C672" s="29"/>
+      <c r="A672" s="34"/>
+      <c r="B672" s="34"/>
+      <c r="C672" s="30"/>
     </row>
     <row r="673">
-      <c r="A673" s="33"/>
-      <c r="B673" s="33"/>
-      <c r="C673" s="29"/>
+      <c r="A673" s="34"/>
+      <c r="B673" s="34"/>
+      <c r="C673" s="30"/>
     </row>
     <row r="674">
-      <c r="A674" s="33"/>
-      <c r="B674" s="33"/>
-      <c r="C674" s="29"/>
+      <c r="A674" s="34"/>
+      <c r="B674" s="34"/>
+      <c r="C674" s="30"/>
     </row>
     <row r="675">
-      <c r="A675" s="33"/>
-      <c r="B675" s="33"/>
-      <c r="C675" s="29"/>
+      <c r="A675" s="34"/>
+      <c r="B675" s="34"/>
+      <c r="C675" s="30"/>
     </row>
     <row r="676">
-      <c r="A676" s="33"/>
-      <c r="B676" s="33"/>
-      <c r="C676" s="29"/>
+      <c r="A676" s="34"/>
+      <c r="B676" s="34"/>
+      <c r="C676" s="30"/>
     </row>
     <row r="677">
-      <c r="A677" s="33"/>
-      <c r="B677" s="33"/>
-      <c r="C677" s="29"/>
+      <c r="A677" s="34"/>
+      <c r="B677" s="34"/>
+      <c r="C677" s="30"/>
     </row>
     <row r="678">
-      <c r="A678" s="33"/>
-      <c r="B678" s="33"/>
-      <c r="C678" s="29"/>
+      <c r="A678" s="34"/>
+      <c r="B678" s="34"/>
+      <c r="C678" s="30"/>
     </row>
     <row r="679">
-      <c r="A679" s="33"/>
-      <c r="B679" s="33"/>
-      <c r="C679" s="29"/>
+      <c r="A679" s="34"/>
+      <c r="B679" s="34"/>
+      <c r="C679" s="30"/>
     </row>
     <row r="680">
-      <c r="A680" s="33"/>
-      <c r="B680" s="33"/>
-      <c r="C680" s="29"/>
+      <c r="A680" s="34"/>
+      <c r="B680" s="34"/>
+      <c r="C680" s="30"/>
     </row>
     <row r="681">
-      <c r="A681" s="33"/>
-      <c r="B681" s="33"/>
-      <c r="C681" s="29"/>
+      <c r="A681" s="34"/>
+      <c r="B681" s="34"/>
+      <c r="C681" s="30"/>
     </row>
     <row r="682">
-      <c r="A682" s="33"/>
-      <c r="B682" s="33"/>
-      <c r="C682" s="29"/>
+      <c r="A682" s="34"/>
+      <c r="B682" s="34"/>
+      <c r="C682" s="30"/>
     </row>
     <row r="683">
-      <c r="A683" s="33"/>
-      <c r="B683" s="33"/>
-      <c r="C683" s="29"/>
+      <c r="A683" s="34"/>
+      <c r="B683" s="34"/>
+      <c r="C683" s="30"/>
     </row>
     <row r="684">
-      <c r="A684" s="33"/>
-      <c r="B684" s="33"/>
-      <c r="C684" s="29"/>
+      <c r="A684" s="34"/>
+      <c r="B684" s="34"/>
+      <c r="C684" s="30"/>
     </row>
     <row r="685">
-      <c r="A685" s="33"/>
-      <c r="B685" s="33"/>
-      <c r="C685" s="29"/>
+      <c r="A685" s="34"/>
+      <c r="B685" s="34"/>
+      <c r="C685" s="30"/>
     </row>
     <row r="686">
-      <c r="A686" s="33"/>
-      <c r="B686" s="33"/>
-      <c r="C686" s="29"/>
+      <c r="A686" s="34"/>
+      <c r="B686" s="34"/>
+      <c r="C686" s="30"/>
     </row>
     <row r="687">
-      <c r="A687" s="33"/>
-      <c r="B687" s="33"/>
-      <c r="C687" s="29"/>
+      <c r="A687" s="34"/>
+      <c r="B687" s="34"/>
+      <c r="C687" s="30"/>
     </row>
     <row r="688">
-      <c r="A688" s="33"/>
-      <c r="B688" s="33"/>
-      <c r="C688" s="29"/>
+      <c r="A688" s="34"/>
+      <c r="B688" s="34"/>
+      <c r="C688" s="30"/>
     </row>
     <row r="689">
-      <c r="A689" s="33"/>
-      <c r="B689" s="33"/>
-      <c r="C689" s="29"/>
+      <c r="A689" s="34"/>
+      <c r="B689" s="34"/>
+      <c r="C689" s="30"/>
     </row>
     <row r="690">
-      <c r="A690" s="33"/>
-      <c r="B690" s="33"/>
-      <c r="C690" s="29"/>
+      <c r="A690" s="34"/>
+      <c r="B690" s="34"/>
+      <c r="C690" s="30"/>
     </row>
     <row r="691">
-      <c r="A691" s="33"/>
-      <c r="B691" s="33"/>
-      <c r="C691" s="29"/>
+      <c r="A691" s="34"/>
+      <c r="B691" s="34"/>
+      <c r="C691" s="30"/>
     </row>
     <row r="692">
-      <c r="A692" s="33"/>
-      <c r="B692" s="33"/>
-      <c r="C692" s="29"/>
+      <c r="A692" s="34"/>
+      <c r="B692" s="34"/>
+      <c r="C692" s="30"/>
     </row>
     <row r="693">
-      <c r="A693" s="33"/>
-      <c r="B693" s="33"/>
-      <c r="C693" s="29"/>
+      <c r="A693" s="34"/>
+      <c r="B693" s="34"/>
+      <c r="C693" s="30"/>
     </row>
     <row r="694">
-      <c r="A694" s="33"/>
-      <c r="B694" s="33"/>
-      <c r="C694" s="29"/>
+      <c r="A694" s="34"/>
+      <c r="B694" s="34"/>
+      <c r="C694" s="30"/>
     </row>
     <row r="695">
-      <c r="A695" s="33"/>
-      <c r="B695" s="33"/>
-      <c r="C695" s="29"/>
+      <c r="A695" s="34"/>
+      <c r="B695" s="34"/>
+      <c r="C695" s="30"/>
     </row>
     <row r="696">
-      <c r="A696" s="33"/>
-      <c r="B696" s="33"/>
-      <c r="C696" s="29"/>
+      <c r="A696" s="34"/>
+      <c r="B696" s="34"/>
+      <c r="C696" s="30"/>
     </row>
     <row r="697">
-      <c r="A697" s="33"/>
-      <c r="B697" s="33"/>
-      <c r="C697" s="29"/>
+      <c r="A697" s="34"/>
+      <c r="B697" s="34"/>
+      <c r="C697" s="30"/>
     </row>
     <row r="698">
-      <c r="A698" s="33"/>
-      <c r="B698" s="33"/>
-      <c r="C698" s="29"/>
+      <c r="A698" s="34"/>
+      <c r="B698" s="34"/>
+      <c r="C698" s="30"/>
     </row>
     <row r="699">
-      <c r="A699" s="33"/>
-      <c r="B699" s="33"/>
-      <c r="C699" s="29"/>
+      <c r="A699" s="34"/>
+      <c r="B699" s="34"/>
+      <c r="C699" s="30"/>
     </row>
     <row r="700">
-      <c r="A700" s="33"/>
-      <c r="B700" s="33"/>
-      <c r="C700" s="29"/>
+      <c r="A700" s="34"/>
+      <c r="B700" s="34"/>
+      <c r="C700" s="30"/>
     </row>
     <row r="701">
-      <c r="A701" s="33"/>
-      <c r="B701" s="33"/>
-      <c r="C701" s="29"/>
+      <c r="A701" s="34"/>
+      <c r="B701" s="34"/>
+      <c r="C701" s="30"/>
     </row>
     <row r="702">
-      <c r="A702" s="33"/>
-      <c r="B702" s="33"/>
-      <c r="C702" s="29"/>
+      <c r="A702" s="34"/>
+      <c r="B702" s="34"/>
+      <c r="C702" s="30"/>
     </row>
     <row r="703">
-      <c r="A703" s="33"/>
-      <c r="B703" s="33"/>
-      <c r="C703" s="29"/>
+      <c r="A703" s="34"/>
+      <c r="B703" s="34"/>
+      <c r="C703" s="30"/>
     </row>
     <row r="704">
-      <c r="A704" s="33"/>
-      <c r="B704" s="33"/>
-      <c r="C704" s="29"/>
+      <c r="A704" s="34"/>
+      <c r="B704" s="34"/>
+      <c r="C704" s="30"/>
     </row>
     <row r="705">
-      <c r="A705" s="33"/>
-      <c r="B705" s="33"/>
-      <c r="C705" s="29"/>
+      <c r="A705" s="34"/>
+      <c r="B705" s="34"/>
+      <c r="C705" s="30"/>
     </row>
     <row r="706">
-      <c r="A706" s="33"/>
-      <c r="B706" s="33"/>
-      <c r="C706" s="29"/>
+      <c r="A706" s="34"/>
+      <c r="B706" s="34"/>
+      <c r="C706" s="30"/>
     </row>
     <row r="707">
-      <c r="A707" s="33"/>
-      <c r="B707" s="33"/>
-      <c r="C707" s="29"/>
+      <c r="A707" s="34"/>
+      <c r="B707" s="34"/>
+      <c r="C707" s="30"/>
     </row>
     <row r="708">
-      <c r="A708" s="33"/>
-      <c r="B708" s="33"/>
-      <c r="C708" s="29"/>
+      <c r="A708" s="34"/>
+      <c r="B708" s="34"/>
+      <c r="C708" s="30"/>
     </row>
     <row r="709">
-      <c r="A709" s="33"/>
-      <c r="B709" s="33"/>
-      <c r="C709" s="29"/>
+      <c r="A709" s="34"/>
+      <c r="B709" s="34"/>
+      <c r="C709" s="30"/>
     </row>
     <row r="710">
-      <c r="A710" s="33"/>
-      <c r="B710" s="33"/>
-      <c r="C710" s="29"/>
+      <c r="A710" s="34"/>
+      <c r="B710" s="34"/>
+      <c r="C710" s="30"/>
     </row>
     <row r="711">
-      <c r="A711" s="33"/>
-      <c r="B711" s="33"/>
-      <c r="C711" s="29"/>
+      <c r="A711" s="34"/>
+      <c r="B711" s="34"/>
+      <c r="C711" s="30"/>
     </row>
     <row r="712">
-      <c r="A712" s="33"/>
-      <c r="B712" s="33"/>
-      <c r="C712" s="29"/>
+      <c r="A712" s="34"/>
+      <c r="B712" s="34"/>
+      <c r="C712" s="30"/>
     </row>
     <row r="713">
-      <c r="A713" s="33"/>
-      <c r="B713" s="33"/>
-      <c r="C713" s="29"/>
+      <c r="A713" s="34"/>
+      <c r="B713" s="34"/>
+      <c r="C713" s="30"/>
     </row>
     <row r="714">
-      <c r="A714" s="33"/>
-      <c r="B714" s="33"/>
-      <c r="C714" s="29"/>
+      <c r="A714" s="34"/>
+      <c r="B714" s="34"/>
+      <c r="C714" s="30"/>
     </row>
     <row r="715">
-      <c r="A715" s="33"/>
-      <c r="B715" s="33"/>
-      <c r="C715" s="29"/>
+      <c r="A715" s="34"/>
+      <c r="B715" s="34"/>
+      <c r="C715" s="30"/>
     </row>
     <row r="716">
-      <c r="A716" s="33"/>
-      <c r="B716" s="33"/>
-      <c r="C716" s="29"/>
+      <c r="A716" s="34"/>
+      <c r="B716" s="34"/>
+      <c r="C716" s="30"/>
     </row>
     <row r="717">
-      <c r="A717" s="33"/>
-      <c r="B717" s="33"/>
-      <c r="C717" s="29"/>
+      <c r="A717" s="34"/>
+      <c r="B717" s="34"/>
+      <c r="C717" s="30"/>
     </row>
     <row r="718">
-      <c r="A718" s="33"/>
-      <c r="B718" s="33"/>
-      <c r="C718" s="29"/>
+      <c r="A718" s="34"/>
+      <c r="B718" s="34"/>
+      <c r="C718" s="30"/>
     </row>
     <row r="719">
-      <c r="A719" s="33"/>
-      <c r="B719" s="33"/>
-      <c r="C719" s="29"/>
+      <c r="A719" s="34"/>
+      <c r="B719" s="34"/>
+      <c r="C719" s="30"/>
     </row>
     <row r="720">
-      <c r="A720" s="33"/>
-      <c r="B720" s="33"/>
-      <c r="C720" s="29"/>
+      <c r="A720" s="34"/>
+      <c r="B720" s="34"/>
+      <c r="C720" s="30"/>
     </row>
     <row r="721">
-      <c r="A721" s="33"/>
-      <c r="B721" s="33"/>
-      <c r="C721" s="29"/>
+      <c r="A721" s="34"/>
+      <c r="B721" s="34"/>
+      <c r="C721" s="30"/>
     </row>
     <row r="722">
-      <c r="A722" s="33"/>
-      <c r="B722" s="33"/>
-      <c r="C722" s="29"/>
+      <c r="A722" s="34"/>
+      <c r="B722" s="34"/>
+      <c r="C722" s="30"/>
     </row>
     <row r="723">
-      <c r="A723" s="33"/>
-      <c r="B723" s="33"/>
-      <c r="C723" s="29"/>
+      <c r="A723" s="34"/>
+      <c r="B723" s="34"/>
+      <c r="C723" s="30"/>
     </row>
     <row r="724">
-      <c r="A724" s="33"/>
-      <c r="B724" s="33"/>
-      <c r="C724" s="29"/>
+      <c r="A724" s="34"/>
+      <c r="B724" s="34"/>
+      <c r="C724" s="30"/>
     </row>
     <row r="725">
-      <c r="A725" s="33"/>
-      <c r="B725" s="33"/>
-      <c r="C725" s="29"/>
+      <c r="A725" s="34"/>
+      <c r="B725" s="34"/>
+      <c r="C725" s="30"/>
     </row>
     <row r="726">
-      <c r="A726" s="33"/>
-      <c r="B726" s="33"/>
-      <c r="C726" s="29"/>
+      <c r="A726" s="34"/>
+      <c r="B726" s="34"/>
+      <c r="C726" s="30"/>
     </row>
     <row r="727">
-      <c r="A727" s="33"/>
-      <c r="B727" s="33"/>
-      <c r="C727" s="29"/>
+      <c r="A727" s="34"/>
+      <c r="B727" s="34"/>
+      <c r="C727" s="30"/>
     </row>
     <row r="728">
-      <c r="A728" s="33"/>
-      <c r="B728" s="33"/>
-      <c r="C728" s="29"/>
+      <c r="A728" s="34"/>
+      <c r="B728" s="34"/>
+      <c r="C728" s="30"/>
     </row>
     <row r="729">
-      <c r="A729" s="33"/>
-      <c r="B729" s="33"/>
-      <c r="C729" s="29"/>
+      <c r="A729" s="34"/>
+      <c r="B729" s="34"/>
+      <c r="C729" s="30"/>
     </row>
     <row r="730">
-      <c r="A730" s="33"/>
-      <c r="B730" s="33"/>
-      <c r="C730" s="29"/>
+      <c r="A730" s="34"/>
+      <c r="B730" s="34"/>
+      <c r="C730" s="30"/>
     </row>
     <row r="731">
-      <c r="A731" s="33"/>
-      <c r="B731" s="33"/>
-      <c r="C731" s="29"/>
+      <c r="A731" s="34"/>
+      <c r="B731" s="34"/>
+      <c r="C731" s="30"/>
     </row>
     <row r="732">
-      <c r="A732" s="33"/>
-      <c r="B732" s="33"/>
-      <c r="C732" s="29"/>
+      <c r="A732" s="34"/>
+      <c r="B732" s="34"/>
+      <c r="C732" s="30"/>
     </row>
     <row r="733">
-      <c r="A733" s="33"/>
-      <c r="B733" s="33"/>
-      <c r="C733" s="29"/>
+      <c r="A733" s="34"/>
+      <c r="B733" s="34"/>
+      <c r="C733" s="30"/>
     </row>
     <row r="734">
-      <c r="A734" s="33"/>
-      <c r="B734" s="33"/>
-      <c r="C734" s="29"/>
+      <c r="A734" s="34"/>
+      <c r="B734" s="34"/>
+      <c r="C734" s="30"/>
     </row>
     <row r="735">
-      <c r="A735" s="33"/>
-      <c r="B735" s="33"/>
-      <c r="C735" s="29"/>
+      <c r="A735" s="34"/>
+      <c r="B735" s="34"/>
+      <c r="C735" s="30"/>
     </row>
     <row r="736">
-      <c r="A736" s="33"/>
-      <c r="B736" s="33"/>
-      <c r="C736" s="29"/>
+      <c r="A736" s="34"/>
+      <c r="B736" s="34"/>
+      <c r="C736" s="30"/>
     </row>
     <row r="737">
-      <c r="A737" s="33"/>
-      <c r="B737" s="33"/>
-      <c r="C737" s="29"/>
+      <c r="A737" s="34"/>
+      <c r="B737" s="34"/>
+      <c r="C737" s="30"/>
     </row>
     <row r="738">
-      <c r="A738" s="33"/>
-      <c r="B738" s="33"/>
-      <c r="C738" s="29"/>
+      <c r="A738" s="34"/>
+      <c r="B738" s="34"/>
+      <c r="C738" s="30"/>
     </row>
     <row r="739">
-      <c r="A739" s="33"/>
-      <c r="B739" s="33"/>
-      <c r="C739" s="29"/>
+      <c r="A739" s="34"/>
+      <c r="B739" s="34"/>
+      <c r="C739" s="30"/>
     </row>
     <row r="740">
-      <c r="A740" s="33"/>
-      <c r="B740" s="33"/>
-      <c r="C740" s="29"/>
+      <c r="A740" s="34"/>
+      <c r="B740" s="34"/>
+      <c r="C740" s="30"/>
     </row>
     <row r="741">
-      <c r="A741" s="33"/>
-      <c r="B741" s="33"/>
-      <c r="C741" s="29"/>
+      <c r="A741" s="34"/>
+      <c r="B741" s="34"/>
+      <c r="C741" s="30"/>
     </row>
     <row r="742">
-      <c r="A742" s="33"/>
-      <c r="B742" s="33"/>
-      <c r="C742" s="29"/>
+      <c r="A742" s="34"/>
+      <c r="B742" s="34"/>
+      <c r="C742" s="30"/>
     </row>
     <row r="743">
-      <c r="A743" s="33"/>
-      <c r="B743" s="33"/>
-      <c r="C743" s="29"/>
+      <c r="A743" s="34"/>
+      <c r="B743" s="34"/>
+      <c r="C743" s="30"/>
     </row>
     <row r="744">
-      <c r="A744" s="33"/>
-      <c r="B744" s="33"/>
-      <c r="C744" s="29"/>
+      <c r="A744" s="34"/>
+      <c r="B744" s="34"/>
+      <c r="C744" s="30"/>
     </row>
     <row r="745">
-      <c r="A745" s="33"/>
-      <c r="B745" s="33"/>
-      <c r="C745" s="29"/>
+      <c r="A745" s="34"/>
+      <c r="B745" s="34"/>
+      <c r="C745" s="30"/>
     </row>
     <row r="746">
-      <c r="A746" s="33"/>
-      <c r="B746" s="33"/>
-      <c r="C746" s="29"/>
+      <c r="A746" s="34"/>
+      <c r="B746" s="34"/>
+      <c r="C746" s="30"/>
     </row>
     <row r="747">
-      <c r="A747" s="33"/>
-      <c r="B747" s="33"/>
-      <c r="C747" s="29"/>
+      <c r="A747" s="34"/>
+      <c r="B747" s="34"/>
+      <c r="C747" s="30"/>
     </row>
     <row r="748">
-      <c r="A748" s="33"/>
-      <c r="B748" s="33"/>
-      <c r="C748" s="29"/>
+      <c r="A748" s="34"/>
+      <c r="B748" s="34"/>
+      <c r="C748" s="30"/>
     </row>
     <row r="749">
-      <c r="A749" s="33"/>
-      <c r="B749" s="33"/>
-      <c r="C749" s="29"/>
+      <c r="A749" s="34"/>
+      <c r="B749" s="34"/>
+      <c r="C749" s="30"/>
     </row>
     <row r="750">
-      <c r="A750" s="33"/>
-      <c r="B750" s="33"/>
-      <c r="C750" s="29"/>
+      <c r="A750" s="34"/>
+      <c r="B750" s="34"/>
+      <c r="C750" s="30"/>
     </row>
     <row r="751">
-      <c r="A751" s="33"/>
-      <c r="B751" s="33"/>
-      <c r="C751" s="29"/>
+      <c r="A751" s="34"/>
+      <c r="B751" s="34"/>
+      <c r="C751" s="30"/>
     </row>
     <row r="752">
-      <c r="A752" s="33"/>
-      <c r="B752" s="33"/>
-      <c r="C752" s="29"/>
+      <c r="A752" s="34"/>
+      <c r="B752" s="34"/>
+      <c r="C752" s="30"/>
     </row>
     <row r="753">
-      <c r="A753" s="33"/>
-      <c r="B753" s="33"/>
-      <c r="C753" s="29"/>
+      <c r="A753" s="34"/>
+      <c r="B753" s="34"/>
+      <c r="C753" s="30"/>
     </row>
     <row r="754">
-      <c r="A754" s="33"/>
-      <c r="B754" s="33"/>
-      <c r="C754" s="29"/>
+      <c r="A754" s="34"/>
+      <c r="B754" s="34"/>
+      <c r="C754" s="30"/>
     </row>
     <row r="755">
-      <c r="A755" s="33"/>
-      <c r="B755" s="33"/>
-      <c r="C755" s="29"/>
+      <c r="A755" s="34"/>
+      <c r="B755" s="34"/>
+      <c r="C755" s="30"/>
     </row>
     <row r="756">
-      <c r="A756" s="33"/>
-      <c r="B756" s="33"/>
-      <c r="C756" s="29"/>
+      <c r="A756" s="34"/>
+      <c r="B756" s="34"/>
+      <c r="C756" s="30"/>
     </row>
     <row r="757">
-      <c r="A757" s="33"/>
-      <c r="B757" s="33"/>
-      <c r="C757" s="29"/>
+      <c r="A757" s="34"/>
+      <c r="B757" s="34"/>
+      <c r="C757" s="30"/>
     </row>
     <row r="758">
-      <c r="A758" s="33"/>
-      <c r="B758" s="33"/>
-      <c r="C758" s="29"/>
+      <c r="A758" s="34"/>
+      <c r="B758" s="34"/>
+      <c r="C758" s="30"/>
     </row>
     <row r="759">
-      <c r="A759" s="33"/>
-      <c r="B759" s="33"/>
-      <c r="C759" s="29"/>
+      <c r="A759" s="34"/>
+      <c r="B759" s="34"/>
+      <c r="C759" s="30"/>
     </row>
     <row r="760">
-      <c r="A760" s="33"/>
-      <c r="B760" s="33"/>
-      <c r="C760" s="29"/>
+      <c r="A760" s="34"/>
+      <c r="B760" s="34"/>
+      <c r="C760" s="30"/>
     </row>
     <row r="761">
-      <c r="A761" s="33"/>
-      <c r="B761" s="33"/>
-      <c r="C761" s="29"/>
+      <c r="A761" s="34"/>
+      <c r="B761" s="34"/>
+      <c r="C761" s="30"/>
     </row>
     <row r="762">
-      <c r="A762" s="33"/>
-      <c r="B762" s="33"/>
-      <c r="C762" s="29"/>
+      <c r="A762" s="34"/>
+      <c r="B762" s="34"/>
+      <c r="C762" s="30"/>
     </row>
     <row r="763">
-      <c r="A763" s="33"/>
-      <c r="B763" s="33"/>
-      <c r="C763" s="29"/>
+      <c r="A763" s="34"/>
+      <c r="B763" s="34"/>
+      <c r="C763" s="30"/>
     </row>
     <row r="764">
-      <c r="A764" s="33"/>
-      <c r="B764" s="33"/>
-      <c r="C764" s="29"/>
+      <c r="A764" s="34"/>
+      <c r="B764" s="34"/>
+      <c r="C764" s="30"/>
     </row>
     <row r="765">
-      <c r="A765" s="33"/>
-      <c r="B765" s="33"/>
-      <c r="C765" s="29"/>
+      <c r="A765" s="34"/>
+      <c r="B765" s="34"/>
+      <c r="C765" s="30"/>
     </row>
     <row r="766">
-      <c r="A766" s="33"/>
-      <c r="B766" s="33"/>
-      <c r="C766" s="29"/>
+      <c r="A766" s="34"/>
+      <c r="B766" s="34"/>
+      <c r="C766" s="30"/>
     </row>
     <row r="767">
-      <c r="A767" s="33"/>
-      <c r="B767" s="33"/>
-      <c r="C767" s="29"/>
+      <c r="A767" s="34"/>
+      <c r="B767" s="34"/>
+      <c r="C767" s="30"/>
     </row>
     <row r="768">
-      <c r="A768" s="33"/>
-      <c r="B768" s="33"/>
-      <c r="C768" s="29"/>
+      <c r="A768" s="34"/>
+      <c r="B768" s="34"/>
+      <c r="C768" s="30"/>
     </row>
     <row r="769">
-      <c r="A769" s="33"/>
-      <c r="B769" s="33"/>
-      <c r="C769" s="29"/>
+      <c r="A769" s="34"/>
+      <c r="B769" s="34"/>
+      <c r="C769" s="30"/>
     </row>
     <row r="770">
-      <c r="A770" s="33"/>
-      <c r="B770" s="33"/>
-      <c r="C770" s="29"/>
+      <c r="A770" s="34"/>
+      <c r="B770" s="34"/>
+      <c r="C770" s="30"/>
     </row>
     <row r="771">
-      <c r="A771" s="33"/>
-      <c r="B771" s="33"/>
-      <c r="C771" s="29"/>
+      <c r="A771" s="34"/>
+      <c r="B771" s="34"/>
+      <c r="C771" s="30"/>
     </row>
     <row r="772">
-      <c r="A772" s="33"/>
-      <c r="B772" s="33"/>
-      <c r="C772" s="29"/>
+      <c r="A772" s="34"/>
+      <c r="B772" s="34"/>
+      <c r="C772" s="30"/>
     </row>
     <row r="773">
-      <c r="A773" s="33"/>
-      <c r="B773" s="33"/>
-      <c r="C773" s="29"/>
+      <c r="A773" s="34"/>
+      <c r="B773" s="34"/>
+      <c r="C773" s="30"/>
     </row>
     <row r="774">
-      <c r="A774" s="33"/>
-      <c r="B774" s="33"/>
-      <c r="C774" s="29"/>
+      <c r="A774" s="34"/>
+      <c r="B774" s="34"/>
+      <c r="C774" s="30"/>
     </row>
     <row r="775">
-      <c r="A775" s="33"/>
-      <c r="B775" s="33"/>
-      <c r="C775" s="29"/>
+      <c r="A775" s="34"/>
+      <c r="B775" s="34"/>
+      <c r="C775" s="30"/>
     </row>
     <row r="776">
-      <c r="A776" s="33"/>
-      <c r="B776" s="33"/>
-      <c r="C776" s="29"/>
+      <c r="A776" s="34"/>
+      <c r="B776" s="34"/>
+      <c r="C776" s="30"/>
     </row>
     <row r="777">
-      <c r="A777" s="33"/>
-      <c r="B777" s="33"/>
-      <c r="C777" s="29"/>
+      <c r="A777" s="34"/>
+      <c r="B777" s="34"/>
+      <c r="C777" s="30"/>
     </row>
     <row r="778">
-      <c r="A778" s="33"/>
-      <c r="B778" s="33"/>
-      <c r="C778" s="29"/>
+      <c r="A778" s="34"/>
+      <c r="B778" s="34"/>
+      <c r="C778" s="30"/>
     </row>
     <row r="779">
-      <c r="A779" s="33"/>
-      <c r="B779" s="33"/>
-      <c r="C779" s="29"/>
+      <c r="A779" s="34"/>
+      <c r="B779" s="34"/>
+      <c r="C779" s="30"/>
     </row>
     <row r="780">
-      <c r="A780" s="33"/>
-      <c r="B780" s="33"/>
-      <c r="C780" s="29"/>
+      <c r="A780" s="34"/>
+      <c r="B780" s="34"/>
+      <c r="C780" s="30"/>
     </row>
     <row r="781">
-      <c r="A781" s="33"/>
-      <c r="B781" s="33"/>
-      <c r="C781" s="29"/>
+      <c r="A781" s="34"/>
+      <c r="B781" s="34"/>
+      <c r="C781" s="30"/>
     </row>
     <row r="782">
-      <c r="A782" s="33"/>
-      <c r="B782" s="33"/>
-      <c r="C782" s="29"/>
+      <c r="A782" s="34"/>
+      <c r="B782" s="34"/>
+      <c r="C782" s="30"/>
     </row>
     <row r="783">
-      <c r="A783" s="33"/>
-      <c r="B783" s="33"/>
-      <c r="C783" s="29"/>
+      <c r="A783" s="34"/>
+      <c r="B783" s="34"/>
+      <c r="C783" s="30"/>
     </row>
     <row r="784">
-      <c r="A784" s="33"/>
-      <c r="B784" s="33"/>
-      <c r="C784" s="29"/>
+      <c r="A784" s="34"/>
+      <c r="B784" s="34"/>
+      <c r="C784" s="30"/>
     </row>
     <row r="785">
-      <c r="A785" s="33"/>
-      <c r="B785" s="33"/>
-      <c r="C785" s="29"/>
+      <c r="A785" s="34"/>
+      <c r="B785" s="34"/>
+      <c r="C785" s="30"/>
     </row>
     <row r="786">
-      <c r="A786" s="33"/>
-      <c r="B786" s="33"/>
-      <c r="C786" s="29"/>
+      <c r="A786" s="34"/>
+      <c r="B786" s="34"/>
+      <c r="C786" s="30"/>
     </row>
     <row r="787">
-      <c r="A787" s="33"/>
-      <c r="B787" s="33"/>
-      <c r="C787" s="29"/>
+      <c r="A787" s="34"/>
+      <c r="B787" s="34"/>
+      <c r="C787" s="30"/>
     </row>
     <row r="788">
-      <c r="A788" s="33"/>
-      <c r="B788" s="33"/>
-      <c r="C788" s="29"/>
+      <c r="A788" s="34"/>
+      <c r="B788" s="34"/>
+      <c r="C788" s="30"/>
     </row>
     <row r="789">
-      <c r="A789" s="33"/>
-      <c r="B789" s="33"/>
-      <c r="C789" s="29"/>
+      <c r="A789" s="34"/>
+      <c r="B789" s="34"/>
+      <c r="C789" s="30"/>
     </row>
     <row r="790">
-      <c r="A790" s="33"/>
-      <c r="B790" s="33"/>
-      <c r="C790" s="29"/>
+      <c r="A790" s="34"/>
+      <c r="B790" s="34"/>
+      <c r="C790" s="30"/>
     </row>
     <row r="791">
-      <c r="A791" s="33"/>
-      <c r="B791" s="33"/>
-      <c r="C791" s="29"/>
+      <c r="A791" s="34"/>
+      <c r="B791" s="34"/>
+      <c r="C791" s="30"/>
     </row>
     <row r="792">
-      <c r="A792" s="33"/>
-      <c r="B792" s="33"/>
-      <c r="C792" s="29"/>
+      <c r="A792" s="34"/>
+      <c r="B792" s="34"/>
+      <c r="C792" s="30"/>
     </row>
     <row r="793">
-      <c r="A793" s="33"/>
-      <c r="B793" s="33"/>
-      <c r="C793" s="29"/>
+      <c r="A793" s="34"/>
+      <c r="B793" s="34"/>
+      <c r="C793" s="30"/>
     </row>
     <row r="794">
-      <c r="A794" s="33"/>
-      <c r="B794" s="33"/>
-      <c r="C794" s="29"/>
+      <c r="A794" s="34"/>
+      <c r="B794" s="34"/>
+      <c r="C794" s="30"/>
     </row>
     <row r="795">
-      <c r="A795" s="33"/>
-      <c r="B795" s="33"/>
-      <c r="C795" s="29"/>
+      <c r="A795" s="34"/>
+      <c r="B795" s="34"/>
+      <c r="C795" s="30"/>
     </row>
     <row r="796">
-      <c r="A796" s="33"/>
-      <c r="B796" s="33"/>
-      <c r="C796" s="29"/>
+      <c r="A796" s="34"/>
+      <c r="B796" s="34"/>
+      <c r="C796" s="30"/>
     </row>
     <row r="797">
-      <c r="A797" s="33"/>
-      <c r="B797" s="33"/>
-      <c r="C797" s="29"/>
+      <c r="A797" s="34"/>
+      <c r="B797" s="34"/>
+      <c r="C797" s="30"/>
     </row>
     <row r="798">
-      <c r="A798" s="33"/>
-      <c r="B798" s="33"/>
-      <c r="C798" s="29"/>
+      <c r="A798" s="34"/>
+      <c r="B798" s="34"/>
+      <c r="C798" s="30"/>
     </row>
     <row r="799">
-      <c r="A799" s="33"/>
-      <c r="B799" s="33"/>
-      <c r="C799" s="29"/>
+      <c r="A799" s="34"/>
+      <c r="B799" s="34"/>
+      <c r="C799" s="30"/>
     </row>
     <row r="800">
-      <c r="A800" s="33"/>
-      <c r="B800" s="33"/>
-      <c r="C800" s="29"/>
+      <c r="A800" s="34"/>
+      <c r="B800" s="34"/>
+      <c r="C800" s="30"/>
     </row>
     <row r="801">
-      <c r="A801" s="33"/>
-      <c r="B801" s="33"/>
-      <c r="C801" s="29"/>
+      <c r="A801" s="34"/>
+      <c r="B801" s="34"/>
+      <c r="C801" s="30"/>
     </row>
     <row r="802">
-      <c r="A802" s="33"/>
-      <c r="B802" s="33"/>
-      <c r="C802" s="29"/>
+      <c r="A802" s="34"/>
+      <c r="B802" s="34"/>
+      <c r="C802" s="30"/>
     </row>
     <row r="803">
-      <c r="A803" s="33"/>
-      <c r="B803" s="33"/>
-      <c r="C803" s="29"/>
+      <c r="A803" s="34"/>
+      <c r="B803" s="34"/>
+      <c r="C803" s="30"/>
     </row>
     <row r="804">
-      <c r="A804" s="33"/>
-      <c r="B804" s="33"/>
-      <c r="C804" s="29"/>
+      <c r="A804" s="34"/>
+      <c r="B804" s="34"/>
+      <c r="C804" s="30"/>
     </row>
     <row r="805">
-      <c r="A805" s="33"/>
-      <c r="B805" s="33"/>
-      <c r="C805" s="29"/>
+      <c r="A805" s="34"/>
+      <c r="B805" s="34"/>
+      <c r="C805" s="30"/>
     </row>
     <row r="806">
-      <c r="A806" s="33"/>
-      <c r="B806" s="33"/>
-      <c r="C806" s="29"/>
+      <c r="A806" s="34"/>
+      <c r="B806" s="34"/>
+      <c r="C806" s="30"/>
     </row>
     <row r="807">
-      <c r="A807" s="33"/>
-      <c r="B807" s="33"/>
-      <c r="C807" s="29"/>
+      <c r="A807" s="34"/>
+      <c r="B807" s="34"/>
+      <c r="C807" s="30"/>
     </row>
     <row r="808">
-      <c r="A808" s="33"/>
-      <c r="B808" s="33"/>
-      <c r="C808" s="29"/>
+      <c r="A808" s="34"/>
+      <c r="B808" s="34"/>
+      <c r="C808" s="30"/>
     </row>
     <row r="809">
-      <c r="A809" s="33"/>
-      <c r="B809" s="33"/>
-      <c r="C809" s="29"/>
+      <c r="A809" s="34"/>
+      <c r="B809" s="34"/>
+      <c r="C809" s="30"/>
     </row>
     <row r="810">
-      <c r="A810" s="33"/>
-      <c r="B810" s="33"/>
-      <c r="C810" s="29"/>
+      <c r="A810" s="34"/>
+      <c r="B810" s="34"/>
+      <c r="C810" s="30"/>
     </row>
     <row r="811">
-      <c r="A811" s="33"/>
-      <c r="B811" s="33"/>
-      <c r="C811" s="29"/>
+      <c r="A811" s="34"/>
+      <c r="B811" s="34"/>
+      <c r="C811" s="30"/>
     </row>
     <row r="812">
-      <c r="A812" s="33"/>
-      <c r="B812" s="33"/>
-      <c r="C812" s="29"/>
+      <c r="A812" s="34"/>
+      <c r="B812" s="34"/>
+      <c r="C812" s="30"/>
     </row>
     <row r="813">
-      <c r="A813" s="33"/>
-      <c r="B813" s="33"/>
-      <c r="C813" s="29"/>
+      <c r="A813" s="34"/>
+      <c r="B813" s="34"/>
+      <c r="C813" s="30"/>
     </row>
     <row r="814">
-      <c r="A814" s="33"/>
-      <c r="B814" s="33"/>
-      <c r="C814" s="29"/>
+      <c r="A814" s="34"/>
+      <c r="B814" s="34"/>
+      <c r="C814" s="30"/>
     </row>
     <row r="815">
-      <c r="A815" s="33"/>
-      <c r="B815" s="33"/>
-      <c r="C815" s="29"/>
+      <c r="A815" s="34"/>
+      <c r="B815" s="34"/>
+      <c r="C815" s="30"/>
     </row>
     <row r="816">
-      <c r="A816" s="33"/>
-      <c r="B816" s="33"/>
-      <c r="C816" s="29"/>
+      <c r="A816" s="34"/>
+      <c r="B816" s="34"/>
+      <c r="C816" s="30"/>
     </row>
     <row r="817">
-      <c r="A817" s="33"/>
-      <c r="B817" s="33"/>
-      <c r="C817" s="29"/>
+      <c r="A817" s="34"/>
+      <c r="B817" s="34"/>
+      <c r="C817" s="30"/>
     </row>
     <row r="818">
-      <c r="A818" s="33"/>
-      <c r="B818" s="33"/>
-      <c r="C818" s="29"/>
+      <c r="A818" s="34"/>
+      <c r="B818" s="34"/>
+      <c r="C818" s="30"/>
     </row>
     <row r="819">
-      <c r="A819" s="33"/>
-      <c r="B819" s="33"/>
-      <c r="C819" s="29"/>
+      <c r="A819" s="34"/>
+      <c r="B819" s="34"/>
+      <c r="C819" s="30"/>
     </row>
     <row r="820">
-      <c r="A820" s="33"/>
-      <c r="B820" s="33"/>
-      <c r="C820" s="29"/>
+      <c r="A820" s="34"/>
+      <c r="B820" s="34"/>
+      <c r="C820" s="30"/>
     </row>
     <row r="821">
-      <c r="A821" s="33"/>
-      <c r="B821" s="33"/>
-      <c r="C821" s="29"/>
+      <c r="A821" s="34"/>
+      <c r="B821" s="34"/>
+      <c r="C821" s="30"/>
     </row>
     <row r="822">
-      <c r="A822" s="33"/>
-      <c r="B822" s="33"/>
-      <c r="C822" s="29"/>
+      <c r="A822" s="34"/>
+      <c r="B822" s="34"/>
+      <c r="C822" s="30"/>
     </row>
     <row r="823">
-      <c r="A823" s="33"/>
-      <c r="B823" s="33"/>
-      <c r="C823" s="29"/>
+      <c r="A823" s="34"/>
+      <c r="B823" s="34"/>
+      <c r="C823" s="30"/>
     </row>
     <row r="824">
-      <c r="A824" s="33"/>
-      <c r="B824" s="33"/>
-      <c r="C824" s="29"/>
+      <c r="A824" s="34"/>
+      <c r="B824" s="34"/>
+      <c r="C824" s="30"/>
     </row>
     <row r="825">
-      <c r="A825" s="33"/>
-      <c r="B825" s="33"/>
-      <c r="C825" s="29"/>
+      <c r="A825" s="34"/>
+      <c r="B825" s="34"/>
+      <c r="C825" s="30"/>
     </row>
     <row r="826">
-      <c r="A826" s="33"/>
-      <c r="B826" s="33"/>
-      <c r="C826" s="29"/>
+      <c r="A826" s="34"/>
+      <c r="B826" s="34"/>
+      <c r="C826" s="30"/>
     </row>
     <row r="827">
-      <c r="A827" s="33"/>
-      <c r="B827" s="33"/>
-      <c r="C827" s="29"/>
+      <c r="A827" s="34"/>
+      <c r="B827" s="34"/>
+      <c r="C827" s="30"/>
     </row>
     <row r="828">
-      <c r="A828" s="33"/>
-      <c r="B828" s="33"/>
-      <c r="C828" s="29"/>
+      <c r="A828" s="34"/>
+      <c r="B828" s="34"/>
+      <c r="C828" s="30"/>
     </row>
     <row r="829">
-      <c r="A829" s="33"/>
-      <c r="B829" s="33"/>
-      <c r="C829" s="29"/>
+      <c r="A829" s="34"/>
+      <c r="B829" s="34"/>
+      <c r="C829" s="30"/>
     </row>
     <row r="830">
-      <c r="A830" s="33"/>
-      <c r="B830" s="33"/>
-      <c r="C830" s="29"/>
+      <c r="A830" s="34"/>
+      <c r="B830" s="34"/>
+      <c r="C830" s="30"/>
     </row>
     <row r="831">
-      <c r="A831" s="33"/>
-      <c r="B831" s="33"/>
-      <c r="C831" s="29"/>
+      <c r="A831" s="34"/>
+      <c r="B831" s="34"/>
+      <c r="C831" s="30"/>
     </row>
     <row r="832">
-      <c r="A832" s="33"/>
-      <c r="B832" s="33"/>
-      <c r="C832" s="29"/>
+      <c r="A832" s="34"/>
+      <c r="B832" s="34"/>
+      <c r="C832" s="30"/>
     </row>
     <row r="833">
-      <c r="A833" s="33"/>
-      <c r="B833" s="33"/>
-      <c r="C833" s="29"/>
+      <c r="A833" s="34"/>
+      <c r="B833" s="34"/>
+      <c r="C833" s="30"/>
     </row>
     <row r="834">
-      <c r="A834" s="33"/>
-      <c r="B834" s="33"/>
-      <c r="C834" s="29"/>
+      <c r="A834" s="34"/>
+      <c r="B834" s="34"/>
+      <c r="C834" s="30"/>
     </row>
     <row r="835">
-      <c r="A835" s="33"/>
-      <c r="B835" s="33"/>
-      <c r="C835" s="29"/>
+      <c r="A835" s="34"/>
+      <c r="B835" s="34"/>
+      <c r="C835" s="30"/>
     </row>
     <row r="836">
-      <c r="A836" s="33"/>
-      <c r="B836" s="33"/>
-      <c r="C836" s="29"/>
+      <c r="A836" s="34"/>
+      <c r="B836" s="34"/>
+      <c r="C836" s="30"/>
     </row>
     <row r="837">
-      <c r="A837" s="33"/>
-      <c r="B837" s="33"/>
-      <c r="C837" s="29"/>
+      <c r="A837" s="34"/>
+      <c r="B837" s="34"/>
+      <c r="C837" s="30"/>
     </row>
     <row r="838">
-      <c r="A838" s="33"/>
-      <c r="B838" s="33"/>
-      <c r="C838" s="29"/>
+      <c r="A838" s="34"/>
+      <c r="B838" s="34"/>
+      <c r="C838" s="30"/>
     </row>
     <row r="839">
-      <c r="A839" s="33"/>
-      <c r="B839" s="33"/>
-      <c r="C839" s="29"/>
+      <c r="A839" s="34"/>
+      <c r="B839" s="34"/>
+      <c r="C839" s="30"/>
     </row>
     <row r="840">
-      <c r="A840" s="33"/>
-      <c r="B840" s="33"/>
-      <c r="C840" s="29"/>
+      <c r="A840" s="34"/>
+      <c r="B840" s="34"/>
+      <c r="C840" s="30"/>
     </row>
     <row r="841">
-      <c r="A841" s="33"/>
-      <c r="B841" s="33"/>
-      <c r="C841" s="29"/>
+      <c r="A841" s="34"/>
+      <c r="B841" s="34"/>
+      <c r="C841" s="30"/>
     </row>
     <row r="842">
-      <c r="A842" s="33"/>
-      <c r="B842" s="33"/>
-      <c r="C842" s="29"/>
+      <c r="A842" s="34"/>
+      <c r="B842" s="34"/>
+      <c r="C842" s="30"/>
     </row>
     <row r="843">
-      <c r="A843" s="33"/>
-      <c r="B843" s="33"/>
-      <c r="C843" s="29"/>
+      <c r="A843" s="34"/>
+      <c r="B843" s="34"/>
+      <c r="C843" s="30"/>
     </row>
     <row r="844">
-      <c r="A844" s="33"/>
-      <c r="B844" s="33"/>
-      <c r="C844" s="29"/>
+      <c r="A844" s="34"/>
+      <c r="B844" s="34"/>
+      <c r="C844" s="30"/>
     </row>
     <row r="845">
-      <c r="A845" s="33"/>
-      <c r="B845" s="33"/>
-      <c r="C845" s="29"/>
+      <c r="A845" s="34"/>
+      <c r="B845" s="34"/>
+      <c r="C845" s="30"/>
     </row>
     <row r="846">
-      <c r="A846" s="33"/>
-      <c r="B846" s="33"/>
-      <c r="C846" s="29"/>
+      <c r="A846" s="34"/>
+      <c r="B846" s="34"/>
+      <c r="C846" s="30"/>
     </row>
     <row r="847">
-      <c r="A847" s="33"/>
-      <c r="B847" s="33"/>
-      <c r="C847" s="29"/>
+      <c r="A847" s="34"/>
+      <c r="B847" s="34"/>
+      <c r="C847" s="30"/>
     </row>
     <row r="848">
-      <c r="A848" s="33"/>
-      <c r="B848" s="33"/>
-      <c r="C848" s="29"/>
+      <c r="A848" s="34"/>
+      <c r="B848" s="34"/>
+      <c r="C848" s="30"/>
     </row>
     <row r="849">
-      <c r="A849" s="33"/>
-      <c r="B849" s="33"/>
-      <c r="C849" s="29"/>
+      <c r="A849" s="34"/>
+      <c r="B849" s="34"/>
+      <c r="C849" s="30"/>
     </row>
     <row r="850">
-      <c r="A850" s="33"/>
-      <c r="B850" s="33"/>
-      <c r="C850" s="29"/>
+      <c r="A850" s="34"/>
+      <c r="B850" s="34"/>
+      <c r="C850" s="30"/>
     </row>
     <row r="851">
-      <c r="A851" s="33"/>
-      <c r="B851" s="33"/>
-      <c r="C851" s="29"/>
+      <c r="A851" s="34"/>
+      <c r="B851" s="34"/>
+      <c r="C851" s="30"/>
     </row>
     <row r="852">
-      <c r="A852" s="33"/>
-      <c r="B852" s="33"/>
-      <c r="C852" s="29"/>
+      <c r="A852" s="34"/>
+      <c r="B852" s="34"/>
+      <c r="C852" s="30"/>
     </row>
     <row r="853">
-      <c r="A853" s="33"/>
-      <c r="B853" s="33"/>
-      <c r="C853" s="29"/>
+      <c r="A853" s="34"/>
+      <c r="B853" s="34"/>
+      <c r="C853" s="30"/>
     </row>
     <row r="854">
-      <c r="A854" s="33"/>
-      <c r="B854" s="33"/>
-      <c r="C854" s="29"/>
+      <c r="A854" s="34"/>
+      <c r="B854" s="34"/>
+      <c r="C854" s="30"/>
     </row>
     <row r="855">
-      <c r="A855" s="33"/>
-      <c r="B855" s="33"/>
-      <c r="C855" s="29"/>
+      <c r="A855" s="34"/>
+      <c r="B855" s="34"/>
+      <c r="C855" s="30"/>
     </row>
     <row r="856">
-      <c r="A856" s="33"/>
-      <c r="B856" s="33"/>
-      <c r="C856" s="29"/>
+      <c r="A856" s="34"/>
+      <c r="B856" s="34"/>
+      <c r="C856" s="30"/>
     </row>
     <row r="857">
-      <c r="A857" s="33"/>
-      <c r="B857" s="33"/>
-      <c r="C857" s="29"/>
+      <c r="A857" s="34"/>
+      <c r="B857" s="34"/>
+      <c r="C857" s="30"/>
     </row>
     <row r="858">
-      <c r="A858" s="33"/>
-      <c r="B858" s="33"/>
-      <c r="C858" s="29"/>
+      <c r="A858" s="34"/>
+      <c r="B858" s="34"/>
+      <c r="C858" s="30"/>
     </row>
     <row r="859">
-      <c r="A859" s="33"/>
-      <c r="B859" s="33"/>
-      <c r="C859" s="29"/>
+      <c r="A859" s="34"/>
+      <c r="B859" s="34"/>
+      <c r="C859" s="30"/>
     </row>
     <row r="860">
-      <c r="A860" s="33"/>
-      <c r="B860" s="33"/>
-      <c r="C860" s="29"/>
+      <c r="A860" s="34"/>
+      <c r="B860" s="34"/>
+      <c r="C860" s="30"/>
     </row>
     <row r="861">
-      <c r="A861" s="33"/>
-      <c r="B861" s="33"/>
-      <c r="C861" s="29"/>
+      <c r="A861" s="34"/>
+      <c r="B861" s="34"/>
+      <c r="C861" s="30"/>
     </row>
     <row r="862">
-      <c r="A862" s="33"/>
-      <c r="B862" s="33"/>
-      <c r="C862" s="29"/>
+      <c r="A862" s="34"/>
+      <c r="B862" s="34"/>
+      <c r="C862" s="30"/>
     </row>
     <row r="863">
-      <c r="A863" s="33"/>
-      <c r="B863" s="33"/>
-      <c r="C863" s="29"/>
+      <c r="A863" s="34"/>
+      <c r="B863" s="34"/>
+      <c r="C863" s="30"/>
     </row>
     <row r="864">
-      <c r="A864" s="33"/>
-      <c r="B864" s="33"/>
-      <c r="C864" s="29"/>
+      <c r="A864" s="34"/>
+      <c r="B864" s="34"/>
+      <c r="C864" s="30"/>
     </row>
     <row r="865">
-      <c r="A865" s="33"/>
-      <c r="B865" s="33"/>
-      <c r="C865" s="29"/>
+      <c r="A865" s="34"/>
+      <c r="B865" s="34"/>
+      <c r="C865" s="30"/>
     </row>
     <row r="866">
-      <c r="A866" s="33"/>
-      <c r="B866" s="33"/>
-      <c r="C866" s="29"/>
+      <c r="A866" s="34"/>
+      <c r="B866" s="34"/>
+      <c r="C866" s="30"/>
     </row>
     <row r="867">
-      <c r="A867" s="33"/>
-      <c r="B867" s="33"/>
-      <c r="C867" s="29"/>
+      <c r="A867" s="34"/>
+      <c r="B867" s="34"/>
+      <c r="C867" s="30"/>
     </row>
     <row r="868">
-      <c r="A868" s="33"/>
-      <c r="B868" s="33"/>
-      <c r="C868" s="29"/>
+      <c r="A868" s="34"/>
+      <c r="B868" s="34"/>
+      <c r="C868" s="30"/>
     </row>
     <row r="869">
-      <c r="A869" s="33"/>
-      <c r="B869" s="33"/>
-      <c r="C869" s="29"/>
+      <c r="A869" s="34"/>
+      <c r="B869" s="34"/>
+      <c r="C869" s="30"/>
     </row>
     <row r="870">
-      <c r="A870" s="33"/>
-      <c r="B870" s="33"/>
-      <c r="C870" s="29"/>
+      <c r="A870" s="34"/>
+      <c r="B870" s="34"/>
+      <c r="C870" s="30"/>
     </row>
     <row r="871">
-      <c r="A871" s="33"/>
-      <c r="B871" s="33"/>
-      <c r="C871" s="29"/>
+      <c r="A871" s="34"/>
+      <c r="B871" s="34"/>
+      <c r="C871" s="30"/>
     </row>
     <row r="872">
-      <c r="A872" s="33"/>
-      <c r="B872" s="33"/>
-      <c r="C872" s="29"/>
+      <c r="A872" s="34"/>
+      <c r="B872" s="34"/>
+      <c r="C872" s="30"/>
     </row>
     <row r="873">
-      <c r="A873" s="33"/>
-      <c r="B873" s="33"/>
-      <c r="C873" s="29"/>
+      <c r="A873" s="34"/>
+      <c r="B873" s="34"/>
+      <c r="C873" s="30"/>
     </row>
     <row r="874">
-      <c r="A874" s="33"/>
-      <c r="B874" s="33"/>
-      <c r="C874" s="29"/>
+      <c r="A874" s="34"/>
+      <c r="B874" s="34"/>
+      <c r="C874" s="30"/>
     </row>
     <row r="875">
-      <c r="A875" s="33"/>
-      <c r="B875" s="33"/>
-      <c r="C875" s="29"/>
+      <c r="A875" s="34"/>
+      <c r="B875" s="34"/>
+      <c r="C875" s="30"/>
     </row>
     <row r="876">
-      <c r="A876" s="33"/>
-      <c r="B876" s="33"/>
-      <c r="C876" s="29"/>
+      <c r="A876" s="34"/>
+      <c r="B876" s="34"/>
+      <c r="C876" s="30"/>
     </row>
     <row r="877">
-      <c r="A877" s="33"/>
-      <c r="B877" s="33"/>
-      <c r="C877" s="29"/>
+      <c r="A877" s="34"/>
+      <c r="B877" s="34"/>
+      <c r="C877" s="30"/>
     </row>
     <row r="878">
-      <c r="A878" s="33"/>
-      <c r="B878" s="33"/>
-      <c r="C878" s="29"/>
+      <c r="A878" s="34"/>
+      <c r="B878" s="34"/>
+      <c r="C878" s="30"/>
     </row>
     <row r="879">
-      <c r="A879" s="33"/>
-      <c r="B879" s="33"/>
-      <c r="C879" s="29"/>
+      <c r="A879" s="34"/>
+      <c r="B879" s="34"/>
+      <c r="C879" s="30"/>
     </row>
     <row r="880">
-      <c r="A880" s="33"/>
-      <c r="B880" s="33"/>
-      <c r="C880" s="29"/>
+      <c r="A880" s="34"/>
+      <c r="B880" s="34"/>
+      <c r="C880" s="30"/>
     </row>
     <row r="881">
-      <c r="A881" s="33"/>
-      <c r="B881" s="33"/>
-      <c r="C881" s="29"/>
+      <c r="A881" s="34"/>
+      <c r="B881" s="34"/>
+      <c r="C881" s="30"/>
     </row>
     <row r="882">
-      <c r="A882" s="33"/>
-      <c r="B882" s="33"/>
-      <c r="C882" s="29"/>
+      <c r="A882" s="34"/>
+      <c r="B882" s="34"/>
+      <c r="C882" s="30"/>
     </row>
     <row r="883">
-      <c r="A883" s="33"/>
-      <c r="B883" s="33"/>
-      <c r="C883" s="29"/>
+      <c r="A883" s="34"/>
+      <c r="B883" s="34"/>
+      <c r="C883" s="30"/>
     </row>
     <row r="884">
-      <c r="A884" s="33"/>
-      <c r="B884" s="33"/>
-      <c r="C884" s="29"/>
+      <c r="A884" s="34"/>
+      <c r="B884" s="34"/>
+      <c r="C884" s="30"/>
     </row>
     <row r="885">
-      <c r="A885" s="33"/>
-      <c r="B885" s="33"/>
-      <c r="C885" s="29"/>
+      <c r="A885" s="34"/>
+      <c r="B885" s="34"/>
+      <c r="C885" s="30"/>
     </row>
     <row r="886">
-      <c r="A886" s="33"/>
-      <c r="B886" s="33"/>
-      <c r="C886" s="29"/>
+      <c r="A886" s="34"/>
+      <c r="B886" s="34"/>
+      <c r="C886" s="30"/>
     </row>
     <row r="887">
-      <c r="A887" s="33"/>
-      <c r="B887" s="33"/>
-      <c r="C887" s="29"/>
+      <c r="A887" s="34"/>
+      <c r="B887" s="34"/>
+      <c r="C887" s="30"/>
     </row>
     <row r="888">
-      <c r="A888" s="33"/>
-      <c r="B888" s="33"/>
-      <c r="C888" s="29"/>
+      <c r="A888" s="34"/>
+      <c r="B888" s="34"/>
+      <c r="C888" s="30"/>
     </row>
     <row r="889">
-      <c r="A889" s="33"/>
-      <c r="B889" s="33"/>
-      <c r="C889" s="29"/>
+      <c r="A889" s="34"/>
+      <c r="B889" s="34"/>
+      <c r="C889" s="30"/>
     </row>
     <row r="890">
-      <c r="A890" s="33"/>
-      <c r="B890" s="33"/>
-      <c r="C890" s="29"/>
+      <c r="A890" s="34"/>
+      <c r="B890" s="34"/>
+      <c r="C890" s="30"/>
     </row>
     <row r="891">
-      <c r="A891" s="33"/>
-      <c r="B891" s="33"/>
-      <c r="C891" s="29"/>
+      <c r="A891" s="34"/>
+      <c r="B891" s="34"/>
+      <c r="C891" s="30"/>
     </row>
     <row r="892">
-      <c r="A892" s="33"/>
-      <c r="B892" s="33"/>
-      <c r="C892" s="29"/>
+      <c r="A892" s="34"/>
+      <c r="B892" s="34"/>
+      <c r="C892" s="30"/>
     </row>
     <row r="893">
-      <c r="A893" s="33"/>
-      <c r="B893" s="33"/>
-      <c r="C893" s="29"/>
+      <c r="A893" s="34"/>
+      <c r="B893" s="34"/>
+      <c r="C893" s="30"/>
     </row>
     <row r="894">
-      <c r="A894" s="33"/>
-      <c r="B894" s="33"/>
-      <c r="C894" s="29"/>
+      <c r="A894" s="34"/>
+      <c r="B894" s="34"/>
+      <c r="C894" s="30"/>
     </row>
     <row r="895">
-      <c r="A895" s="33"/>
-      <c r="B895" s="33"/>
-      <c r="C895" s="29"/>
+      <c r="A895" s="34"/>
+      <c r="B895" s="34"/>
+      <c r="C895" s="30"/>
     </row>
     <row r="896">
-      <c r="A896" s="33"/>
-      <c r="B896" s="33"/>
-      <c r="C896" s="29"/>
+      <c r="A896" s="34"/>
+      <c r="B896" s="34"/>
+      <c r="C896" s="30"/>
     </row>
     <row r="897">
-      <c r="A897" s="33"/>
-      <c r="B897" s="33"/>
-      <c r="C897" s="29"/>
+      <c r="A897" s="34"/>
+      <c r="B897" s="34"/>
+      <c r="C897" s="30"/>
     </row>
     <row r="898">
-      <c r="A898" s="33"/>
-      <c r="B898" s="33"/>
-      <c r="C898" s="29"/>
+      <c r="A898" s="34"/>
+      <c r="B898" s="34"/>
+      <c r="C898" s="30"/>
     </row>
     <row r="899">
-      <c r="A899" s="33"/>
-      <c r="B899" s="33"/>
-      <c r="C899" s="29"/>
+      <c r="A899" s="34"/>
+      <c r="B899" s="34"/>
+      <c r="C899" s="30"/>
     </row>
     <row r="900">
-      <c r="A900" s="33"/>
-      <c r="B900" s="33"/>
-      <c r="C900" s="29"/>
+      <c r="A900" s="34"/>
+      <c r="B900" s="34"/>
+      <c r="C900" s="30"/>
     </row>
     <row r="901">
-      <c r="A901" s="33"/>
-      <c r="B901" s="33"/>
-      <c r="C901" s="29"/>
+      <c r="A901" s="34"/>
+      <c r="B901" s="34"/>
+      <c r="C901" s="30"/>
     </row>
     <row r="902">
-      <c r="A902" s="33"/>
-      <c r="B902" s="33"/>
-      <c r="C902" s="29"/>
+      <c r="A902" s="34"/>
+      <c r="B902" s="34"/>
+      <c r="C902" s="30"/>
     </row>
     <row r="903">
-      <c r="A903" s="33"/>
-      <c r="B903" s="33"/>
-      <c r="C903" s="29"/>
+      <c r="A903" s="34"/>
+      <c r="B903" s="34"/>
+      <c r="C903" s="30"/>
     </row>
     <row r="904">
-      <c r="A904" s="33"/>
-      <c r="B904" s="33"/>
-      <c r="C904" s="29"/>
+      <c r="A904" s="34"/>
+      <c r="B904" s="34"/>
+      <c r="C904" s="30"/>
     </row>
     <row r="905">
-      <c r="A905" s="33"/>
-      <c r="B905" s="33"/>
-      <c r="C905" s="29"/>
+      <c r="A905" s="34"/>
+      <c r="B905" s="34"/>
+      <c r="C905" s="30"/>
     </row>
     <row r="906">
-      <c r="A906" s="33"/>
-      <c r="B906" s="33"/>
-      <c r="C906" s="29"/>
+      <c r="A906" s="34"/>
+      <c r="B906" s="34"/>
+      <c r="C906" s="30"/>
     </row>
     <row r="907">
-      <c r="A907" s="33"/>
-      <c r="B907" s="33"/>
-      <c r="C907" s="29"/>
+      <c r="A907" s="34"/>
+      <c r="B907" s="34"/>
+      <c r="C907" s="30"/>
     </row>
     <row r="908">
-      <c r="A908" s="33"/>
-      <c r="B908" s="33"/>
-      <c r="C908" s="29"/>
+      <c r="A908" s="34"/>
+      <c r="B908" s="34"/>
+      <c r="C908" s="30"/>
     </row>
     <row r="909">
-      <c r="A909" s="33"/>
-      <c r="B909" s="33"/>
-      <c r="C909" s="29"/>
+      <c r="A909" s="34"/>
+      <c r="B909" s="34"/>
+      <c r="C909" s="30"/>
     </row>
     <row r="910">
-      <c r="A910" s="33"/>
-      <c r="B910" s="33"/>
-      <c r="C910" s="29"/>
+      <c r="A910" s="34"/>
+      <c r="B910" s="34"/>
+      <c r="C910" s="30"/>
     </row>
     <row r="911">
-      <c r="A911" s="33"/>
-      <c r="B911" s="33"/>
-      <c r="C911" s="29"/>
+      <c r="A911" s="34"/>
+      <c r="B911" s="34"/>
+      <c r="C911" s="30"/>
     </row>
     <row r="912">
-      <c r="A912" s="33"/>
-      <c r="B912" s="33"/>
-      <c r="C912" s="29"/>
+      <c r="A912" s="34"/>
+      <c r="B912" s="34"/>
+      <c r="C912" s="30"/>
     </row>
     <row r="913">
-      <c r="A913" s="33"/>
-      <c r="B913" s="33"/>
-      <c r="C913" s="29"/>
+      <c r="A913" s="34"/>
+      <c r="B913" s="34"/>
+      <c r="C913" s="30"/>
     </row>
     <row r="914">
-      <c r="A914" s="33"/>
-      <c r="B914" s="33"/>
-      <c r="C914" s="29"/>
+      <c r="A914" s="34"/>
+      <c r="B914" s="34"/>
+      <c r="C914" s="30"/>
     </row>
     <row r="915">
-      <c r="A915" s="33"/>
-      <c r="B915" s="33"/>
-      <c r="C915" s="29"/>
+      <c r="A915" s="34"/>
+      <c r="B915" s="34"/>
+      <c r="C915" s="30"/>
     </row>
     <row r="916">
-      <c r="A916" s="33"/>
-      <c r="B916" s="33"/>
-      <c r="C916" s="29"/>
+      <c r="A916" s="34"/>
+      <c r="B916" s="34"/>
+      <c r="C916" s="30"/>
     </row>
     <row r="917">
-      <c r="A917" s="33"/>
-      <c r="B917" s="33"/>
-      <c r="C917" s="29"/>
+      <c r="A917" s="34"/>
+      <c r="B917" s="34"/>
+      <c r="C917" s="30"/>
     </row>
     <row r="918">
-      <c r="A918" s="33"/>
-      <c r="B918" s="33"/>
-      <c r="C918" s="29"/>
+      <c r="A918" s="34"/>
+      <c r="B918" s="34"/>
+      <c r="C918" s="30"/>
     </row>
     <row r="919">
-      <c r="A919" s="33"/>
-      <c r="B919" s="33"/>
-      <c r="C919" s="29"/>
+      <c r="A919" s="34"/>
+      <c r="B919" s="34"/>
+      <c r="C919" s="30"/>
     </row>
     <row r="920">
-      <c r="A920" s="33"/>
-      <c r="B920" s="33"/>
-      <c r="C920" s="29"/>
+      <c r="A920" s="34"/>
+      <c r="B920" s="34"/>
+      <c r="C920" s="30"/>
     </row>
     <row r="921">
-      <c r="A921" s="33"/>
-      <c r="B921" s="33"/>
-      <c r="C921" s="29"/>
+      <c r="A921" s="34"/>
+      <c r="B921" s="34"/>
+      <c r="C921" s="30"/>
     </row>
     <row r="922">
-      <c r="A922" s="33"/>
-      <c r="B922" s="33"/>
-      <c r="C922" s="29"/>
+      <c r="A922" s="34"/>
+      <c r="B922" s="34"/>
+      <c r="C922" s="30"/>
     </row>
     <row r="923">
-      <c r="A923" s="33"/>
-      <c r="B923" s="33"/>
-      <c r="C923" s="29"/>
+      <c r="A923" s="34"/>
+      <c r="B923" s="34"/>
+      <c r="C923" s="30"/>
     </row>
     <row r="924">
-      <c r="A924" s="33"/>
-      <c r="B924" s="33"/>
-      <c r="C924" s="29"/>
+      <c r="A924" s="34"/>
+      <c r="B924" s="34"/>
+      <c r="C924" s="30"/>
     </row>
     <row r="925">
-      <c r="A925" s="33"/>
-      <c r="B925" s="33"/>
-      <c r="C925" s="29"/>
+      <c r="A925" s="34"/>
+      <c r="B925" s="34"/>
+      <c r="C925" s="30"/>
     </row>
     <row r="926">
-      <c r="A926" s="33"/>
-      <c r="B926" s="33"/>
-      <c r="C926" s="29"/>
+      <c r="A926" s="34"/>
+      <c r="B926" s="34"/>
+      <c r="C926" s="30"/>
     </row>
     <row r="927">
-      <c r="A927" s="33"/>
-      <c r="B927" s="33"/>
-      <c r="C927" s="29"/>
+      <c r="A927" s="34"/>
+      <c r="B927" s="34"/>
+      <c r="C927" s="30"/>
     </row>
     <row r="928">
-      <c r="A928" s="33"/>
-      <c r="B928" s="33"/>
-      <c r="C928" s="29"/>
+      <c r="A928" s="34"/>
+      <c r="B928" s="34"/>
+      <c r="C928" s="30"/>
     </row>
     <row r="929">
-      <c r="A929" s="33"/>
-      <c r="B929" s="33"/>
-      <c r="C929" s="29"/>
+      <c r="A929" s="34"/>
+      <c r="B929" s="34"/>
+      <c r="C929" s="30"/>
     </row>
     <row r="930">
-      <c r="A930" s="33"/>
-      <c r="B930" s="33"/>
-      <c r="C930" s="29"/>
+      <c r="A930" s="34"/>
+      <c r="B930" s="34"/>
+      <c r="C930" s="30"/>
     </row>
     <row r="931">
-      <c r="A931" s="33"/>
-      <c r="B931" s="33"/>
-      <c r="C931" s="29"/>
+      <c r="A931" s="34"/>
+      <c r="B931" s="34"/>
+      <c r="C931" s="30"/>
     </row>
     <row r="932">
-      <c r="A932" s="33"/>
-      <c r="B932" s="33"/>
-      <c r="C932" s="29"/>
+      <c r="A932" s="34"/>
+      <c r="B932" s="34"/>
+      <c r="C932" s="30"/>
     </row>
     <row r="933">
-      <c r="A933" s="33"/>
-      <c r="B933" s="33"/>
-      <c r="C933" s="29"/>
+      <c r="A933" s="34"/>
+      <c r="B933" s="34"/>
+      <c r="C933" s="30"/>
     </row>
     <row r="934">
-      <c r="A934" s="33"/>
-      <c r="B934" s="33"/>
-      <c r="C934" s="29"/>
+      <c r="A934" s="34"/>
+      <c r="B934" s="34"/>
+      <c r="C934" s="30"/>
     </row>
     <row r="935">
-      <c r="A935" s="33"/>
-      <c r="B935" s="33"/>
-      <c r="C935" s="29"/>
+      <c r="A935" s="34"/>
+      <c r="B935" s="34"/>
+      <c r="C935" s="30"/>
     </row>
     <row r="936">
-      <c r="A936" s="33"/>
-      <c r="B936" s="33"/>
-      <c r="C936" s="29"/>
+      <c r="A936" s="34"/>
+      <c r="B936" s="34"/>
+      <c r="C936" s="30"/>
     </row>
     <row r="937">
-      <c r="A937" s="33"/>
-      <c r="B937" s="33"/>
-      <c r="C937" s="29"/>
+      <c r="A937" s="34"/>
+      <c r="B937" s="34"/>
+      <c r="C937" s="30"/>
     </row>
     <row r="938">
-      <c r="A938" s="33"/>
-      <c r="B938" s="33"/>
-      <c r="C938" s="29"/>
+      <c r="A938" s="34"/>
+      <c r="B938" s="34"/>
+      <c r="C938" s="30"/>
     </row>
     <row r="939">
-      <c r="A939" s="33"/>
-      <c r="B939" s="33"/>
-      <c r="C939" s="29"/>
+      <c r="A939" s="34"/>
+      <c r="B939" s="34"/>
+      <c r="C939" s="30"/>
     </row>
     <row r="940">
-      <c r="A940" s="33"/>
-      <c r="B940" s="33"/>
-      <c r="C940" s="29"/>
+      <c r="A940" s="34"/>
+      <c r="B940" s="34"/>
+      <c r="C940" s="30"/>
     </row>
     <row r="941">
-      <c r="A941" s="33"/>
-      <c r="B941" s="33"/>
-      <c r="C941" s="29"/>
+      <c r="A941" s="34"/>
+      <c r="B941" s="34"/>
+      <c r="C941" s="30"/>
     </row>
     <row r="942">
-      <c r="A942" s="33"/>
-      <c r="B942" s="33"/>
-      <c r="C942" s="29"/>
+      <c r="A942" s="34"/>
+      <c r="B942" s="34"/>
+      <c r="C942" s="30"/>
     </row>
     <row r="943">
-      <c r="A943" s="33"/>
-      <c r="B943" s="33"/>
-      <c r="C943" s="29"/>
+      <c r="A943" s="34"/>
+      <c r="B943" s="34"/>
+      <c r="C943" s="30"/>
     </row>
     <row r="944">
-      <c r="A944" s="33"/>
-      <c r="B944" s="33"/>
-      <c r="C944" s="29"/>
+      <c r="A944" s="34"/>
+      <c r="B944" s="34"/>
+      <c r="C944" s="30"/>
     </row>
     <row r="945">
-      <c r="A945" s="33"/>
-      <c r="B945" s="33"/>
-      <c r="C945" s="29"/>
+      <c r="A945" s="34"/>
+      <c r="B945" s="34"/>
+      <c r="C945" s="30"/>
     </row>
     <row r="946">
-      <c r="A946" s="33"/>
-      <c r="B946" s="33"/>
-      <c r="C946" s="29"/>
+      <c r="A946" s="34"/>
+      <c r="B946" s="34"/>
+      <c r="C946" s="30"/>
     </row>
     <row r="947">
-      <c r="A947" s="33"/>
-      <c r="B947" s="33"/>
-      <c r="C947" s="29"/>
+      <c r="A947" s="34"/>
+      <c r="B947" s="34"/>
+      <c r="C947" s="30"/>
     </row>
     <row r="948">
-      <c r="A948" s="33"/>
-      <c r="B948" s="33"/>
-      <c r="C948" s="29"/>
+      <c r="A948" s="34"/>
+      <c r="B948" s="34"/>
+      <c r="C948" s="30"/>
     </row>
     <row r="949">
-      <c r="A949" s="33"/>
-      <c r="B949" s="33"/>
-      <c r="C949" s="29"/>
+      <c r="A949" s="34"/>
+      <c r="B949" s="34"/>
+      <c r="C949" s="30"/>
     </row>
     <row r="950">
-      <c r="A950" s="33"/>
-      <c r="B950" s="33"/>
-      <c r="C950" s="29"/>
+      <c r="A950" s="34"/>
+      <c r="B950" s="34"/>
+      <c r="C950" s="30"/>
     </row>
     <row r="951">
-      <c r="A951" s="33"/>
-      <c r="B951" s="33"/>
-      <c r="C951" s="29"/>
+      <c r="A951" s="34"/>
+      <c r="B951" s="34"/>
+      <c r="C951" s="30"/>
     </row>
     <row r="952">
-      <c r="A952" s="33"/>
-      <c r="B952" s="33"/>
-      <c r="C952" s="29"/>
+      <c r="A952" s="34"/>
+      <c r="B952" s="34"/>
+      <c r="C952" s="30"/>
     </row>
     <row r="953">
-      <c r="A953" s="33"/>
-      <c r="B953" s="33"/>
-      <c r="C953" s="29"/>
+      <c r="A953" s="34"/>
+      <c r="B953" s="34"/>
+      <c r="C953" s="30"/>
     </row>
     <row r="954">
-      <c r="A954" s="33"/>
-      <c r="B954" s="33"/>
-      <c r="C954" s="29"/>
+      <c r="A954" s="34"/>
+      <c r="B954" s="34"/>
+      <c r="C954" s="30"/>
     </row>
     <row r="955">
-      <c r="A955" s="33"/>
-      <c r="B955" s="33"/>
-      <c r="C955" s="29"/>
+      <c r="A955" s="34"/>
+      <c r="B955" s="34"/>
+      <c r="C955" s="30"/>
     </row>
     <row r="956">
-      <c r="A956" s="33"/>
-      <c r="B956" s="33"/>
-      <c r="C956" s="29"/>
+      <c r="A956" s="34"/>
+      <c r="B956" s="34"/>
+      <c r="C956" s="30"/>
     </row>
     <row r="957">
-      <c r="A957" s="33"/>
-      <c r="B957" s="33"/>
-      <c r="C957" s="29"/>
+      <c r="A957" s="34"/>
+      <c r="B957" s="34"/>
+      <c r="C957" s="30"/>
     </row>
     <row r="958">
-      <c r="A958" s="33"/>
-      <c r="B958" s="33"/>
-      <c r="C958" s="29"/>
+      <c r="A958" s="34"/>
+      <c r="B958" s="34"/>
+      <c r="C958" s="30"/>
     </row>
     <row r="959">
-      <c r="A959" s="33"/>
-      <c r="B959" s="33"/>
-      <c r="C959" s="29"/>
+      <c r="A959" s="34"/>
+      <c r="B959" s="34"/>
+      <c r="C959" s="30"/>
     </row>
     <row r="960">
-      <c r="A960" s="33"/>
-      <c r="B960" s="33"/>
-      <c r="C960" s="29"/>
+      <c r="A960" s="34"/>
+      <c r="B960" s="34"/>
+      <c r="C960" s="30"/>
     </row>
     <row r="961">
-      <c r="A961" s="33"/>
-      <c r="B961" s="33"/>
-      <c r="C961" s="29"/>
+      <c r="A961" s="34"/>
+      <c r="B961" s="34"/>
+      <c r="C961" s="30"/>
     </row>
     <row r="962">
-      <c r="A962" s="33"/>
-      <c r="B962" s="33"/>
-      <c r="C962" s="29"/>
+      <c r="A962" s="34"/>
+      <c r="B962" s="34"/>
+      <c r="C962" s="30"/>
     </row>
     <row r="963">
-      <c r="A963" s="33"/>
-      <c r="B963" s="33"/>
-      <c r="C963" s="29"/>
+      <c r="A963" s="34"/>
+      <c r="B963" s="34"/>
+      <c r="C963" s="30"/>
     </row>
     <row r="964">
-      <c r="A964" s="33"/>
-      <c r="B964" s="33"/>
-      <c r="C964" s="29"/>
+      <c r="A964" s="34"/>
+      <c r="B964" s="34"/>
+      <c r="C964" s="30"/>
     </row>
     <row r="965">
-      <c r="A965" s="33"/>
-      <c r="B965" s="33"/>
-      <c r="C965" s="29"/>
+      <c r="A965" s="34"/>
+      <c r="B965" s="34"/>
+      <c r="C965" s="30"/>
     </row>
     <row r="966">
-      <c r="A966" s="33"/>
-      <c r="B966" s="33"/>
-      <c r="C966" s="29"/>
+      <c r="A966" s="34"/>
+      <c r="B966" s="34"/>
+      <c r="C966" s="30"/>
     </row>
     <row r="967">
-      <c r="A967" s="33"/>
-      <c r="B967" s="33"/>
-      <c r="C967" s="29"/>
+      <c r="A967" s="34"/>
+      <c r="B967" s="34"/>
+      <c r="C967" s="30"/>
     </row>
     <row r="968">
-      <c r="A968" s="33"/>
-      <c r="B968" s="33"/>
-      <c r="C968" s="29"/>
+      <c r="A968" s="34"/>
+      <c r="B968" s="34"/>
+      <c r="C968" s="30"/>
     </row>
     <row r="969">
-      <c r="A969" s="33"/>
-      <c r="B969" s="33"/>
-      <c r="C969" s="29"/>
+      <c r="A969" s="34"/>
+      <c r="B969" s="34"/>
+      <c r="C969" s="30"/>
     </row>
     <row r="970">
-      <c r="A970" s="33"/>
-      <c r="B970" s="33"/>
-      <c r="C970" s="29"/>
+      <c r="A970" s="34"/>
+      <c r="B970" s="34"/>
+      <c r="C970" s="30"/>
     </row>
     <row r="971">
-      <c r="A971" s="33"/>
-      <c r="B971" s="33"/>
-      <c r="C971" s="29"/>
+      <c r="A971" s="34"/>
+      <c r="B971" s="34"/>
+      <c r="C971" s="30"/>
     </row>
     <row r="972">
-      <c r="A972" s="33"/>
-      <c r="B972" s="33"/>
-      <c r="C972" s="29"/>
+      <c r="A972" s="34"/>
+      <c r="B972" s="34"/>
+      <c r="C972" s="30"/>
     </row>
     <row r="973">
-      <c r="A973" s="33"/>
-      <c r="B973" s="33"/>
-      <c r="C973" s="29"/>
+      <c r="A973" s="34"/>
+      <c r="B973" s="34"/>
+      <c r="C973" s="30"/>
     </row>
     <row r="974">
-      <c r="A974" s="33"/>
-      <c r="B974" s="33"/>
-      <c r="C974" s="29"/>
+      <c r="A974" s="34"/>
+      <c r="B974" s="34"/>
+      <c r="C974" s="30"/>
     </row>
     <row r="975">
-      <c r="A975" s="33"/>
-      <c r="B975" s="33"/>
-      <c r="C975" s="29"/>
+      <c r="A975" s="34"/>
+      <c r="B975" s="34"/>
+      <c r="C975" s="30"/>
     </row>
     <row r="976">
-      <c r="A976" s="33"/>
-      <c r="B976" s="33"/>
-      <c r="C976" s="29"/>
+      <c r="A976" s="34"/>
+      <c r="B976" s="34"/>
+      <c r="C976" s="30"/>
     </row>
     <row r="977">
-      <c r="A977" s="33"/>
-      <c r="B977" s="33"/>
-      <c r="C977" s="29"/>
+      <c r="A977" s="34"/>
+      <c r="B977" s="34"/>
+      <c r="C977" s="30"/>
     </row>
     <row r="978">
-      <c r="A978" s="33"/>
-      <c r="B978" s="33"/>
-      <c r="C978" s="29"/>
+      <c r="A978" s="34"/>
+      <c r="B978" s="34"/>
+      <c r="C978" s="30"/>
     </row>
     <row r="979">
-      <c r="A979" s="33"/>
-      <c r="B979" s="33"/>
-      <c r="C979" s="29"/>
+      <c r="A979" s="34"/>
+      <c r="B979" s="34"/>
+      <c r="C979" s="30"/>
     </row>
     <row r="980">
-      <c r="A980" s="33"/>
-      <c r="B980" s="33"/>
-      <c r="C980" s="29"/>
+      <c r="A980" s="34"/>
+      <c r="B980" s="34"/>
+      <c r="C980" s="30"/>
     </row>
     <row r="981">
-      <c r="A981" s="33"/>
-      <c r="B981" s="33"/>
-      <c r="C981" s="29"/>
+      <c r="A981" s="34"/>
+      <c r="B981" s="34"/>
+      <c r="C981" s="30"/>
     </row>
     <row r="982">
-      <c r="A982" s="33"/>
-      <c r="B982" s="33"/>
-      <c r="C982" s="29"/>
+      <c r="A982" s="34"/>
+      <c r="B982" s="34"/>
+      <c r="C982" s="30"/>
     </row>
     <row r="983">
-      <c r="A983" s="33"/>
-      <c r="B983" s="33"/>
-      <c r="C983" s="29"/>
+      <c r="A983" s="34"/>
+      <c r="B983" s="34"/>
+      <c r="C983" s="30"/>
     </row>
     <row r="984">
-      <c r="A984" s="33"/>
-      <c r="B984" s="33"/>
-      <c r="C984" s="29"/>
+      <c r="A984" s="34"/>
+      <c r="B984" s="34"/>
+      <c r="C984" s="30"/>
     </row>
     <row r="985">
-      <c r="A985" s="33"/>
-      <c r="B985" s="33"/>
-      <c r="C985" s="29"/>
+      <c r="A985" s="34"/>
+      <c r="B985" s="34"/>
+      <c r="C985" s="30"/>
     </row>
     <row r="986">
-      <c r="A986" s="33"/>
-      <c r="B986" s="33"/>
-      <c r="C986" s="29"/>
+      <c r="A986" s="34"/>
+      <c r="B986" s="34"/>
+      <c r="C986" s="30"/>
     </row>
     <row r="987">
-      <c r="A987" s="33"/>
-      <c r="B987" s="33"/>
-      <c r="C987" s="29"/>
+      <c r="A987" s="34"/>
+      <c r="B987" s="34"/>
+      <c r="C987" s="30"/>
     </row>
     <row r="988">
-      <c r="A988" s="33"/>
-      <c r="B988" s="33"/>
-      <c r="C988" s="29"/>
+      <c r="A988" s="34"/>
+      <c r="B988" s="34"/>
+      <c r="C988" s="30"/>
     </row>
     <row r="989">
-      <c r="A989" s="33"/>
-      <c r="B989" s="33"/>
-      <c r="C989" s="29"/>
+      <c r="A989" s="34"/>
+      <c r="B989" s="34"/>
+      <c r="C989" s="30"/>
     </row>
     <row r="990">
-      <c r="A990" s="33"/>
-      <c r="B990" s="33"/>
-      <c r="C990" s="29"/>
+      <c r="A990" s="34"/>
+      <c r="B990" s="34"/>
+      <c r="C990" s="30"/>
     </row>
     <row r="991">
-      <c r="A991" s="33"/>
-      <c r="B991" s="33"/>
-      <c r="C991" s="29"/>
+      <c r="A991" s="34"/>
+      <c r="B991" s="34"/>
+      <c r="C991" s="30"/>
     </row>
     <row r="992">
-      <c r="A992" s="33"/>
-      <c r="B992" s="33"/>
-      <c r="C992" s="29"/>
+      <c r="A992" s="34"/>
+      <c r="B992" s="34"/>
+      <c r="C992" s="30"/>
     </row>
     <row r="993">
-      <c r="A993" s="33"/>
-      <c r="B993" s="33"/>
-      <c r="C993" s="29"/>
+      <c r="A993" s="34"/>
+      <c r="B993" s="34"/>
+      <c r="C993" s="30"/>
     </row>
     <row r="994">
-      <c r="A994" s="33"/>
-      <c r="B994" s="33"/>
-      <c r="C994" s="29"/>
+      <c r="A994" s="34"/>
+      <c r="B994" s="34"/>
+      <c r="C994" s="30"/>
     </row>
     <row r="995">
-      <c r="A995" s="33"/>
-      <c r="B995" s="33"/>
-      <c r="C995" s="29"/>
+      <c r="A995" s="34"/>
+      <c r="B995" s="34"/>
+      <c r="C995" s="30"/>
     </row>
     <row r="996">
-      <c r="A996" s="33"/>
-      <c r="B996" s="33"/>
-      <c r="C996" s="29"/>
+      <c r="A996" s="34"/>
+      <c r="B996" s="34"/>
+      <c r="C996" s="30"/>
     </row>
     <row r="997">
-      <c r="A997" s="33"/>
-      <c r="B997" s="33"/>
-      <c r="C997" s="29"/>
+      <c r="A997" s="34"/>
+      <c r="B997" s="34"/>
+      <c r="C997" s="30"/>
     </row>
     <row r="998">
-      <c r="A998" s="33"/>
-      <c r="B998" s="33"/>
-      <c r="C998" s="29"/>
+      <c r="A998" s="34"/>
+      <c r="B998" s="34"/>
+      <c r="C998" s="30"/>
     </row>
     <row r="999">
-      <c r="A999" s="33"/>
-      <c r="B999" s="33"/>
-      <c r="C999" s="29"/>
+      <c r="A999" s="34"/>
+      <c r="B999" s="34"/>
+      <c r="C999" s="30"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="33"/>
-      <c r="B1000" s="33"/>
-      <c r="C1000" s="29"/>
+      <c r="A1000" s="34"/>
+      <c r="B1000" s="34"/>
+      <c r="C1000" s="30"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="33"/>
-      <c r="B1001" s="33"/>
-      <c r="C1001" s="29"/>
+      <c r="A1001" s="34"/>
+      <c r="B1001" s="34"/>
+      <c r="C1001" s="30"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="33"/>
-      <c r="B1002" s="33"/>
-      <c r="C1002" s="29"/>
+      <c r="A1002" s="34"/>
+      <c r="B1002" s="34"/>
+      <c r="C1002" s="30"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="33"/>
-      <c r="B1003" s="33"/>
-      <c r="C1003" s="29"/>
+      <c r="A1003" s="34"/>
+      <c r="B1003" s="34"/>
+      <c r="C1003" s="30"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="33"/>
-      <c r="B1004" s="33"/>
-      <c r="C1004" s="29"/>
+      <c r="A1004" s="34"/>
+      <c r="B1004" s="34"/>
+      <c r="C1004" s="30"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="33"/>
-      <c r="B1005" s="33"/>
-      <c r="C1005" s="29"/>
+      <c r="A1005" s="34"/>
+      <c r="B1005" s="34"/>
+      <c r="C1005" s="30"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="33"/>
-      <c r="B1006" s="33"/>
-      <c r="C1006" s="29"/>
+      <c r="A1006" s="34"/>
+      <c r="B1006" s="34"/>
+      <c r="C1006" s="30"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="33"/>
-      <c r="B1007" s="33"/>
-      <c r="C1007" s="29"/>
+      <c r="A1007" s="34"/>
+      <c r="B1007" s="34"/>
+      <c r="C1007" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5973,61 +5988,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>4.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>3.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3.0</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -6036,15 +6051,15 @@
       <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>4.0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>4.0</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -6056,10 +6071,10 @@
       <c r="D5" s="15">
         <v>4.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>5.0</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="17"/>
@@ -13026,101 +13041,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
+    <row r="4">
+      <c r="D4" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+    <row r="5">
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+    <row r="8">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="9">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17">
-      <c r="D17" s="4" t="s">
-        <v>30</v>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -13148,35 +13168,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>7.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="17"/>
@@ -16193,84 +16213,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>63</v>
+      <c r="A1" s="36" t="s">
+        <v>64</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>70</v>
       </c>
+      <c r="F1" s="36" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>0.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>15.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>0.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>0.0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>15.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>15.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>1.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>15.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>0.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>0.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>15.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>2.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>15.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="8">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>3.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>15.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>0.0</v>
       </c>
     </row>
